--- a/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements/input/Financial Statement AAPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements/output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BCF89F-5D5C-1F44-B3C5-656E578AED0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614F076-0C10-644D-BD68-A11A27A7C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="780" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="100">
   <si>
     <t>label</t>
   </si>
@@ -696,18 +696,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AR66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,52 +798,55 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -928,44 +934,44 @@
       <c r="AC3">
         <v>29180</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>20484</v>
       </c>
-      <c r="AE3">
+      <c r="AH3">
         <v>20484</v>
       </c>
-      <c r="AF3">
+      <c r="AI3">
         <v>20289</v>
       </c>
-      <c r="AG3">
+      <c r="AJ3">
         <v>20289</v>
       </c>
-      <c r="AH3">
+      <c r="AK3">
         <v>25913</v>
       </c>
-      <c r="AI3">
+      <c r="AL3">
         <v>25913</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>50224</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>50224</v>
       </c>
-      <c r="AL3">
+      <c r="AO3">
         <v>39789</v>
       </c>
-      <c r="AM3">
+      <c r="AP3">
         <v>39789</v>
       </c>
-      <c r="AN3">
+      <c r="AQ3">
         <v>35929</v>
       </c>
-      <c r="AO3">
+      <c r="AR3">
         <v>35929</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -976,15 +982,15 @@
         <v>20289</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AR6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1072,586 +1078,578 @@
       <c r="AC7">
         <v>19442</v>
       </c>
-      <c r="AD7">
+      <c r="AG7">
         <v>28920</v>
       </c>
-      <c r="AE7">
+      <c r="AH7">
         <v>37637</v>
       </c>
-      <c r="AF7">
+      <c r="AI7">
         <v>33887</v>
       </c>
-      <c r="AG7">
+      <c r="AJ7">
         <v>45406</v>
       </c>
-      <c r="AH7">
+      <c r="AK7">
         <v>31526</v>
       </c>
-      <c r="AI7">
+      <c r="AL7">
         <v>41570</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>33485</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>44738</v>
       </c>
-      <c r="AL7">
+      <c r="AO7">
         <v>52385</v>
       </c>
-      <c r="AM7">
+      <c r="AP7">
         <v>74129</v>
       </c>
-      <c r="AN7">
+      <c r="AQ7">
         <v>59640</v>
       </c>
-      <c r="AO7">
+      <c r="AR7">
         <v>79082</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AR9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>2987</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>2332</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>2354</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>2484</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>10157</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2745</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>2739</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>2665</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>2754</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>10903</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>3395</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>3040</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>2933</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>3179</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>12547</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>2816</v>
       </c>
-      <c r="R9">
+      <c r="R10">
         <v>2786</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>2752</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>2702</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>11056</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>2666</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>2797</v>
       </c>
-      <c r="X9">
+      <c r="X10">
         <v>2832</v>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <v>2989</v>
       </c>
-      <c r="Z9">
+      <c r="Z10">
         <v>11284</v>
       </c>
-      <c r="AA9">
+      <c r="AA10">
         <v>2697</v>
       </c>
-      <c r="AB9">
+      <c r="AB10">
         <v>2737</v>
       </c>
-      <c r="AC9">
+      <c r="AC10">
         <v>2805</v>
       </c>
-      <c r="AD9">
+      <c r="AG10">
         <v>5319</v>
       </c>
-      <c r="AE9">
+      <c r="AH10">
         <v>7673</v>
       </c>
-      <c r="AF9">
+      <c r="AI10">
         <v>5484</v>
       </c>
-      <c r="AG9">
+      <c r="AJ10">
         <v>8149</v>
       </c>
-      <c r="AH9">
+      <c r="AK10">
         <v>6435</v>
       </c>
-      <c r="AI9">
+      <c r="AL10">
         <v>9368</v>
       </c>
-      <c r="AJ9">
+      <c r="AM10">
         <v>5602</v>
       </c>
-      <c r="AK9">
+      <c r="AN10">
         <v>8354</v>
       </c>
-      <c r="AL9">
+      <c r="AO10">
         <v>5463</v>
       </c>
-      <c r="AM9">
+      <c r="AP10">
         <v>8295</v>
       </c>
-      <c r="AN9">
+      <c r="AQ10">
         <v>5434</v>
       </c>
-      <c r="AO9">
+      <c r="AR10">
         <v>8239</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1256</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>1217</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1193</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>1174</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>4840</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>1296</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>1348</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>1351</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>1345</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>5340</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>1559</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>1514</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>1496</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>1499</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>6068</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>1710</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>1697</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>1698</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>1724</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>6829</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>2020</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <v>1981</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <v>1960</v>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <v>1945</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>7906</v>
       </c>
-      <c r="AA10">
+      <c r="AA11">
         <v>2265</v>
       </c>
-      <c r="AB10">
+      <c r="AB11">
         <v>2252</v>
       </c>
-      <c r="AC10">
+      <c r="AC11">
         <v>2243</v>
       </c>
-      <c r="AD10">
+      <c r="AG11">
         <v>2473</v>
       </c>
-      <c r="AE10">
+      <c r="AH11">
         <v>3666</v>
       </c>
-      <c r="AF10">
+      <c r="AI11">
         <v>2644</v>
       </c>
-      <c r="AG10">
+      <c r="AJ11">
         <v>3995</v>
       </c>
-      <c r="AH10">
+      <c r="AK11">
         <v>3073</v>
       </c>
-      <c r="AI10">
+      <c r="AL11">
         <v>4569</v>
       </c>
-      <c r="AJ10">
+      <c r="AM11">
         <v>3407</v>
       </c>
-      <c r="AK10">
+      <c r="AN11">
         <v>5105</v>
       </c>
-      <c r="AL10">
+      <c r="AO11">
         <v>4001</v>
       </c>
-      <c r="AM10">
+      <c r="AP11">
         <v>5961</v>
       </c>
-      <c r="AN10">
+      <c r="AQ11">
         <v>4517</v>
       </c>
-      <c r="AO10">
+      <c r="AR11">
         <v>6760</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1452</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1370</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1942</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1202</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>5966</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-33737</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-498</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>1126</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>519</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-32590</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>53</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-53</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>-340</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>-340</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>-349</v>
       </c>
-      <c r="R11">
+      <c r="R12">
         <v>349</v>
       </c>
-      <c r="S11">
+      <c r="S12">
         <v>182</v>
       </c>
-      <c r="T11">
+      <c r="T12">
         <v>-182</v>
       </c>
-      <c r="X11">
+      <c r="X12">
         <v>-737</v>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <v>737</v>
       </c>
-      <c r="AA11">
+      <c r="AA12">
         <v>682</v>
       </c>
-      <c r="AB11">
+      <c r="AB12">
         <v>406</v>
       </c>
-      <c r="AC11">
+      <c r="AC12">
         <v>1668</v>
       </c>
-      <c r="AD11">
+      <c r="AG12">
         <v>2822</v>
       </c>
-      <c r="AE11">
+      <c r="AH12">
         <v>4764</v>
       </c>
-      <c r="AF11">
+      <c r="AI12">
         <v>-34235</v>
       </c>
-      <c r="AG11">
+      <c r="AJ12">
         <v>-33109</v>
       </c>
-      <c r="AK11">
+      <c r="AN12">
         <v>182</v>
       </c>
-      <c r="AM11">
+      <c r="AP12">
         <v>-737</v>
       </c>
-      <c r="AN11">
+      <c r="AQ12">
         <v>1088</v>
       </c>
-      <c r="AO11">
+      <c r="AR12">
         <v>2756</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>-124</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>86</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>38</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>-651</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>651</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>-215</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>-215</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>-58</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>-149</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <v>207</v>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <v>-4774</v>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <v>-4774</v>
       </c>
-      <c r="AH12">
+      <c r="AK13">
         <v>-124</v>
       </c>
-      <c r="AI12">
+      <c r="AL13">
         <v>-38</v>
       </c>
-      <c r="AJ12">
+      <c r="AM13">
         <v>-651</v>
       </c>
-      <c r="AL12">
+      <c r="AO13">
         <v>-207</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>-274</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>65</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>67</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>-24</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>-166</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>-11</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>-140</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>-259</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-34</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-444</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-54</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>-161</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>-125</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>-312</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>-652</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>-142</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>-117</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>165</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>-3</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <v>-97</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>25</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>-499</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <v>-215</v>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <v>542</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>-147</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>167</v>
       </c>
-      <c r="AB13">
+      <c r="AB14">
         <v>-187</v>
       </c>
-      <c r="AC13">
+      <c r="AC14">
         <v>-41</v>
       </c>
-      <c r="AD13">
+      <c r="AG14">
         <v>-209</v>
       </c>
-      <c r="AE13">
+      <c r="AH14">
         <v>-142</v>
       </c>
-      <c r="AF13">
+      <c r="AI14">
         <v>-151</v>
       </c>
-      <c r="AG13">
+      <c r="AJ14">
         <v>-410</v>
       </c>
-      <c r="AH13">
+      <c r="AK14">
         <v>-215</v>
       </c>
-      <c r="AI13">
+      <c r="AL14">
         <v>-340</v>
       </c>
-      <c r="AJ13">
+      <c r="AM14">
         <v>-259</v>
       </c>
-      <c r="AK13">
+      <c r="AN14">
         <v>-94</v>
       </c>
-      <c r="AL13">
+      <c r="AO14">
         <v>-474</v>
       </c>
-      <c r="AM13">
+      <c r="AP14">
         <v>-689</v>
       </c>
-      <c r="AN13">
+      <c r="AQ14">
         <v>-20</v>
       </c>
-      <c r="AO13">
+      <c r="AR14">
         <v>-61</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1739,44 +1737,44 @@
       <c r="AC15">
         <v>-981</v>
       </c>
-      <c r="AD15">
+      <c r="AG15">
         <v>4183</v>
       </c>
-      <c r="AE15">
+      <c r="AH15">
         <v>3381</v>
       </c>
-      <c r="AF15">
+      <c r="AI15">
         <v>3523</v>
       </c>
-      <c r="AG15">
+      <c r="AJ15">
         <v>3756</v>
       </c>
-      <c r="AH15">
+      <c r="AK15">
         <v>8094</v>
       </c>
-      <c r="AI15">
+      <c r="AL15">
         <v>9013</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>7284</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>5149</v>
       </c>
-      <c r="AL15">
+      <c r="AO15">
         <v>-2347</v>
       </c>
-      <c r="AM15">
+      <c r="AP15">
         <v>-1316</v>
       </c>
-      <c r="AN15">
+      <c r="AQ15">
         <v>5542</v>
       </c>
-      <c r="AO15">
+      <c r="AR15">
         <v>4561</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -1864,44 +1862,44 @@
       <c r="AC16">
         <v>-16</v>
       </c>
-      <c r="AD16">
+      <c r="AG16">
         <v>-778</v>
       </c>
-      <c r="AE16">
+      <c r="AH16">
         <v>-1014</v>
       </c>
-      <c r="AF16">
+      <c r="AI16">
         <v>-2807</v>
       </c>
-      <c r="AG16">
+      <c r="AJ16">
         <v>-1114</v>
       </c>
-      <c r="AH16">
+      <c r="AK16">
         <v>-1006</v>
       </c>
-      <c r="AI16">
+      <c r="AL16">
         <v>496</v>
       </c>
-      <c r="AJ16">
+      <c r="AM16">
         <v>699</v>
       </c>
-      <c r="AK16">
+      <c r="AN16">
         <v>10</v>
       </c>
-      <c r="AL16">
+      <c r="AO16">
         <v>-1226</v>
       </c>
-      <c r="AM16">
+      <c r="AP16">
         <v>-1213</v>
       </c>
-      <c r="AN16">
+      <c r="AQ16">
         <v>1065</v>
       </c>
-      <c r="AO16">
+      <c r="AR16">
         <v>1049</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -1989,44 +1987,44 @@
       <c r="AC17">
         <v>4146</v>
       </c>
-      <c r="AD17">
+      <c r="AG17">
         <v>4512</v>
       </c>
-      <c r="AE17">
+      <c r="AH17">
         <v>3312</v>
       </c>
-      <c r="AF17">
+      <c r="AI17">
         <v>9715</v>
       </c>
-      <c r="AG17">
+      <c r="AJ17">
         <v>5536</v>
       </c>
-      <c r="AH17">
+      <c r="AK17">
         <v>14616</v>
       </c>
-      <c r="AI17">
+      <c r="AL17">
         <v>13483</v>
       </c>
-      <c r="AJ17">
+      <c r="AM17">
         <v>7923</v>
       </c>
-      <c r="AK17">
+      <c r="AN17">
         <v>8685</v>
       </c>
-      <c r="AL17">
+      <c r="AO17">
         <v>6792</v>
       </c>
-      <c r="AM17">
+      <c r="AP17">
         <v>4892</v>
       </c>
-      <c r="AN17">
+      <c r="AQ17">
         <v>643</v>
       </c>
-      <c r="AO17">
+      <c r="AR17">
         <v>4789</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -2114,44 +2112,44 @@
       <c r="AC18">
         <v>253</v>
       </c>
-      <c r="AD18">
+      <c r="AG18">
         <v>-896</v>
       </c>
-      <c r="AE18">
+      <c r="AH18">
         <v>-3229</v>
       </c>
-      <c r="AF18">
+      <c r="AI18">
         <v>-1053</v>
       </c>
-      <c r="AG18">
+      <c r="AJ18">
         <v>-65</v>
       </c>
-      <c r="AH18">
+      <c r="AK18">
         <v>-717</v>
       </c>
-      <c r="AI18">
+      <c r="AL18">
         <v>693</v>
       </c>
-      <c r="AJ18">
+      <c r="AM18">
         <v>-8866</v>
       </c>
-      <c r="AK18">
+      <c r="AN18">
         <v>-6760</v>
       </c>
-      <c r="AL18">
+      <c r="AO18">
         <v>-4333</v>
       </c>
-      <c r="AM18">
+      <c r="AP18">
         <v>-5899</v>
       </c>
-      <c r="AN18">
+      <c r="AQ18">
         <v>-3542</v>
       </c>
-      <c r="AO18">
+      <c r="AR18">
         <v>-3289</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2239,44 +2237,44 @@
       <c r="AC19">
         <v>-4358</v>
       </c>
-      <c r="AD19">
+      <c r="AG19">
         <v>-6862</v>
       </c>
-      <c r="AE19">
+      <c r="AH19">
         <v>-5212</v>
       </c>
-      <c r="AF19">
+      <c r="AI19">
         <v>-13220</v>
       </c>
-      <c r="AG19">
+      <c r="AJ19">
         <v>-11139</v>
       </c>
-      <c r="AH19">
+      <c r="AK19">
         <v>-20024</v>
       </c>
-      <c r="AI19">
+      <c r="AL19">
         <v>-19804</v>
       </c>
-      <c r="AJ19">
+      <c r="AM19">
         <v>-13520</v>
       </c>
-      <c r="AK19">
+      <c r="AN19">
         <v>-10787</v>
       </c>
-      <c r="AL19">
+      <c r="AO19">
         <v>-1997</v>
       </c>
-      <c r="AM19">
+      <c r="AP19">
         <v>-1786</v>
       </c>
-      <c r="AN19">
+      <c r="AQ19">
         <v>-1750</v>
       </c>
-      <c r="AO19">
+      <c r="AR19">
         <v>-6108</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -2364,44 +2362,44 @@
       <c r="AC20">
         <v>-367</v>
       </c>
-      <c r="AD20">
+      <c r="AG20">
         <v>-221</v>
       </c>
-      <c r="AE20">
+      <c r="AH20">
         <v>-418</v>
       </c>
-      <c r="AF20">
+      <c r="AI20">
         <v>478</v>
       </c>
-      <c r="AG20">
+      <c r="AJ20">
         <v>-103</v>
       </c>
-      <c r="AH20">
+      <c r="AK20">
         <v>-540</v>
       </c>
-      <c r="AI20">
+      <c r="AL20">
         <v>-776</v>
       </c>
-      <c r="AJ20">
+      <c r="AM20">
         <v>1223</v>
       </c>
-      <c r="AK20">
+      <c r="AN20">
         <v>1649</v>
       </c>
-      <c r="AL20">
+      <c r="AO20">
         <v>1642</v>
       </c>
-      <c r="AM20">
+      <c r="AP20">
         <v>1738</v>
       </c>
-      <c r="AN20">
+      <c r="AQ20">
         <v>627</v>
       </c>
-      <c r="AO20">
+      <c r="AR20">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -2489,44 +2487,44 @@
       <c r="AC21">
         <v>-1902</v>
       </c>
-      <c r="AD21">
+      <c r="AG21">
         <v>316</v>
       </c>
-      <c r="AE21">
+      <c r="AH21">
         <v>-2476</v>
       </c>
-      <c r="AF21">
+      <c r="AI21">
         <v>39158</v>
       </c>
-      <c r="AG21">
+      <c r="AJ21">
         <v>37009</v>
       </c>
-      <c r="AH21">
+      <c r="AK21">
         <v>-3273</v>
       </c>
-      <c r="AI21">
+      <c r="AL21">
         <v>-8753</v>
       </c>
-      <c r="AJ21">
+      <c r="AM21">
         <v>7500</v>
       </c>
-      <c r="AK21">
+      <c r="AN21">
         <v>3867</v>
       </c>
-      <c r="AL21">
+      <c r="AO21">
         <v>3045</v>
       </c>
-      <c r="AM21">
+      <c r="AP21">
         <v>463</v>
       </c>
-      <c r="AN21">
+      <c r="AQ21">
         <v>1888</v>
       </c>
-      <c r="AO21">
+      <c r="AR21">
         <v>-14</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2535,171 +2533,171 @@
         <v>27056</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:T22" si="0">SUM(C7:C21)</f>
+        <f>SUM(C7:C21)</f>
         <v>12523</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:D21)</f>
         <v>8363</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>SUM(E7:E21)</f>
         <v>15656</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f>SUM(F7:F21)</f>
         <v>63598</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>SUM(G7:G21)</f>
         <v>28293</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f>SUM(H7:H21)</f>
         <v>15130</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f>SUM(I7:I21)</f>
         <v>14488</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f>SUM(J7:J21)</f>
         <v>19523</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f>SUM(K7:K21)</f>
         <v>77434</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f>SUM(L7:L21)</f>
         <v>26690</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
+        <f>SUM(M7:M21)</f>
         <v>11155</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
+        <f>SUM(N7:N21)</f>
         <v>11636</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
+        <f>SUM(O7:O21)</f>
         <v>19910</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
+        <f>SUM(P7:P21)</f>
         <v>69391</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f>SUM(Q7:Q21)</f>
         <v>30516</v>
       </c>
       <c r="R22">
-        <f t="shared" si="0"/>
+        <f>SUM(R7:R21)</f>
         <v>13311</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
+        <f>SUM(S7:S21)</f>
         <v>16271</v>
       </c>
       <c r="T22">
-        <f t="shared" si="0"/>
+        <f>SUM(T7:T21)</f>
         <v>20576</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22" si="1">SUM(U7:U21)</f>
+        <f>SUM(U7:U21)</f>
         <v>80674</v>
       </c>
       <c r="V22">
-        <f t="shared" ref="V22" si="2">SUM(V7:V21)</f>
+        <f>SUM(V7:V21)</f>
         <v>38763</v>
       </c>
       <c r="W22">
-        <f t="shared" ref="W22" si="3">SUM(W7:W21)</f>
+        <f>SUM(W7:W21)</f>
         <v>23981</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22" si="4">SUM(X7:X21)</f>
+        <f>SUM(X7:X21)</f>
         <v>21094</v>
       </c>
       <c r="Y22">
-        <f t="shared" ref="Y22" si="5">SUM(Y7:Y21)</f>
+        <f>SUM(Y7:Y21)</f>
         <v>20200</v>
       </c>
       <c r="Z22">
-        <f t="shared" ref="Z22" si="6">SUM(Z7:Z21)</f>
+        <f>SUM(Z7:Z21)</f>
         <v>104038</v>
       </c>
       <c r="AA22">
-        <f t="shared" ref="AA22" si="7">SUM(AA7:AA21)</f>
+        <f>SUM(AA7:AA21)</f>
         <v>46966</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22" si="8">SUM(AB7:AB21)</f>
+        <f>SUM(AB7:AB21)</f>
         <v>28166</v>
       </c>
       <c r="AC22">
-        <f t="shared" ref="AC22" si="9">SUM(AC7:AC21)</f>
+        <f>SUM(AC7:AC21)</f>
         <v>22892</v>
       </c>
-      <c r="AD22">
-        <f t="shared" ref="AD22" si="10">SUM(AD7:AD21)</f>
+      <c r="AG22">
+        <f>SUM(AG7:AG21)</f>
         <v>39579</v>
       </c>
-      <c r="AE22">
-        <f t="shared" ref="AE22" si="11">SUM(AE7:AE21)</f>
+      <c r="AH22">
+        <f>SUM(AH7:AH21)</f>
         <v>47942</v>
       </c>
-      <c r="AF22">
-        <f t="shared" ref="AF22" si="12">SUM(AF7:AF21)</f>
+      <c r="AI22">
+        <f>SUM(AI7:AI21)</f>
         <v>43423</v>
       </c>
-      <c r="AG22">
-        <f t="shared" ref="AG22" si="13">SUM(AG7:AG21)</f>
+      <c r="AJ22">
+        <f>SUM(AJ7:AJ21)</f>
         <v>57911</v>
       </c>
-      <c r="AH22">
-        <f t="shared" ref="AH22" si="14">SUM(AH7:AH21)</f>
+      <c r="AK22">
+        <f>SUM(AK7:AK21)</f>
         <v>37845</v>
       </c>
-      <c r="AI22">
-        <f t="shared" ref="AI22" si="15">SUM(AI7:AI21)</f>
+      <c r="AL22">
+        <f>SUM(AL7:AL21)</f>
         <v>49481</v>
       </c>
-      <c r="AJ22">
-        <f t="shared" ref="AJ22" si="16">SUM(AJ7:AJ21)</f>
+      <c r="AM22">
+        <f>SUM(AM7:AM21)</f>
         <v>43827</v>
       </c>
-      <c r="AK22">
-        <f t="shared" ref="AK22:AL22" si="17">SUM(AK7:AK21)</f>
+      <c r="AN22">
+        <f>SUM(AN7:AN21)</f>
         <v>60098</v>
       </c>
-      <c r="AL22">
-        <f t="shared" si="17"/>
+      <c r="AO22">
+        <f>SUM(AO7:AO21)</f>
         <v>62744</v>
       </c>
-      <c r="AM22">
-        <f t="shared" ref="AM22" si="18">SUM(AM7:AM21)</f>
+      <c r="AP22">
+        <f>SUM(AP7:AP21)</f>
         <v>83838</v>
       </c>
-      <c r="AN22">
-        <f t="shared" ref="AN22" si="19">SUM(AN7:AN21)</f>
+      <c r="AQ22">
+        <f>SUM(AQ7:AQ21)</f>
         <v>75132</v>
       </c>
-      <c r="AO22">
-        <f t="shared" ref="AO22" si="20">SUM(AO7:AO21)</f>
+      <c r="AR22">
+        <f>SUM(AR7:AR21)</f>
         <v>98024</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>64</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AR24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -2787,44 +2785,44 @@
       <c r="AC25">
         <v>-8191</v>
       </c>
-      <c r="AD25">
+      <c r="AG25">
         <v>-99821</v>
       </c>
-      <c r="AE25">
+      <c r="AH25">
         <v>-123781</v>
       </c>
-      <c r="AF25">
+      <c r="AI25">
         <v>-48449</v>
       </c>
-      <c r="AG25">
+      <c r="AJ25">
         <v>-56133</v>
       </c>
-      <c r="AH25">
+      <c r="AK25">
         <v>-13854</v>
       </c>
-      <c r="AI25">
+      <c r="AL25">
         <v>-21902</v>
       </c>
-      <c r="AJ25">
+      <c r="AM25">
         <v>-66489</v>
       </c>
-      <c r="AK25">
+      <c r="AN25">
         <v>-96606</v>
       </c>
-      <c r="AL25">
+      <c r="AO25">
         <v>-74424</v>
       </c>
-      <c r="AM25">
+      <c r="AP25">
         <v>-94052</v>
       </c>
-      <c r="AN25">
+      <c r="AQ25">
         <v>-61987</v>
       </c>
-      <c r="AO25">
+      <c r="AR25">
         <v>-70178</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2912,44 +2910,44 @@
       <c r="AC26">
         <v>6203</v>
       </c>
-      <c r="AD26">
+      <c r="AG26">
         <v>12429</v>
       </c>
-      <c r="AE26">
+      <c r="AH26">
         <v>19347</v>
       </c>
-      <c r="AF26">
+      <c r="AI26">
         <v>31884</v>
       </c>
-      <c r="AG26">
+      <c r="AJ26">
         <v>46290</v>
       </c>
-      <c r="AH26">
+      <c r="AK26">
         <v>16880</v>
       </c>
-      <c r="AI26">
+      <c r="AL26">
         <v>26783</v>
       </c>
-      <c r="AJ26">
+      <c r="AM26">
         <v>39738</v>
       </c>
-      <c r="AK26">
+      <c r="AN26">
         <v>54865</v>
       </c>
-      <c r="AL26">
+      <c r="AO26">
         <v>39605</v>
       </c>
-      <c r="AM26">
+      <c r="AP26">
         <v>49880</v>
       </c>
-      <c r="AN26">
+      <c r="AQ26">
         <v>18000</v>
       </c>
-      <c r="AO26">
+      <c r="AR26">
         <v>24203</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -3037,44 +3035,44 @@
       <c r="AC27">
         <v>8941</v>
       </c>
-      <c r="AD27">
+      <c r="AG27">
         <v>60454</v>
       </c>
-      <c r="AE27">
+      <c r="AH27">
         <v>76747</v>
       </c>
-      <c r="AF27">
+      <c r="AI27">
         <v>38942</v>
       </c>
-      <c r="AG27">
+      <c r="AJ27">
         <v>41614</v>
       </c>
-      <c r="AH27">
+      <c r="AK27">
         <v>22635</v>
       </c>
-      <c r="AI27">
+      <c r="AL27">
         <v>49516</v>
       </c>
-      <c r="AJ27">
+      <c r="AM27">
         <v>27762</v>
       </c>
-      <c r="AK27">
+      <c r="AN27">
         <v>39760</v>
       </c>
-      <c r="AL27">
+      <c r="AO27">
         <v>21645</v>
       </c>
-      <c r="AM27">
+      <c r="AP27">
         <v>36745</v>
       </c>
-      <c r="AN27">
+      <c r="AQ27">
         <v>24668</v>
       </c>
-      <c r="AO27">
+      <c r="AR27">
         <v>33609</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -3099,14 +3097,14 @@
       <c r="H28">
         <v>173</v>
       </c>
-      <c r="AD28">
+      <c r="AG28">
         <v>-67</v>
       </c>
-      <c r="AE28">
+      <c r="AH28">
         <v>-248</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -3194,44 +3192,44 @@
       <c r="AC29">
         <v>-2102</v>
       </c>
-      <c r="AD29">
+      <c r="AG29">
         <v>-6309</v>
       </c>
-      <c r="AE29">
+      <c r="AH29">
         <v>-8586</v>
       </c>
-      <c r="AF29">
+      <c r="AI29">
         <v>-7005</v>
       </c>
-      <c r="AG29">
+      <c r="AJ29">
         <v>-10272</v>
       </c>
-      <c r="AH29">
+      <c r="AK29">
         <v>-5718</v>
       </c>
-      <c r="AI29">
+      <c r="AL29">
         <v>-7718</v>
       </c>
-      <c r="AJ29">
+      <c r="AM29">
         <v>-3960</v>
       </c>
-      <c r="AK29">
+      <c r="AN29">
         <v>-5525</v>
       </c>
-      <c r="AL29">
+      <c r="AO29">
         <v>-5769</v>
       </c>
-      <c r="AM29">
+      <c r="AP29">
         <v>-7862</v>
       </c>
-      <c r="AN29">
+      <c r="AQ29">
         <v>-5317</v>
       </c>
-      <c r="AO29">
+      <c r="AR29">
         <v>-7419</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -3295,38 +3293,38 @@
       <c r="AC30">
         <v>-2</v>
       </c>
-      <c r="AF30">
+      <c r="AI30">
         <v>-305</v>
       </c>
-      <c r="AG30">
+      <c r="AJ30">
         <v>-431</v>
       </c>
-      <c r="AH30">
+      <c r="AK30">
         <v>-291</v>
       </c>
-      <c r="AI30">
+      <c r="AL30">
         <v>-611</v>
       </c>
-      <c r="AJ30">
+      <c r="AM30">
         <v>-1134</v>
       </c>
-      <c r="AK30">
+      <c r="AN30">
         <v>-1473</v>
       </c>
-      <c r="AL30">
+      <c r="AO30">
         <v>-9</v>
       </c>
-      <c r="AM30">
+      <c r="AP30">
         <v>-13</v>
       </c>
-      <c r="AN30">
+      <c r="AQ30">
         <v>-167</v>
       </c>
-      <c r="AO30">
+      <c r="AR30">
         <v>-169</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -3372,23 +3370,23 @@
       <c r="Z31">
         <v>-131</v>
       </c>
-      <c r="AG31">
+      <c r="AJ31">
         <v>-1788</v>
       </c>
-      <c r="AH31">
+      <c r="AK31">
         <v>-490</v>
       </c>
-      <c r="AI31">
+      <c r="AL31">
         <v>-632</v>
       </c>
-      <c r="AJ31">
+      <c r="AM31">
         <v>-146</v>
       </c>
-      <c r="AK31">
+      <c r="AN31">
         <v>-210</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3413,14 +3411,14 @@
       <c r="H32">
         <v>154</v>
       </c>
-      <c r="AD32">
+      <c r="AG32">
         <v>-126</v>
       </c>
-      <c r="AE32">
+      <c r="AH32">
         <v>-209</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -3508,41 +3506,41 @@
       <c r="AC33">
         <v>-615</v>
       </c>
-      <c r="AD33">
+      <c r="AG33">
         <v>116</v>
       </c>
-      <c r="AE33">
+      <c r="AH33">
         <v>313</v>
       </c>
-      <c r="AF33">
+      <c r="AI33">
         <v>53</v>
       </c>
-      <c r="AG33">
+      <c r="AJ33">
         <v>-523</v>
       </c>
-      <c r="AH33">
+      <c r="AK33">
         <v>30</v>
       </c>
-      <c r="AI33">
+      <c r="AL33">
         <v>-268</v>
       </c>
-      <c r="AJ33">
+      <c r="AM33">
         <v>-426</v>
       </c>
-      <c r="AK33">
+      <c r="AN33">
         <v>-689</v>
       </c>
-      <c r="AM33">
+      <c r="AP33">
         <v>-78</v>
       </c>
-      <c r="AN33">
+      <c r="AQ33">
         <v>-568</v>
       </c>
-      <c r="AO33">
+      <c r="AR33">
         <v>-1183</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -3579,17 +3577,17 @@
       <c r="Z34">
         <v>387</v>
       </c>
-      <c r="AG34">
+      <c r="AJ34">
         <v>310</v>
       </c>
-      <c r="AI34">
+      <c r="AL34">
         <v>1526</v>
       </c>
-      <c r="AK34">
+      <c r="AN34">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -3608,24 +3606,24 @@
       <c r="H35">
         <v>94</v>
       </c>
-      <c r="AE35">
+      <c r="AH35">
         <v>-87</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="AO37" t="s">
+      <c r="AR37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3634,91 +3632,91 @@
         <v>-19122</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:U38" si="21">SUM(C25:C37)</f>
+        <f t="shared" ref="C38:U38" si="0">SUM(C25:C37)</f>
         <v>-14202</v>
       </c>
       <c r="D38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-3180</v>
       </c>
       <c r="E38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-9942</v>
       </c>
       <c r="F38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-46446</v>
       </c>
       <c r="G38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-13590</v>
       </c>
       <c r="H38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>28710</v>
       </c>
       <c r="I38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>3947</v>
       </c>
       <c r="J38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-3001</v>
       </c>
       <c r="K38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>16066</v>
       </c>
       <c r="L38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>5844</v>
       </c>
       <c r="M38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>13348</v>
       </c>
       <c r="N38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>27502</v>
       </c>
       <c r="O38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-798</v>
       </c>
       <c r="P38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>45896</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-13668</v>
       </c>
       <c r="R38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>9013</v>
       </c>
       <c r="S38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-5165</v>
       </c>
       <c r="T38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>5531</v>
       </c>
       <c r="U38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="0"/>
         <v>-4289</v>
       </c>
       <c r="V38">
-        <f t="shared" ref="V38" si="22">SUM(V25:V37)</f>
+        <f t="shared" ref="V38" si="1">SUM(V25:V37)</f>
         <v>-8584</v>
       </c>
       <c r="W38">
-        <f t="shared" ref="W38" si="23">SUM(W25:W37)</f>
+        <f t="shared" ref="W38" si="2">SUM(W25:W37)</f>
         <v>-10368</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38" si="24">SUM(X25:X37)</f>
+        <f t="shared" ref="X38" si="3">SUM(X25:X37)</f>
         <v>3572</v>
       </c>
       <c r="Y38">
@@ -3726,71 +3724,71 @@
         <v>835</v>
       </c>
       <c r="Z38">
-        <f t="shared" ref="Z38" si="25">SUM(Z25:Z37)</f>
+        <f t="shared" ref="Z38" si="4">SUM(Z25:Z37)</f>
         <v>-14545</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38" si="26">SUM(AA25:AA37)</f>
+        <f t="shared" ref="AA38" si="5">SUM(AA25:AA37)</f>
         <v>-16106</v>
       </c>
       <c r="AB38">
-        <f t="shared" ref="AB38" si="27">SUM(AB25:AB37)</f>
+        <f t="shared" ref="AB38" si="6">SUM(AB25:AB37)</f>
         <v>-9265</v>
       </c>
       <c r="AC38">
-        <f t="shared" ref="AC38" si="28">SUM(AC25:AC37)</f>
+        <f t="shared" ref="AC38" si="7">SUM(AC25:AC37)</f>
         <v>4234</v>
       </c>
-      <c r="AD38">
-        <f t="shared" ref="AD38" si="29">SUM(AD25:AD37)</f>
+      <c r="AG38">
+        <f t="shared" ref="AG38" si="8">SUM(AG25:AG37)</f>
         <v>-33324</v>
       </c>
-      <c r="AE38">
-        <f t="shared" ref="AE38" si="30">SUM(AE25:AE37)</f>
+      <c r="AH38">
+        <f t="shared" ref="AH38" si="9">SUM(AH25:AH37)</f>
         <v>-36504</v>
       </c>
-      <c r="AF38">
-        <f t="shared" ref="AF38" si="31">SUM(AF25:AF37)</f>
+      <c r="AI38">
+        <f t="shared" ref="AI38" si="10">SUM(AI25:AI37)</f>
         <v>15120</v>
       </c>
-      <c r="AG38">
-        <f t="shared" ref="AG38" si="32">SUM(AG25:AG37)</f>
+      <c r="AJ38">
+        <f t="shared" ref="AJ38" si="11">SUM(AJ25:AJ37)</f>
         <v>19067</v>
       </c>
-      <c r="AH38">
-        <f t="shared" ref="AH38" si="33">SUM(AH25:AH37)</f>
+      <c r="AK38">
+        <f t="shared" ref="AK38" si="12">SUM(AK25:AK37)</f>
         <v>19192</v>
       </c>
-      <c r="AI38">
-        <f t="shared" ref="AI38" si="34">SUM(AI25:AI37)</f>
+      <c r="AL38">
+        <f t="shared" ref="AL38" si="13">SUM(AL25:AL37)</f>
         <v>46694</v>
       </c>
-      <c r="AJ38">
-        <f t="shared" ref="AJ38" si="35">SUM(AJ25:AJ37)</f>
+      <c r="AM38">
+        <f t="shared" ref="AM38" si="14">SUM(AM25:AM37)</f>
         <v>-4655</v>
       </c>
-      <c r="AK38">
-        <f t="shared" ref="AK38" si="36">SUM(AK25:AK37)</f>
+      <c r="AN38">
+        <f t="shared" ref="AN38" si="15">SUM(AN25:AN37)</f>
         <v>-9820</v>
       </c>
-      <c r="AL38">
-        <f t="shared" ref="AL38" si="37">SUM(AL25:AL37)</f>
+      <c r="AO38">
+        <f t="shared" ref="AO38" si="16">SUM(AO25:AO37)</f>
         <v>-18952</v>
       </c>
-      <c r="AM38">
-        <f t="shared" ref="AM38:AN38" si="38">SUM(AM25:AM37)</f>
+      <c r="AP38">
+        <f t="shared" ref="AP38:AQ38" si="17">SUM(AP25:AP37)</f>
         <v>-15380</v>
       </c>
-      <c r="AN38">
-        <f t="shared" si="38"/>
+      <c r="AQ38">
+        <f t="shared" si="17"/>
         <v>-25371</v>
       </c>
-      <c r="AO38">
-        <f t="shared" ref="AO38" si="39">SUM(AO25:AO37)</f>
+      <c r="AR38">
+        <f t="shared" ref="AR38" si="18">SUM(AR25:AR37)</f>
         <v>-21137</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -3878,44 +3876,44 @@
       <c r="AC40">
         <v>-2697</v>
       </c>
-      <c r="AD40">
+      <c r="AG40">
         <v>-788</v>
       </c>
-      <c r="AE40">
+      <c r="AH40">
         <v>-1646</v>
       </c>
-      <c r="AF40">
+      <c r="AI40">
         <v>-1190</v>
       </c>
-      <c r="AG40">
+      <c r="AJ40">
         <v>-2267</v>
       </c>
-      <c r="AH40">
+      <c r="AK40">
         <v>-1427</v>
       </c>
-      <c r="AI40">
+      <c r="AL40">
         <v>-2626</v>
       </c>
-      <c r="AJ40">
+      <c r="AM40">
         <v>-1566</v>
       </c>
-      <c r="AK40">
+      <c r="AN40">
         <v>-3234</v>
       </c>
-      <c r="AL40">
+      <c r="AO40">
         <v>-3160</v>
       </c>
-      <c r="AM40">
+      <c r="AP40">
         <v>-5855</v>
       </c>
-      <c r="AN40">
+      <c r="AQ40">
         <v>-3218</v>
       </c>
-      <c r="AO40">
+      <c r="AR40">
         <v>-5915</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -4003,44 +4001,44 @@
       <c r="AC41">
         <v>-3811</v>
       </c>
-      <c r="AD41">
+      <c r="AG41">
         <v>-6134</v>
       </c>
-      <c r="AE41">
+      <c r="AH41">
         <v>-9499</v>
       </c>
-      <c r="AF41">
+      <c r="AI41">
         <v>-6529</v>
       </c>
-      <c r="AG41">
+      <c r="AJ41">
         <v>-10182</v>
       </c>
-      <c r="AH41">
+      <c r="AK41">
         <v>-7011</v>
       </c>
-      <c r="AI41">
+      <c r="AL41">
         <v>-10640</v>
       </c>
-      <c r="AJ41">
+      <c r="AM41">
         <v>-6914</v>
       </c>
-      <c r="AK41">
+      <c r="AN41">
         <v>-10570</v>
       </c>
-      <c r="AL41">
+      <c r="AO41">
         <v>-7060</v>
       </c>
-      <c r="AM41">
+      <c r="AP41">
         <v>-10827</v>
       </c>
-      <c r="AN41">
+      <c r="AQ41">
         <v>-7327</v>
       </c>
-      <c r="AO41">
+      <c r="AR41">
         <v>-11138</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -4101,38 +4099,38 @@
       <c r="Z42">
         <v>1105</v>
       </c>
-      <c r="AD42">
+      <c r="AG42">
         <v>273</v>
       </c>
-      <c r="AE42">
+      <c r="AH42">
         <v>274</v>
       </c>
-      <c r="AF42">
+      <c r="AI42">
         <v>327</v>
       </c>
-      <c r="AG42">
+      <c r="AJ42">
         <v>328</v>
       </c>
-      <c r="AH42">
+      <c r="AK42">
         <v>390</v>
       </c>
-      <c r="AI42">
+      <c r="AL42">
         <v>391</v>
       </c>
-      <c r="AJ42">
+      <c r="AM42">
         <v>430</v>
       </c>
-      <c r="AK42">
+      <c r="AN42">
         <v>430</v>
       </c>
-      <c r="AL42">
+      <c r="AO42">
         <v>561</v>
       </c>
-      <c r="AM42">
+      <c r="AP42">
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -4220,44 +4218,44 @@
       <c r="AC43">
         <v>-21865</v>
       </c>
-      <c r="AD43">
+      <c r="AG43">
         <v>-18012</v>
       </c>
-      <c r="AE43">
+      <c r="AH43">
         <v>-25105</v>
       </c>
-      <c r="AF43">
+      <c r="AI43">
         <v>-32851</v>
       </c>
-      <c r="AG43">
+      <c r="AJ43">
         <v>-53634</v>
       </c>
-      <c r="AH43">
+      <c r="AK43">
         <v>-32498</v>
       </c>
-      <c r="AI43">
+      <c r="AL43">
         <v>-49453</v>
       </c>
-      <c r="AJ43">
+      <c r="AM43">
         <v>-39280</v>
       </c>
-      <c r="AK43">
+      <c r="AN43">
         <v>-55171</v>
       </c>
-      <c r="AL43">
+      <c r="AO43">
         <v>-43323</v>
       </c>
-      <c r="AM43">
+      <c r="AP43">
         <v>-66223</v>
       </c>
-      <c r="AN43">
+      <c r="AQ43">
         <v>-43109</v>
       </c>
-      <c r="AO43">
+      <c r="AR43">
         <v>-64974</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -4276,14 +4274,14 @@
       <c r="F44">
         <v>627</v>
       </c>
-      <c r="AD44">
+      <c r="AG44">
         <v>225</v>
       </c>
-      <c r="AE44">
+      <c r="AH44">
         <v>534</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -4332,32 +4330,32 @@
       <c r="Z45">
         <v>20393</v>
       </c>
-      <c r="AD45">
+      <c r="AG45">
         <v>10975</v>
       </c>
-      <c r="AE45">
+      <c r="AH45">
         <v>21725</v>
       </c>
-      <c r="AF45">
+      <c r="AI45">
         <v>6969</v>
       </c>
-      <c r="AG45">
+      <c r="AJ45">
         <v>6969</v>
       </c>
-      <c r="AJ45">
+      <c r="AM45">
         <v>2210</v>
       </c>
-      <c r="AK45">
+      <c r="AN45">
         <v>10635</v>
       </c>
-      <c r="AL45">
+      <c r="AO45">
         <v>13923</v>
       </c>
-      <c r="AM45">
+      <c r="AP45">
         <v>13923</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4421,41 +4419,41 @@
       <c r="AC46">
         <v>-3000</v>
       </c>
-      <c r="AE46">
+      <c r="AH46">
         <v>-3500</v>
       </c>
-      <c r="AF46">
+      <c r="AI46">
         <v>-500</v>
       </c>
-      <c r="AG46">
+      <c r="AJ46">
         <v>-6500</v>
       </c>
-      <c r="AH46">
+      <c r="AK46">
         <v>-2500</v>
       </c>
-      <c r="AI46">
+      <c r="AL46">
         <v>-5500</v>
       </c>
-      <c r="AJ46">
+      <c r="AM46">
         <v>-5250</v>
       </c>
-      <c r="AK46">
+      <c r="AN46">
         <v>-12629</v>
       </c>
-      <c r="AL46">
+      <c r="AO46">
         <v>-4500</v>
       </c>
-      <c r="AM46">
+      <c r="AP46">
         <v>-7500</v>
       </c>
-      <c r="AN46">
+      <c r="AQ46">
         <v>-3750</v>
       </c>
-      <c r="AO46">
+      <c r="AR46">
         <v>-6750</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -4498,26 +4496,26 @@
       <c r="AC47">
         <v>3971</v>
       </c>
-      <c r="AJ47">
+      <c r="AM47">
         <v>1518</v>
       </c>
-      <c r="AK47">
+      <c r="AN47">
         <v>31</v>
       </c>
-      <c r="AL47">
+      <c r="AO47">
         <v>22</v>
       </c>
-      <c r="AM47">
+      <c r="AP47">
         <v>3022</v>
       </c>
-      <c r="AN47">
+      <c r="AQ47">
         <v>999</v>
       </c>
-      <c r="AO47">
+      <c r="AR47">
         <v>4970</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -4557,20 +4555,20 @@
       <c r="M48">
         <v>-6</v>
       </c>
-      <c r="AD48">
+      <c r="AG48">
         <v>1879</v>
       </c>
-      <c r="AE48">
+      <c r="AH48">
         <v>3866</v>
       </c>
-      <c r="AF48">
+      <c r="AI48">
         <v>1</v>
       </c>
-      <c r="AG48">
+      <c r="AJ48">
         <v>-10</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -4625,32 +4623,32 @@
       <c r="AC49">
         <v>-43</v>
       </c>
-      <c r="AH49">
+      <c r="AK49">
         <v>-87</v>
       </c>
-      <c r="AI49">
+      <c r="AL49">
         <v>-83</v>
       </c>
-      <c r="AJ49">
+      <c r="AM49">
         <v>-51</v>
       </c>
-      <c r="AK49">
+      <c r="AN49">
         <v>-120</v>
       </c>
-      <c r="AL49">
+      <c r="AO49">
         <v>-38</v>
       </c>
-      <c r="AM49">
+      <c r="AP49">
         <v>-72</v>
       </c>
-      <c r="AN49">
+      <c r="AQ49">
         <v>-105</v>
       </c>
-      <c r="AO49">
+      <c r="AR49">
         <v>-148</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>88</v>
       </c>
@@ -4738,209 +4736,209 @@
       <c r="AC50">
         <v>-27445</v>
       </c>
-      <c r="AD50">
+      <c r="AG50">
         <v>-11582</v>
       </c>
-      <c r="AE50">
+      <c r="AH50">
         <v>-13351</v>
       </c>
-      <c r="AF50">
+      <c r="AI50">
         <v>-33773</v>
       </c>
-      <c r="AG50">
+      <c r="AJ50">
         <v>-65296</v>
       </c>
-      <c r="AH50">
+      <c r="AK50">
         <v>-43133</v>
       </c>
-      <c r="AI50">
+      <c r="AL50">
         <v>-69937</v>
       </c>
-      <c r="AJ50">
+      <c r="AM50">
         <v>-46347</v>
       </c>
-      <c r="AK50">
+      <c r="AN50">
         <v>-65463</v>
       </c>
-      <c r="AL50">
+      <c r="AO50">
         <v>-43575</v>
       </c>
-      <c r="AM50">
+      <c r="AP50">
         <v>-72971</v>
       </c>
-      <c r="AN50">
+      <c r="AQ50">
         <v>-56510</v>
       </c>
-      <c r="AO50">
+      <c r="AR50">
         <v>-83955</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
       <c r="B53">
-        <f>B22+B38+B50</f>
+        <f t="shared" ref="B53:AR53" si="19">B22+B38+B50</f>
         <v>-4113</v>
       </c>
       <c r="C53">
-        <f>C22+C38+C50</f>
+        <f t="shared" si="19"/>
         <v>-1214</v>
       </c>
       <c r="D53">
-        <f>D22+D38+D50</f>
+        <f t="shared" si="19"/>
         <v>3414</v>
       </c>
       <c r="E53">
-        <f>E22+E38+E50</f>
+        <f t="shared" si="19"/>
         <v>1718</v>
       </c>
       <c r="F53">
-        <f>F22+F38+F50</f>
+        <f t="shared" si="19"/>
         <v>-195</v>
       </c>
       <c r="G53">
-        <f>G22+G38+G50</f>
+        <f t="shared" si="19"/>
         <v>7202</v>
       </c>
       <c r="H53">
-        <f>H22+H38+H50</f>
+        <f t="shared" si="19"/>
         <v>17568</v>
       </c>
       <c r="I53">
-        <f>I22+I38+I50</f>
+        <f t="shared" si="19"/>
         <v>-13088</v>
       </c>
       <c r="J53">
-        <f>J22+J38+J50</f>
+        <f t="shared" si="19"/>
         <v>-6058</v>
       </c>
       <c r="K53">
-        <f>K22+K38+K50</f>
+        <f t="shared" si="19"/>
         <v>5624</v>
       </c>
       <c r="L53">
-        <f>L22+L38+L50</f>
+        <f t="shared" si="19"/>
         <v>18858</v>
       </c>
       <c r="M53">
-        <f>M22+M38+M50</f>
+        <f t="shared" si="19"/>
         <v>-4954</v>
       </c>
       <c r="N53">
-        <f>N22+N38+N50</f>
+        <f t="shared" si="19"/>
         <v>12334</v>
       </c>
       <c r="O53">
-        <f>O22+O38+O50</f>
+        <f t="shared" si="19"/>
         <v>-1927</v>
       </c>
       <c r="P53">
-        <f>P22+P38+P50</f>
+        <f t="shared" si="19"/>
         <v>24311</v>
       </c>
       <c r="Q53">
-        <f>Q22+Q38+Q50</f>
+        <f t="shared" si="19"/>
         <v>-8559</v>
       </c>
       <c r="R53">
-        <f>R22+R38+R50</f>
+        <f t="shared" si="19"/>
         <v>1384</v>
       </c>
       <c r="S53">
-        <f>S22+S38+S50</f>
+        <f t="shared" si="19"/>
         <v>-8010</v>
       </c>
       <c r="T53">
-        <f>T22+T38+T50</f>
+        <f t="shared" si="19"/>
         <v>4750</v>
       </c>
       <c r="U53">
-        <f>U22+U38+U50</f>
+        <f t="shared" si="19"/>
         <v>-10435</v>
       </c>
       <c r="V53">
-        <f>V22+V38+V50</f>
+        <f t="shared" si="19"/>
         <v>-2070</v>
       </c>
       <c r="W53">
-        <f>W22+W38+W50</f>
+        <f t="shared" si="19"/>
         <v>2287</v>
       </c>
       <c r="X53">
-        <f>X22+X38+X50</f>
+        <f t="shared" si="19"/>
         <v>-4730</v>
       </c>
       <c r="Y53">
-        <f>Y22+Y38+Y50</f>
+        <f t="shared" si="19"/>
         <v>653</v>
       </c>
       <c r="Z53">
-        <f>Z22+Z38+Z50</f>
+        <f t="shared" si="19"/>
         <v>-3860</v>
       </c>
       <c r="AA53">
-        <f>AA22+AA38+AA50</f>
+        <f t="shared" si="19"/>
         <v>2701</v>
       </c>
       <c r="AB53">
-        <f>AB22+AB38+AB50</f>
+        <f t="shared" si="19"/>
         <v>-9450</v>
       </c>
       <c r="AC53">
-        <f>AC22+AC38+AC50</f>
+        <f t="shared" si="19"/>
         <v>-319</v>
       </c>
-      <c r="AD53">
-        <f>AD22+AD38+AD50</f>
+      <c r="AG53">
+        <f t="shared" si="19"/>
         <v>-5327</v>
       </c>
-      <c r="AE53">
-        <f>AE22+AE38+AE50</f>
+      <c r="AH53">
+        <f t="shared" si="19"/>
         <v>-1913</v>
       </c>
-      <c r="AF53">
-        <f>AF22+AF38+AF50</f>
+      <c r="AI53">
+        <f t="shared" si="19"/>
         <v>24770</v>
       </c>
-      <c r="AG53">
-        <f>AG22+AG38+AG50</f>
+      <c r="AJ53">
+        <f t="shared" si="19"/>
         <v>11682</v>
       </c>
-      <c r="AH53">
-        <f>AH22+AH38+AH50</f>
+      <c r="AK53">
+        <f t="shared" si="19"/>
         <v>13904</v>
       </c>
-      <c r="AI53">
-        <f>AI22+AI38+AI50</f>
+      <c r="AL53">
+        <f t="shared" si="19"/>
         <v>26238</v>
       </c>
-      <c r="AJ53">
-        <f>AJ22+AJ38+AJ50</f>
+      <c r="AM53">
+        <f t="shared" si="19"/>
         <v>-7175</v>
       </c>
-      <c r="AK53">
-        <f>AK22+AK38+AK50</f>
+      <c r="AN53">
+        <f t="shared" si="19"/>
         <v>-15185</v>
       </c>
-      <c r="AL53">
-        <f>AL22+AL38+AL50</f>
+      <c r="AO53">
+        <f t="shared" si="19"/>
         <v>217</v>
       </c>
-      <c r="AM53">
-        <f>AM22+AM38+AM50</f>
+      <c r="AP53">
+        <f t="shared" si="19"/>
         <v>-4513</v>
       </c>
-      <c r="AN53">
-        <f>AN22+AN38+AN50</f>
+      <c r="AQ53">
+        <f t="shared" si="19"/>
         <v>-6749</v>
       </c>
-      <c r="AO53">
-        <f>AO22+AO38+AO50</f>
+      <c r="AR53">
+        <f t="shared" si="19"/>
         <v>-7068</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -4950,11 +4948,11 @@
       <c r="S55">
         <v>-2556</v>
       </c>
-      <c r="AJ55">
+      <c r="AM55">
         <v>2556</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -4964,11 +4962,11 @@
       <c r="T56">
         <v>-5165</v>
       </c>
-      <c r="AK56">
+      <c r="AN56">
         <v>5165</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -4984,11 +4982,11 @@
       <c r="U57">
         <v>-963</v>
       </c>
-      <c r="AI57">
+      <c r="AL57">
         <v>-2026</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>98</v>
       </c>
@@ -5076,44 +5074,44 @@
       <c r="AC60">
         <v>28861</v>
       </c>
-      <c r="AD60">
+      <c r="AG60">
         <v>15157</v>
       </c>
-      <c r="AE60">
+      <c r="AH60">
         <v>18571</v>
       </c>
-      <c r="AF60">
+      <c r="AI60">
         <v>45059</v>
       </c>
-      <c r="AG60">
+      <c r="AJ60">
         <v>31971</v>
       </c>
-      <c r="AH60">
+      <c r="AK60">
         <v>39817</v>
       </c>
-      <c r="AI60">
+      <c r="AL60">
         <v>52151</v>
       </c>
-      <c r="AJ60">
+      <c r="AM60">
         <v>43049</v>
       </c>
-      <c r="AK60">
+      <c r="AN60">
         <v>35039</v>
       </c>
-      <c r="AL60">
+      <c r="AO60">
         <v>40006</v>
       </c>
-      <c r="AM60">
+      <c r="AP60">
         <v>35276</v>
       </c>
-      <c r="AN60">
+      <c r="AQ60">
         <v>29180</v>
       </c>
-      <c r="AO60">
+      <c r="AR60">
         <v>28861</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -5130,15 +5128,15 @@
         <v>25913</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>95</v>
       </c>
-      <c r="AO64" t="s">
+      <c r="AR64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -5226,44 +5224,44 @@
       <c r="AC65">
         <v>2950</v>
       </c>
-      <c r="AD65">
+      <c r="AG65">
         <v>6878</v>
       </c>
-      <c r="AE65">
+      <c r="AH65">
         <v>9752</v>
       </c>
-      <c r="AF65">
+      <c r="AI65">
         <v>6340</v>
       </c>
-      <c r="AG65">
+      <c r="AJ65">
         <v>8819</v>
       </c>
-      <c r="AH65">
+      <c r="AK65">
         <v>9497</v>
       </c>
-      <c r="AI65">
+      <c r="AL65">
         <v>11795</v>
       </c>
-      <c r="AJ65">
+      <c r="AM65">
         <v>7505</v>
       </c>
-      <c r="AK65">
+      <c r="AN65">
         <v>8410</v>
       </c>
-      <c r="AL65">
+      <c r="AO65">
         <v>10276</v>
       </c>
-      <c r="AM65">
+      <c r="AP65">
         <v>18536</v>
       </c>
-      <c r="AN65">
+      <c r="AQ65">
         <v>9301</v>
       </c>
-      <c r="AO65">
+      <c r="AR65">
         <v>12251</v>
       </c>
     </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -5351,40 +5349,40 @@
       <c r="AC66">
         <v>504</v>
       </c>
-      <c r="AD66">
+      <c r="AG66">
         <v>1007</v>
       </c>
-      <c r="AE66">
+      <c r="AH66">
         <v>1456</v>
       </c>
-      <c r="AF66">
+      <c r="AI66">
         <v>1356</v>
       </c>
-      <c r="AG66">
+      <c r="AJ66">
         <v>2120</v>
       </c>
-      <c r="AH66">
+      <c r="AK66">
         <v>1762</v>
       </c>
-      <c r="AI66">
+      <c r="AL66">
         <v>2563</v>
       </c>
-      <c r="AJ66">
+      <c r="AM66">
         <v>1689</v>
       </c>
-      <c r="AK66">
+      <c r="AN66">
         <v>2275</v>
       </c>
-      <c r="AL66">
+      <c r="AO66">
         <v>1327</v>
       </c>
-      <c r="AM66">
+      <c r="AP66">
         <v>1870</v>
       </c>
-      <c r="AN66">
+      <c r="AQ66">
         <v>1406</v>
       </c>
-      <c r="AO66">
+      <c r="AR66">
         <v>1910</v>
       </c>
     </row>

--- a/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements/output/Financial Statement AAPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F614F076-0C10-644D-BD68-A11A27A7C43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7039ED3-F9BF-724E-80BE-FB03F35A0618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="780" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="100">
   <si>
     <t>label</t>
   </si>
@@ -696,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR66"/>
+  <dimension ref="A1:AR63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,7 +863,7 @@
         <v>18571</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20484</v>
       </c>
       <c r="G3">
         <v>20289</v>
@@ -878,7 +878,7 @@
         <v>31971</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20289</v>
       </c>
       <c r="L3">
         <v>25913</v>
@@ -971,4418 +971,4395 @@
         <v>35929</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4">
-        <v>20484</v>
-      </c>
-      <c r="K4">
-        <v>20289</v>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>17891</v>
+      </c>
+      <c r="C6">
+        <v>11029</v>
+      </c>
+      <c r="D6">
+        <v>8717</v>
+      </c>
+      <c r="E6">
+        <v>10714</v>
+      </c>
+      <c r="F6">
+        <v>48351</v>
+      </c>
+      <c r="G6">
+        <v>20065</v>
+      </c>
+      <c r="H6">
+        <v>13822</v>
+      </c>
+      <c r="I6">
+        <v>11519</v>
+      </c>
+      <c r="J6">
+        <v>14125</v>
+      </c>
+      <c r="K6">
+        <v>59531</v>
+      </c>
+      <c r="L6">
+        <v>19965</v>
+      </c>
+      <c r="M6">
+        <v>11561</v>
+      </c>
+      <c r="N6">
+        <v>10044</v>
+      </c>
+      <c r="O6">
+        <v>13686</v>
+      </c>
+      <c r="P6">
+        <v>55256</v>
+      </c>
+      <c r="Q6">
+        <v>22236</v>
+      </c>
+      <c r="R6">
+        <v>11249</v>
+      </c>
+      <c r="S6">
+        <v>11253</v>
+      </c>
+      <c r="T6">
+        <v>12673</v>
+      </c>
+      <c r="U6">
+        <v>57411</v>
+      </c>
+      <c r="V6">
+        <v>28755</v>
+      </c>
+      <c r="W6">
+        <v>23630</v>
+      </c>
+      <c r="X6">
+        <v>21744</v>
+      </c>
+      <c r="Y6">
+        <v>20551</v>
+      </c>
+      <c r="Z6">
+        <v>94680</v>
+      </c>
+      <c r="AA6">
+        <v>34630</v>
+      </c>
+      <c r="AB6">
+        <v>25010</v>
+      </c>
+      <c r="AC6">
+        <v>19442</v>
+      </c>
+      <c r="AG6">
+        <v>28920</v>
+      </c>
+      <c r="AH6">
+        <v>37637</v>
+      </c>
+      <c r="AI6">
+        <v>33887</v>
+      </c>
+      <c r="AJ6">
+        <v>45406</v>
+      </c>
+      <c r="AK6">
+        <v>31526</v>
+      </c>
+      <c r="AL6">
+        <v>41570</v>
+      </c>
+      <c r="AM6">
+        <v>33485</v>
+      </c>
+      <c r="AN6">
+        <v>44738</v>
+      </c>
+      <c r="AO6">
+        <v>52385</v>
+      </c>
+      <c r="AP6">
+        <v>74129</v>
+      </c>
+      <c r="AQ6">
+        <v>59640</v>
+      </c>
+      <c r="AR6">
+        <v>79082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>17891</v>
-      </c>
-      <c r="C7">
-        <v>11029</v>
-      </c>
-      <c r="D7">
-        <v>8717</v>
-      </c>
-      <c r="E7">
-        <v>10714</v>
-      </c>
-      <c r="F7">
-        <v>48351</v>
-      </c>
-      <c r="G7">
-        <v>20065</v>
-      </c>
-      <c r="H7">
-        <v>13822</v>
-      </c>
-      <c r="I7">
-        <v>11519</v>
-      </c>
-      <c r="J7">
-        <v>14125</v>
-      </c>
-      <c r="K7">
-        <v>59531</v>
-      </c>
-      <c r="L7">
-        <v>19965</v>
-      </c>
-      <c r="M7">
-        <v>11561</v>
-      </c>
-      <c r="N7">
-        <v>10044</v>
-      </c>
-      <c r="O7">
-        <v>13686</v>
-      </c>
-      <c r="P7">
-        <v>55256</v>
-      </c>
-      <c r="Q7">
-        <v>22236</v>
-      </c>
-      <c r="R7">
-        <v>11249</v>
-      </c>
-      <c r="S7">
-        <v>11253</v>
-      </c>
-      <c r="T7">
-        <v>12673</v>
-      </c>
-      <c r="U7">
-        <v>57411</v>
-      </c>
-      <c r="V7">
-        <v>28755</v>
-      </c>
-      <c r="W7">
-        <v>23630</v>
-      </c>
-      <c r="X7">
-        <v>21744</v>
-      </c>
-      <c r="Y7">
-        <v>20551</v>
-      </c>
-      <c r="Z7">
-        <v>94680</v>
-      </c>
-      <c r="AA7">
-        <v>34630</v>
-      </c>
-      <c r="AB7">
-        <v>25010</v>
-      </c>
-      <c r="AC7">
-        <v>19442</v>
-      </c>
-      <c r="AG7">
-        <v>28920</v>
-      </c>
-      <c r="AH7">
-        <v>37637</v>
-      </c>
-      <c r="AI7">
-        <v>33887</v>
-      </c>
-      <c r="AJ7">
-        <v>45406</v>
-      </c>
-      <c r="AK7">
-        <v>31526</v>
-      </c>
-      <c r="AL7">
-        <v>41570</v>
-      </c>
-      <c r="AM7">
-        <v>33485</v>
-      </c>
-      <c r="AN7">
-        <v>44738</v>
-      </c>
-      <c r="AO7">
-        <v>52385</v>
-      </c>
-      <c r="AP7">
-        <v>74129</v>
-      </c>
-      <c r="AQ7">
-        <v>59640</v>
-      </c>
-      <c r="AR7">
-        <v>79082</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>2987</v>
+      </c>
+      <c r="C9">
+        <v>2332</v>
+      </c>
+      <c r="D9">
+        <v>2354</v>
+      </c>
+      <c r="E9">
+        <v>2484</v>
+      </c>
+      <c r="F9">
+        <v>10157</v>
+      </c>
+      <c r="G9">
+        <v>2745</v>
+      </c>
+      <c r="H9">
+        <v>2739</v>
+      </c>
+      <c r="I9">
+        <v>2665</v>
+      </c>
+      <c r="J9">
+        <v>2754</v>
+      </c>
+      <c r="K9">
+        <v>10903</v>
+      </c>
+      <c r="L9">
+        <v>3395</v>
+      </c>
+      <c r="M9">
+        <v>3040</v>
+      </c>
+      <c r="N9">
+        <v>2933</v>
+      </c>
+      <c r="O9">
+        <v>3179</v>
+      </c>
+      <c r="P9">
+        <v>12547</v>
+      </c>
+      <c r="Q9">
+        <v>2816</v>
+      </c>
+      <c r="R9">
+        <v>2786</v>
+      </c>
+      <c r="S9">
+        <v>2752</v>
+      </c>
+      <c r="T9">
+        <v>2702</v>
+      </c>
+      <c r="U9">
+        <v>11056</v>
+      </c>
+      <c r="V9">
+        <v>2666</v>
+      </c>
+      <c r="W9">
+        <v>2797</v>
+      </c>
+      <c r="X9">
+        <v>2832</v>
+      </c>
+      <c r="Y9">
+        <v>2989</v>
+      </c>
+      <c r="Z9">
+        <v>11284</v>
+      </c>
+      <c r="AA9">
+        <v>2697</v>
+      </c>
+      <c r="AB9">
+        <v>2737</v>
+      </c>
+      <c r="AC9">
+        <v>2805</v>
+      </c>
+      <c r="AG9">
+        <v>5319</v>
+      </c>
+      <c r="AH9">
+        <v>7673</v>
+      </c>
+      <c r="AI9">
+        <v>5484</v>
+      </c>
+      <c r="AJ9">
+        <v>8149</v>
+      </c>
+      <c r="AK9">
+        <v>6435</v>
+      </c>
+      <c r="AL9">
+        <v>9368</v>
+      </c>
+      <c r="AM9">
+        <v>5602</v>
+      </c>
+      <c r="AN9">
+        <v>8354</v>
+      </c>
+      <c r="AO9">
+        <v>5463</v>
+      </c>
+      <c r="AP9">
+        <v>8295</v>
+      </c>
+      <c r="AQ9">
+        <v>5434</v>
+      </c>
+      <c r="AR9">
+        <v>8239</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>2987</v>
+        <v>1256</v>
       </c>
       <c r="C10">
-        <v>2332</v>
+        <v>1217</v>
       </c>
       <c r="D10">
-        <v>2354</v>
+        <v>1193</v>
       </c>
       <c r="E10">
-        <v>2484</v>
+        <v>1174</v>
       </c>
       <c r="F10">
-        <v>10157</v>
+        <v>4840</v>
       </c>
       <c r="G10">
-        <v>2745</v>
+        <v>1296</v>
       </c>
       <c r="H10">
-        <v>2739</v>
+        <v>1348</v>
       </c>
       <c r="I10">
-        <v>2665</v>
+        <v>1351</v>
       </c>
       <c r="J10">
-        <v>2754</v>
+        <v>1345</v>
       </c>
       <c r="K10">
-        <v>10903</v>
+        <v>5340</v>
       </c>
       <c r="L10">
-        <v>3395</v>
+        <v>1559</v>
       </c>
       <c r="M10">
-        <v>3040</v>
+        <v>1514</v>
       </c>
       <c r="N10">
-        <v>2933</v>
+        <v>1496</v>
       </c>
       <c r="O10">
-        <v>3179</v>
+        <v>1499</v>
       </c>
       <c r="P10">
-        <v>12547</v>
+        <v>6068</v>
       </c>
       <c r="Q10">
-        <v>2816</v>
+        <v>1710</v>
       </c>
       <c r="R10">
-        <v>2786</v>
+        <v>1697</v>
       </c>
       <c r="S10">
-        <v>2752</v>
+        <v>1698</v>
       </c>
       <c r="T10">
-        <v>2702</v>
+        <v>1724</v>
       </c>
       <c r="U10">
-        <v>11056</v>
+        <v>6829</v>
       </c>
       <c r="V10">
-        <v>2666</v>
+        <v>2020</v>
       </c>
       <c r="W10">
-        <v>2797</v>
+        <v>1981</v>
       </c>
       <c r="X10">
-        <v>2832</v>
+        <v>1960</v>
       </c>
       <c r="Y10">
-        <v>2989</v>
+        <v>1945</v>
       </c>
       <c r="Z10">
-        <v>11284</v>
+        <v>7906</v>
       </c>
       <c r="AA10">
-        <v>2697</v>
+        <v>2265</v>
       </c>
       <c r="AB10">
-        <v>2737</v>
+        <v>2252</v>
       </c>
       <c r="AC10">
-        <v>2805</v>
+        <v>2243</v>
       </c>
       <c r="AG10">
-        <v>5319</v>
+        <v>2473</v>
       </c>
       <c r="AH10">
-        <v>7673</v>
+        <v>3666</v>
       </c>
       <c r="AI10">
-        <v>5484</v>
+        <v>2644</v>
       </c>
       <c r="AJ10">
-        <v>8149</v>
+        <v>3995</v>
       </c>
       <c r="AK10">
-        <v>6435</v>
+        <v>3073</v>
       </c>
       <c r="AL10">
-        <v>9368</v>
+        <v>4569</v>
       </c>
       <c r="AM10">
-        <v>5602</v>
+        <v>3407</v>
       </c>
       <c r="AN10">
-        <v>8354</v>
+        <v>5105</v>
       </c>
       <c r="AO10">
-        <v>5463</v>
+        <v>4001</v>
       </c>
       <c r="AP10">
-        <v>8295</v>
+        <v>5961</v>
       </c>
       <c r="AQ10">
-        <v>5434</v>
+        <v>4517</v>
       </c>
       <c r="AR10">
-        <v>8239</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>1256</v>
+        <v>1452</v>
       </c>
       <c r="C11">
-        <v>1217</v>
+        <v>1370</v>
       </c>
       <c r="D11">
-        <v>1193</v>
+        <v>1942</v>
       </c>
       <c r="E11">
-        <v>1174</v>
+        <v>1202</v>
       </c>
       <c r="F11">
-        <v>4840</v>
+        <v>5966</v>
       </c>
       <c r="G11">
-        <v>1296</v>
+        <v>-33737</v>
       </c>
       <c r="H11">
-        <v>1348</v>
+        <v>-498</v>
       </c>
       <c r="I11">
-        <v>1351</v>
+        <v>1126</v>
       </c>
       <c r="J11">
-        <v>1345</v>
+        <v>519</v>
       </c>
       <c r="K11">
-        <v>5340</v>
+        <v>-32590</v>
       </c>
       <c r="L11">
-        <v>1559</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>1514</v>
-      </c>
-      <c r="N11">
-        <v>1496</v>
+        <v>-53</v>
       </c>
       <c r="O11">
-        <v>1499</v>
+        <v>-340</v>
       </c>
       <c r="P11">
-        <v>6068</v>
+        <v>-340</v>
       </c>
       <c r="Q11">
-        <v>1710</v>
+        <v>-349</v>
       </c>
       <c r="R11">
-        <v>1697</v>
+        <v>349</v>
       </c>
       <c r="S11">
-        <v>1698</v>
+        <v>182</v>
       </c>
       <c r="T11">
-        <v>1724</v>
-      </c>
-      <c r="U11">
-        <v>6829</v>
-      </c>
-      <c r="V11">
-        <v>2020</v>
-      </c>
-      <c r="W11">
-        <v>1981</v>
+        <v>-182</v>
       </c>
       <c r="X11">
-        <v>1960</v>
+        <v>-737</v>
       </c>
       <c r="Y11">
-        <v>1945</v>
-      </c>
-      <c r="Z11">
-        <v>7906</v>
+        <v>737</v>
       </c>
       <c r="AA11">
-        <v>2265</v>
+        <v>682</v>
       </c>
       <c r="AB11">
-        <v>2252</v>
+        <v>406</v>
       </c>
       <c r="AC11">
-        <v>2243</v>
+        <v>1668</v>
       </c>
       <c r="AG11">
-        <v>2473</v>
+        <v>2822</v>
       </c>
       <c r="AH11">
-        <v>3666</v>
+        <v>4764</v>
       </c>
       <c r="AI11">
-        <v>2644</v>
+        <v>-34235</v>
       </c>
       <c r="AJ11">
-        <v>3995</v>
-      </c>
-      <c r="AK11">
-        <v>3073</v>
-      </c>
-      <c r="AL11">
-        <v>4569</v>
-      </c>
-      <c r="AM11">
-        <v>3407</v>
+        <v>-33109</v>
       </c>
       <c r="AN11">
-        <v>5105</v>
-      </c>
-      <c r="AO11">
-        <v>4001</v>
+        <v>182</v>
       </c>
       <c r="AP11">
-        <v>5961</v>
+        <v>-737</v>
       </c>
       <c r="AQ11">
-        <v>4517</v>
+        <v>1088</v>
       </c>
       <c r="AR11">
-        <v>6760</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>1452</v>
-      </c>
-      <c r="C12">
-        <v>1370</v>
-      </c>
-      <c r="D12">
-        <v>1942</v>
-      </c>
-      <c r="E12">
-        <v>1202</v>
-      </c>
-      <c r="F12">
-        <v>5966</v>
-      </c>
-      <c r="G12">
-        <v>-33737</v>
-      </c>
-      <c r="H12">
-        <v>-498</v>
-      </c>
-      <c r="I12">
-        <v>1126</v>
-      </c>
-      <c r="J12">
-        <v>519</v>
-      </c>
-      <c r="K12">
-        <v>-32590</v>
-      </c>
-      <c r="L12">
         <v>53</v>
       </c>
       <c r="M12">
-        <v>-53</v>
+        <v>-124</v>
+      </c>
+      <c r="N12">
+        <v>86</v>
       </c>
       <c r="O12">
-        <v>-340</v>
-      </c>
-      <c r="P12">
-        <v>-340</v>
-      </c>
-      <c r="Q12">
-        <v>-349</v>
+        <v>38</v>
       </c>
       <c r="R12">
-        <v>349</v>
+        <v>-651</v>
       </c>
       <c r="S12">
-        <v>182</v>
+        <v>651</v>
       </c>
       <c r="T12">
-        <v>-182</v>
+        <v>-215</v>
+      </c>
+      <c r="U12">
+        <v>-215</v>
+      </c>
+      <c r="V12">
+        <v>-58</v>
+      </c>
+      <c r="W12">
+        <v>-149</v>
       </c>
       <c r="X12">
-        <v>-737</v>
+        <v>207</v>
       </c>
       <c r="Y12">
-        <v>737</v>
-      </c>
-      <c r="AA12">
-        <v>682</v>
-      </c>
-      <c r="AB12">
-        <v>406</v>
-      </c>
-      <c r="AC12">
-        <v>1668</v>
-      </c>
-      <c r="AG12">
-        <v>2822</v>
-      </c>
-      <c r="AH12">
-        <v>4764</v>
-      </c>
-      <c r="AI12">
-        <v>-34235</v>
-      </c>
-      <c r="AJ12">
-        <v>-33109</v>
-      </c>
-      <c r="AN12">
-        <v>182</v>
-      </c>
-      <c r="AP12">
-        <v>-737</v>
-      </c>
-      <c r="AQ12">
-        <v>1088</v>
-      </c>
-      <c r="AR12">
-        <v>2756</v>
+        <v>-4774</v>
+      </c>
+      <c r="Z12">
+        <v>-4774</v>
+      </c>
+      <c r="AK12">
+        <v>-124</v>
+      </c>
+      <c r="AL12">
+        <v>-38</v>
+      </c>
+      <c r="AM12">
+        <v>-651</v>
+      </c>
+      <c r="AO12">
+        <v>-207</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B13">
+        <v>-274</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>67</v>
+      </c>
+      <c r="E13">
+        <v>-24</v>
+      </c>
+      <c r="F13">
+        <v>-166</v>
+      </c>
+      <c r="G13">
+        <v>-11</v>
+      </c>
+      <c r="H13">
+        <v>-140</v>
+      </c>
+      <c r="I13">
+        <v>-259</v>
+      </c>
+      <c r="J13">
+        <v>-34</v>
+      </c>
+      <c r="K13">
+        <v>-444</v>
+      </c>
+      <c r="L13">
+        <v>-54</v>
       </c>
       <c r="M13">
-        <v>-124</v>
+        <v>-161</v>
       </c>
       <c r="N13">
-        <v>86</v>
+        <v>-125</v>
       </c>
       <c r="O13">
-        <v>38</v>
+        <v>-312</v>
+      </c>
+      <c r="P13">
+        <v>-652</v>
+      </c>
+      <c r="Q13">
+        <v>-142</v>
       </c>
       <c r="R13">
-        <v>-651</v>
+        <v>-117</v>
       </c>
       <c r="S13">
-        <v>651</v>
+        <v>165</v>
       </c>
       <c r="T13">
+        <v>-3</v>
+      </c>
+      <c r="U13">
+        <v>-97</v>
+      </c>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13">
+        <v>-499</v>
+      </c>
+      <c r="X13">
         <v>-215</v>
       </c>
-      <c r="U13">
+      <c r="Y13">
+        <v>542</v>
+      </c>
+      <c r="Z13">
+        <v>-147</v>
+      </c>
+      <c r="AA13">
+        <v>167</v>
+      </c>
+      <c r="AB13">
+        <v>-187</v>
+      </c>
+      <c r="AC13">
+        <v>-41</v>
+      </c>
+      <c r="AG13">
+        <v>-209</v>
+      </c>
+      <c r="AH13">
+        <v>-142</v>
+      </c>
+      <c r="AI13">
+        <v>-151</v>
+      </c>
+      <c r="AJ13">
+        <v>-410</v>
+      </c>
+      <c r="AK13">
         <v>-215</v>
       </c>
-      <c r="V13">
-        <v>-58</v>
-      </c>
-      <c r="W13">
-        <v>-149</v>
-      </c>
-      <c r="X13">
-        <v>207</v>
-      </c>
-      <c r="Y13">
-        <v>-4774</v>
-      </c>
-      <c r="Z13">
-        <v>-4774</v>
-      </c>
-      <c r="AK13">
-        <v>-124</v>
-      </c>
       <c r="AL13">
-        <v>-38</v>
+        <v>-340</v>
       </c>
       <c r="AM13">
-        <v>-651</v>
+        <v>-259</v>
+      </c>
+      <c r="AN13">
+        <v>-94</v>
       </c>
       <c r="AO13">
-        <v>-207</v>
+        <v>-474</v>
+      </c>
+      <c r="AP13">
+        <v>-689</v>
+      </c>
+      <c r="AQ13">
+        <v>-20</v>
+      </c>
+      <c r="AR13">
+        <v>-61</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B14">
-        <v>-274</v>
+        <v>1697</v>
       </c>
       <c r="C14">
-        <v>65</v>
+        <v>2486</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>-802</v>
       </c>
       <c r="E14">
-        <v>-24</v>
+        <v>-5474</v>
       </c>
       <c r="F14">
-        <v>-166</v>
+        <v>-2093</v>
       </c>
       <c r="G14">
-        <v>-11</v>
+        <v>-5570</v>
       </c>
       <c r="H14">
-        <v>-140</v>
+        <v>9093</v>
       </c>
       <c r="I14">
-        <v>-259</v>
+        <v>233</v>
       </c>
       <c r="J14">
-        <v>-34</v>
+        <v>-9078</v>
       </c>
       <c r="K14">
-        <v>-444</v>
+        <v>-5322</v>
       </c>
       <c r="L14">
-        <v>-54</v>
+        <v>5130</v>
       </c>
       <c r="M14">
-        <v>-161</v>
+        <v>2964</v>
       </c>
       <c r="N14">
-        <v>-125</v>
+        <v>919</v>
       </c>
       <c r="O14">
-        <v>-312</v>
+        <v>-8768</v>
       </c>
       <c r="P14">
-        <v>-652</v>
+        <v>245</v>
       </c>
       <c r="Q14">
-        <v>-142</v>
+        <v>2015</v>
       </c>
       <c r="R14">
-        <v>-117</v>
+        <v>5269</v>
       </c>
       <c r="S14">
-        <v>165</v>
+        <v>-2135</v>
       </c>
       <c r="T14">
-        <v>-3</v>
+        <v>1768</v>
       </c>
       <c r="U14">
-        <v>-97</v>
+        <v>6917</v>
       </c>
       <c r="V14">
-        <v>25</v>
+        <v>-10945</v>
       </c>
       <c r="W14">
-        <v>-499</v>
+        <v>8598</v>
       </c>
       <c r="X14">
-        <v>-215</v>
+        <v>1031</v>
       </c>
       <c r="Y14">
-        <v>542</v>
+        <v>-8809</v>
       </c>
       <c r="Z14">
-        <v>-147</v>
+        <v>-10125</v>
       </c>
       <c r="AA14">
-        <v>167</v>
+        <v>-3934</v>
       </c>
       <c r="AB14">
-        <v>-187</v>
+        <v>9476</v>
       </c>
       <c r="AC14">
-        <v>-41</v>
+        <v>-981</v>
       </c>
       <c r="AG14">
-        <v>-209</v>
+        <v>4183</v>
       </c>
       <c r="AH14">
-        <v>-142</v>
+        <v>3381</v>
       </c>
       <c r="AI14">
-        <v>-151</v>
+        <v>3523</v>
       </c>
       <c r="AJ14">
-        <v>-410</v>
+        <v>3756</v>
       </c>
       <c r="AK14">
-        <v>-215</v>
+        <v>8094</v>
       </c>
       <c r="AL14">
-        <v>-340</v>
+        <v>9013</v>
       </c>
       <c r="AM14">
-        <v>-259</v>
+        <v>7284</v>
       </c>
       <c r="AN14">
-        <v>-94</v>
+        <v>5149</v>
       </c>
       <c r="AO14">
-        <v>-474</v>
+        <v>-2347</v>
       </c>
       <c r="AP14">
-        <v>-689</v>
+        <v>-1316</v>
       </c>
       <c r="AQ14">
-        <v>-20</v>
+        <v>5542</v>
       </c>
       <c r="AR14">
-        <v>-61</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15">
-        <v>1697</v>
+        <v>-580</v>
       </c>
       <c r="C15">
-        <v>2486</v>
+        <v>-198</v>
       </c>
       <c r="D15">
-        <v>-802</v>
+        <v>-236</v>
       </c>
       <c r="E15">
-        <v>-5474</v>
+        <v>-1709</v>
       </c>
       <c r="F15">
-        <v>-2093</v>
+        <v>-2723</v>
       </c>
       <c r="G15">
-        <v>-5570</v>
+        <v>434</v>
       </c>
       <c r="H15">
-        <v>9093</v>
+        <v>-3241</v>
       </c>
       <c r="I15">
-        <v>233</v>
+        <v>1693</v>
       </c>
       <c r="J15">
-        <v>-9078</v>
+        <v>1942</v>
       </c>
       <c r="K15">
-        <v>-5322</v>
+        <v>828</v>
       </c>
       <c r="L15">
-        <v>5130</v>
+        <v>-1076</v>
       </c>
       <c r="M15">
-        <v>2964</v>
+        <v>70</v>
       </c>
       <c r="N15">
-        <v>919</v>
+        <v>1502</v>
       </c>
       <c r="O15">
-        <v>-8768</v>
+        <v>-785</v>
       </c>
       <c r="P15">
-        <v>245</v>
+        <v>-289</v>
       </c>
       <c r="Q15">
-        <v>2015</v>
+        <v>-28</v>
       </c>
       <c r="R15">
-        <v>5269</v>
+        <v>727</v>
       </c>
       <c r="S15">
-        <v>-2135</v>
+        <v>-689</v>
       </c>
       <c r="T15">
-        <v>1768</v>
+        <v>-137</v>
       </c>
       <c r="U15">
-        <v>6917</v>
+        <v>-127</v>
       </c>
       <c r="V15">
-        <v>-10945</v>
+        <v>-950</v>
       </c>
       <c r="W15">
-        <v>8598</v>
+        <v>-276</v>
       </c>
       <c r="X15">
-        <v>1031</v>
+        <v>13</v>
       </c>
       <c r="Y15">
-        <v>-8809</v>
+        <v>-1429</v>
       </c>
       <c r="Z15">
-        <v>-10125</v>
+        <v>-2642</v>
       </c>
       <c r="AA15">
-        <v>-3934</v>
+        <v>681</v>
       </c>
       <c r="AB15">
-        <v>9476</v>
+        <v>384</v>
       </c>
       <c r="AC15">
-        <v>-981</v>
+        <v>-16</v>
       </c>
       <c r="AG15">
-        <v>4183</v>
+        <v>-778</v>
       </c>
       <c r="AH15">
-        <v>3381</v>
+        <v>-1014</v>
       </c>
       <c r="AI15">
-        <v>3523</v>
+        <v>-2807</v>
       </c>
       <c r="AJ15">
-        <v>3756</v>
+        <v>-1114</v>
       </c>
       <c r="AK15">
-        <v>8094</v>
+        <v>-1006</v>
       </c>
       <c r="AL15">
-        <v>9013</v>
+        <v>496</v>
       </c>
       <c r="AM15">
-        <v>7284</v>
+        <v>699</v>
       </c>
       <c r="AN15">
-        <v>5149</v>
+        <v>10</v>
       </c>
       <c r="AO15">
-        <v>-2347</v>
+        <v>-1226</v>
       </c>
       <c r="AP15">
-        <v>-1316</v>
+        <v>-1213</v>
       </c>
       <c r="AQ15">
-        <v>5542</v>
+        <v>1065</v>
       </c>
       <c r="AR15">
-        <v>4561</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16">
-        <v>-580</v>
+        <v>-375</v>
       </c>
       <c r="C16">
-        <v>-198</v>
+        <v>4887</v>
       </c>
       <c r="D16">
-        <v>-236</v>
+        <v>-1200</v>
       </c>
       <c r="E16">
-        <v>-1709</v>
+        <v>-7566</v>
       </c>
       <c r="F16">
-        <v>-2723</v>
+        <v>-4254</v>
       </c>
       <c r="G16">
-        <v>434</v>
+        <v>-9660</v>
       </c>
       <c r="H16">
-        <v>-3241</v>
+        <v>19375</v>
       </c>
       <c r="I16">
-        <v>1693</v>
+        <v>-4179</v>
       </c>
       <c r="J16">
-        <v>1942</v>
+        <v>-13546</v>
       </c>
       <c r="K16">
-        <v>828</v>
+        <v>-8010</v>
       </c>
       <c r="L16">
-        <v>-1076</v>
+        <v>6905</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>7711</v>
       </c>
       <c r="N16">
-        <v>1502</v>
+        <v>-1133</v>
       </c>
       <c r="O16">
-        <v>-785</v>
+        <v>-10552</v>
       </c>
       <c r="P16">
-        <v>-289</v>
+        <v>2931</v>
       </c>
       <c r="Q16">
-        <v>-28</v>
+        <v>3902</v>
       </c>
       <c r="R16">
-        <v>727</v>
+        <v>4021</v>
       </c>
       <c r="S16">
-        <v>-689</v>
+        <v>762</v>
       </c>
       <c r="T16">
-        <v>-137</v>
+        <v>-7132</v>
       </c>
       <c r="U16">
-        <v>-127</v>
+        <v>1553</v>
       </c>
       <c r="V16">
-        <v>-950</v>
+        <v>-10194</v>
       </c>
       <c r="W16">
-        <v>-276</v>
+        <v>16986</v>
       </c>
       <c r="X16">
-        <v>13</v>
+        <v>-1900</v>
       </c>
       <c r="Y16">
-        <v>-1429</v>
+        <v>-8795</v>
       </c>
       <c r="Z16">
-        <v>-2642</v>
+        <v>-3903</v>
       </c>
       <c r="AA16">
-        <v>681</v>
+        <v>-9812</v>
       </c>
       <c r="AB16">
-        <v>384</v>
+        <v>10455</v>
       </c>
       <c r="AC16">
-        <v>-16</v>
+        <v>4146</v>
       </c>
       <c r="AG16">
-        <v>-778</v>
+        <v>4512</v>
       </c>
       <c r="AH16">
-        <v>-1014</v>
+        <v>3312</v>
       </c>
       <c r="AI16">
-        <v>-2807</v>
+        <v>9715</v>
       </c>
       <c r="AJ16">
-        <v>-1114</v>
+        <v>5536</v>
       </c>
       <c r="AK16">
-        <v>-1006</v>
+        <v>14616</v>
       </c>
       <c r="AL16">
-        <v>496</v>
+        <v>13483</v>
       </c>
       <c r="AM16">
-        <v>699</v>
+        <v>7923</v>
       </c>
       <c r="AN16">
-        <v>10</v>
+        <v>8685</v>
       </c>
       <c r="AO16">
-        <v>-1226</v>
+        <v>6792</v>
       </c>
       <c r="AP16">
-        <v>-1213</v>
+        <v>4892</v>
       </c>
       <c r="AQ16">
-        <v>1065</v>
+        <v>643</v>
       </c>
       <c r="AR16">
-        <v>1049</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17">
-        <v>-375</v>
+        <v>-1446</v>
       </c>
       <c r="C17">
-        <v>4887</v>
+        <v>550</v>
       </c>
       <c r="D17">
-        <v>-1200</v>
+        <v>-2333</v>
       </c>
       <c r="E17">
-        <v>-7566</v>
+        <v>-2089</v>
       </c>
       <c r="F17">
-        <v>-4254</v>
+        <v>-5318</v>
       </c>
       <c r="G17">
-        <v>-9660</v>
+        <v>-197</v>
       </c>
       <c r="H17">
-        <v>19375</v>
+        <v>-856</v>
       </c>
       <c r="I17">
-        <v>-4179</v>
+        <v>988</v>
       </c>
       <c r="J17">
-        <v>-13546</v>
+        <v>-358</v>
       </c>
       <c r="K17">
-        <v>-8010</v>
+        <v>-423</v>
       </c>
       <c r="L17">
-        <v>6905</v>
+        <v>-886</v>
       </c>
       <c r="M17">
-        <v>7711</v>
+        <v>169</v>
       </c>
       <c r="N17">
-        <v>-1133</v>
+        <v>1410</v>
       </c>
       <c r="O17">
-        <v>-10552</v>
+        <v>180</v>
       </c>
       <c r="P17">
-        <v>2931</v>
+        <v>873</v>
       </c>
       <c r="Q17">
-        <v>3902</v>
+        <v>-7054</v>
       </c>
       <c r="R17">
-        <v>4021</v>
+        <v>-1812</v>
       </c>
       <c r="S17">
-        <v>762</v>
+        <v>2106</v>
       </c>
       <c r="T17">
-        <v>-7132</v>
+        <v>-2828</v>
       </c>
       <c r="U17">
-        <v>1553</v>
+        <v>-9588</v>
       </c>
       <c r="V17">
-        <v>-10194</v>
+        <v>-3526</v>
       </c>
       <c r="W17">
-        <v>16986</v>
+        <v>-807</v>
       </c>
       <c r="X17">
-        <v>-1900</v>
+        <v>-1566</v>
       </c>
       <c r="Y17">
-        <v>-8795</v>
+        <v>-2143</v>
       </c>
       <c r="Z17">
-        <v>-3903</v>
+        <v>-8042</v>
       </c>
       <c r="AA17">
-        <v>-9812</v>
+        <v>-4921</v>
       </c>
       <c r="AB17">
-        <v>10455</v>
+        <v>1379</v>
       </c>
       <c r="AC17">
-        <v>4146</v>
+        <v>253</v>
       </c>
       <c r="AG17">
-        <v>4512</v>
+        <v>-896</v>
       </c>
       <c r="AH17">
-        <v>3312</v>
+        <v>-3229</v>
       </c>
       <c r="AI17">
-        <v>9715</v>
+        <v>-1053</v>
       </c>
       <c r="AJ17">
-        <v>5536</v>
+        <v>-65</v>
       </c>
       <c r="AK17">
-        <v>14616</v>
+        <v>-717</v>
       </c>
       <c r="AL17">
-        <v>13483</v>
+        <v>693</v>
       </c>
       <c r="AM17">
-        <v>7923</v>
+        <v>-8866</v>
       </c>
       <c r="AN17">
-        <v>8685</v>
+        <v>-6760</v>
       </c>
       <c r="AO17">
-        <v>6792</v>
+        <v>-4333</v>
       </c>
       <c r="AP17">
-        <v>4892</v>
+        <v>-5899</v>
       </c>
       <c r="AQ17">
-        <v>643</v>
+        <v>-3542</v>
       </c>
       <c r="AR17">
-        <v>4789</v>
+        <v>-3289</v>
       </c>
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18">
-        <v>-1446</v>
+        <v>2460</v>
       </c>
       <c r="C18">
-        <v>550</v>
+        <v>-9322</v>
       </c>
       <c r="D18">
-        <v>-2333</v>
+        <v>1650</v>
       </c>
       <c r="E18">
-        <v>-2089</v>
+        <v>14830</v>
       </c>
       <c r="F18">
-        <v>-5318</v>
+        <v>9618</v>
       </c>
       <c r="G18">
-        <v>-197</v>
+        <v>14588</v>
       </c>
       <c r="H18">
-        <v>-856</v>
+        <v>-27808</v>
       </c>
       <c r="I18">
-        <v>988</v>
+        <v>2081</v>
       </c>
       <c r="J18">
-        <v>-358</v>
+        <v>20314</v>
       </c>
       <c r="K18">
-        <v>-423</v>
+        <v>9175</v>
       </c>
       <c r="L18">
-        <v>-886</v>
+        <v>-8501</v>
       </c>
       <c r="M18">
-        <v>169</v>
+        <v>-11523</v>
       </c>
       <c r="N18">
-        <v>1410</v>
+        <v>220</v>
       </c>
       <c r="O18">
-        <v>180</v>
+        <v>17881</v>
       </c>
       <c r="P18">
-        <v>873</v>
+        <v>-1923</v>
       </c>
       <c r="Q18">
-        <v>-7054</v>
+        <v>-1089</v>
       </c>
       <c r="R18">
-        <v>-1812</v>
+        <v>-12431</v>
       </c>
       <c r="S18">
-        <v>2106</v>
+        <v>2733</v>
       </c>
       <c r="T18">
-        <v>-2828</v>
+        <v>6725</v>
       </c>
       <c r="U18">
-        <v>-9588</v>
+        <v>-4062</v>
       </c>
       <c r="V18">
-        <v>-3526</v>
+        <v>21670</v>
       </c>
       <c r="W18">
-        <v>-807</v>
+        <v>-23667</v>
       </c>
       <c r="X18">
-        <v>-1566</v>
+        <v>211</v>
       </c>
       <c r="Y18">
-        <v>-2143</v>
+        <v>14112</v>
       </c>
       <c r="Z18">
-        <v>-8042</v>
+        <v>12326</v>
       </c>
       <c r="AA18">
-        <v>-4921</v>
+        <v>19813</v>
       </c>
       <c r="AB18">
-        <v>1379</v>
+        <v>-21563</v>
       </c>
       <c r="AC18">
-        <v>253</v>
+        <v>-4358</v>
       </c>
       <c r="AG18">
-        <v>-896</v>
+        <v>-6862</v>
       </c>
       <c r="AH18">
-        <v>-3229</v>
+        <v>-5212</v>
       </c>
       <c r="AI18">
-        <v>-1053</v>
+        <v>-13220</v>
       </c>
       <c r="AJ18">
-        <v>-65</v>
+        <v>-11139</v>
       </c>
       <c r="AK18">
-        <v>-717</v>
+        <v>-20024</v>
       </c>
       <c r="AL18">
-        <v>693</v>
+        <v>-19804</v>
       </c>
       <c r="AM18">
-        <v>-8866</v>
+        <v>-13520</v>
       </c>
       <c r="AN18">
-        <v>-6760</v>
+        <v>-10787</v>
       </c>
       <c r="AO18">
-        <v>-4333</v>
+        <v>-1997</v>
       </c>
       <c r="AP18">
-        <v>-5899</v>
+        <v>-1786</v>
       </c>
       <c r="AQ18">
-        <v>-3542</v>
+        <v>-1750</v>
       </c>
       <c r="AR18">
-        <v>-3289</v>
+        <v>-6108</v>
       </c>
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19">
-        <v>2460</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>-9322</v>
+        <v>-263</v>
       </c>
       <c r="D19">
-        <v>1650</v>
+        <v>-197</v>
       </c>
       <c r="E19">
-        <v>14830</v>
+        <v>-208</v>
       </c>
       <c r="F19">
-        <v>9618</v>
+        <v>-626</v>
       </c>
       <c r="G19">
-        <v>14588</v>
+        <v>791</v>
       </c>
       <c r="H19">
-        <v>-27808</v>
+        <v>-313</v>
       </c>
       <c r="I19">
+        <v>-581</v>
+      </c>
+      <c r="J19">
+        <v>59</v>
+      </c>
+      <c r="K19">
+        <v>-44</v>
+      </c>
+      <c r="L19">
+        <v>-370</v>
+      </c>
+      <c r="M19">
+        <v>-170</v>
+      </c>
+      <c r="N19">
+        <v>-236</v>
+      </c>
+      <c r="O19">
+        <v>151</v>
+      </c>
+      <c r="P19">
+        <v>-625</v>
+      </c>
+      <c r="Q19">
+        <v>985</v>
+      </c>
+      <c r="R19">
+        <v>238</v>
+      </c>
+      <c r="S19">
+        <v>426</v>
+      </c>
+      <c r="T19">
+        <v>432</v>
+      </c>
+      <c r="U19">
         <v>2081</v>
       </c>
-      <c r="J19">
-        <v>20314</v>
-      </c>
-      <c r="K19">
-        <v>9175</v>
-      </c>
-      <c r="L19">
-        <v>-8501</v>
-      </c>
-      <c r="M19">
-        <v>-11523</v>
-      </c>
-      <c r="N19">
-        <v>220</v>
-      </c>
-      <c r="O19">
-        <v>17881</v>
-      </c>
-      <c r="P19">
-        <v>-1923</v>
-      </c>
-      <c r="Q19">
-        <v>-1089</v>
-      </c>
-      <c r="R19">
-        <v>-12431</v>
-      </c>
-      <c r="S19">
-        <v>2733</v>
-      </c>
-      <c r="T19">
-        <v>6725</v>
-      </c>
-      <c r="U19">
-        <v>-4062</v>
-      </c>
       <c r="V19">
-        <v>21670</v>
+        <v>1341</v>
       </c>
       <c r="W19">
-        <v>-23667</v>
+        <v>301</v>
       </c>
       <c r="X19">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="Y19">
-        <v>14112</v>
+        <v>-62</v>
       </c>
       <c r="Z19">
-        <v>12326</v>
+        <v>1676</v>
       </c>
       <c r="AA19">
-        <v>19813</v>
+        <v>462</v>
       </c>
       <c r="AB19">
-        <v>-21563</v>
+        <v>165</v>
       </c>
       <c r="AC19">
-        <v>-4358</v>
+        <v>-367</v>
       </c>
       <c r="AG19">
-        <v>-6862</v>
+        <v>-221</v>
       </c>
       <c r="AH19">
-        <v>-5212</v>
+        <v>-418</v>
       </c>
       <c r="AI19">
-        <v>-13220</v>
+        <v>478</v>
       </c>
       <c r="AJ19">
-        <v>-11139</v>
+        <v>-103</v>
       </c>
       <c r="AK19">
-        <v>-20024</v>
+        <v>-540</v>
       </c>
       <c r="AL19">
-        <v>-19804</v>
+        <v>-776</v>
       </c>
       <c r="AM19">
-        <v>-13520</v>
+        <v>1223</v>
       </c>
       <c r="AN19">
-        <v>-10787</v>
+        <v>1649</v>
       </c>
       <c r="AO19">
-        <v>-1997</v>
+        <v>1642</v>
       </c>
       <c r="AP19">
-        <v>-1786</v>
+        <v>1738</v>
       </c>
       <c r="AQ19">
-        <v>-1750</v>
+        <v>627</v>
       </c>
       <c r="AR19">
-        <v>-6108</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20">
-        <v>42</v>
+        <v>1946</v>
       </c>
       <c r="C20">
-        <v>-263</v>
+        <v>-1630</v>
       </c>
       <c r="D20">
-        <v>-197</v>
+        <v>-2792</v>
       </c>
       <c r="E20">
-        <v>-208</v>
+        <v>2322</v>
       </c>
       <c r="F20">
-        <v>-626</v>
+        <v>-154</v>
       </c>
       <c r="G20">
-        <v>791</v>
+        <v>37549</v>
       </c>
       <c r="H20">
-        <v>-313</v>
+        <v>1609</v>
       </c>
       <c r="I20">
-        <v>-581</v>
+        <v>-2149</v>
       </c>
       <c r="J20">
-        <v>59</v>
+        <v>1481</v>
       </c>
       <c r="K20">
-        <v>-44</v>
+        <v>38490</v>
       </c>
       <c r="L20">
-        <v>-370</v>
+        <v>570</v>
       </c>
       <c r="M20">
-        <v>-170</v>
+        <v>-3843</v>
       </c>
       <c r="N20">
-        <v>-236</v>
+        <v>-5480</v>
       </c>
       <c r="O20">
-        <v>151</v>
+        <v>4053</v>
       </c>
       <c r="P20">
-        <v>-625</v>
+        <v>-4700</v>
       </c>
       <c r="Q20">
-        <v>985</v>
+        <v>5514</v>
       </c>
       <c r="R20">
-        <v>238</v>
+        <v>1986</v>
       </c>
       <c r="S20">
-        <v>426</v>
+        <v>-3633</v>
       </c>
       <c r="T20">
-        <v>432</v>
+        <v>5049</v>
       </c>
       <c r="U20">
-        <v>2081</v>
+        <v>8916</v>
       </c>
       <c r="V20">
-        <v>1341</v>
+        <v>7959</v>
       </c>
       <c r="W20">
-        <v>301</v>
+        <v>-4914</v>
       </c>
       <c r="X20">
-        <v>96</v>
+        <v>-2582</v>
       </c>
       <c r="Y20">
-        <v>-62</v>
+        <v>5336</v>
       </c>
       <c r="Z20">
-        <v>1676</v>
+        <v>5799</v>
       </c>
       <c r="AA20">
-        <v>462</v>
+        <v>4236</v>
       </c>
       <c r="AB20">
-        <v>165</v>
+        <v>-2348</v>
       </c>
       <c r="AC20">
-        <v>-367</v>
+        <v>-1902</v>
       </c>
       <c r="AG20">
-        <v>-221</v>
+        <v>316</v>
       </c>
       <c r="AH20">
-        <v>-418</v>
+        <v>-2476</v>
       </c>
       <c r="AI20">
-        <v>478</v>
+        <v>39158</v>
       </c>
       <c r="AJ20">
-        <v>-103</v>
+        <v>37009</v>
       </c>
       <c r="AK20">
-        <v>-540</v>
+        <v>-3273</v>
       </c>
       <c r="AL20">
-        <v>-776</v>
+        <v>-8753</v>
       </c>
       <c r="AM20">
-        <v>1223</v>
+        <v>7500</v>
       </c>
       <c r="AN20">
-        <v>1649</v>
+        <v>3867</v>
       </c>
       <c r="AO20">
-        <v>1642</v>
+        <v>3045</v>
       </c>
       <c r="AP20">
-        <v>1738</v>
+        <v>463</v>
       </c>
       <c r="AQ20">
-        <v>627</v>
+        <v>1888</v>
       </c>
       <c r="AR20">
-        <v>260</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>1946</v>
+        <f t="shared" ref="B21:AC21" si="0">SUM(B6:B20)</f>
+        <v>27056</v>
       </c>
       <c r="C21">
-        <v>-1630</v>
+        <f t="shared" si="0"/>
+        <v>12523</v>
       </c>
       <c r="D21">
-        <v>-2792</v>
+        <f t="shared" si="0"/>
+        <v>8363</v>
       </c>
       <c r="E21">
-        <v>2322</v>
+        <f t="shared" si="0"/>
+        <v>15656</v>
       </c>
       <c r="F21">
-        <v>-154</v>
+        <f t="shared" si="0"/>
+        <v>63598</v>
       </c>
       <c r="G21">
-        <v>37549</v>
+        <f t="shared" si="0"/>
+        <v>28293</v>
       </c>
       <c r="H21">
-        <v>1609</v>
+        <f t="shared" si="0"/>
+        <v>15130</v>
       </c>
       <c r="I21">
-        <v>-2149</v>
+        <f t="shared" si="0"/>
+        <v>14488</v>
       </c>
       <c r="J21">
-        <v>1481</v>
+        <f t="shared" si="0"/>
+        <v>19523</v>
       </c>
       <c r="K21">
-        <v>38490</v>
+        <f t="shared" si="0"/>
+        <v>77434</v>
       </c>
       <c r="L21">
-        <v>570</v>
+        <f t="shared" si="0"/>
+        <v>26690</v>
       </c>
       <c r="M21">
-        <v>-3843</v>
+        <f t="shared" si="0"/>
+        <v>11155</v>
       </c>
       <c r="N21">
-        <v>-5480</v>
+        <f t="shared" si="0"/>
+        <v>11636</v>
       </c>
       <c r="O21">
-        <v>4053</v>
+        <f t="shared" si="0"/>
+        <v>19910</v>
       </c>
       <c r="P21">
-        <v>-4700</v>
+        <f t="shared" si="0"/>
+        <v>69391</v>
       </c>
       <c r="Q21">
-        <v>5514</v>
+        <f t="shared" si="0"/>
+        <v>30516</v>
       </c>
       <c r="R21">
-        <v>1986</v>
+        <f t="shared" si="0"/>
+        <v>13311</v>
       </c>
       <c r="S21">
-        <v>-3633</v>
+        <f t="shared" si="0"/>
+        <v>16271</v>
       </c>
       <c r="T21">
-        <v>5049</v>
+        <f t="shared" si="0"/>
+        <v>20576</v>
       </c>
       <c r="U21">
-        <v>8916</v>
+        <f t="shared" si="0"/>
+        <v>80674</v>
       </c>
       <c r="V21">
-        <v>7959</v>
+        <f t="shared" si="0"/>
+        <v>38763</v>
       </c>
       <c r="W21">
-        <v>-4914</v>
+        <f t="shared" si="0"/>
+        <v>23981</v>
       </c>
       <c r="X21">
-        <v>-2582</v>
+        <f t="shared" si="0"/>
+        <v>21094</v>
       </c>
       <c r="Y21">
-        <v>5336</v>
+        <f t="shared" si="0"/>
+        <v>20200</v>
       </c>
       <c r="Z21">
-        <v>5799</v>
+        <f t="shared" si="0"/>
+        <v>104038</v>
       </c>
       <c r="AA21">
-        <v>4236</v>
+        <f t="shared" si="0"/>
+        <v>46966</v>
       </c>
       <c r="AB21">
-        <v>-2348</v>
+        <f t="shared" si="0"/>
+        <v>28166</v>
       </c>
       <c r="AC21">
-        <v>-1902</v>
+        <f t="shared" si="0"/>
+        <v>22892</v>
       </c>
       <c r="AG21">
-        <v>316</v>
+        <f t="shared" ref="AG21:AR21" si="1">SUM(AG6:AG20)</f>
+        <v>39579</v>
       </c>
       <c r="AH21">
-        <v>-2476</v>
+        <f t="shared" si="1"/>
+        <v>47942</v>
       </c>
       <c r="AI21">
-        <v>39158</v>
+        <f t="shared" si="1"/>
+        <v>43423</v>
       </c>
       <c r="AJ21">
-        <v>37009</v>
+        <f t="shared" si="1"/>
+        <v>57911</v>
       </c>
       <c r="AK21">
-        <v>-3273</v>
+        <f t="shared" si="1"/>
+        <v>37845</v>
       </c>
       <c r="AL21">
-        <v>-8753</v>
+        <f t="shared" si="1"/>
+        <v>49481</v>
       </c>
       <c r="AM21">
-        <v>7500</v>
+        <f t="shared" si="1"/>
+        <v>43827</v>
       </c>
       <c r="AN21">
-        <v>3867</v>
+        <f t="shared" si="1"/>
+        <v>60098</v>
       </c>
       <c r="AO21">
-        <v>3045</v>
+        <f t="shared" si="1"/>
+        <v>62744</v>
       </c>
       <c r="AP21">
-        <v>463</v>
+        <f t="shared" si="1"/>
+        <v>83838</v>
       </c>
       <c r="AQ21">
-        <v>1888</v>
+        <f t="shared" si="1"/>
+        <v>75132</v>
       </c>
       <c r="AR21">
-        <v>-14</v>
+        <f t="shared" si="1"/>
+        <v>98024</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22">
-        <f>SUM(B7:B21)</f>
-        <v>27056</v>
-      </c>
-      <c r="C22">
-        <f>SUM(C7:C21)</f>
-        <v>12523</v>
-      </c>
-      <c r="D22">
-        <f>SUM(D7:D21)</f>
-        <v>8363</v>
-      </c>
-      <c r="E22">
-        <f>SUM(E7:E21)</f>
-        <v>15656</v>
-      </c>
-      <c r="F22">
-        <f>SUM(F7:F21)</f>
-        <v>63598</v>
-      </c>
-      <c r="G22">
-        <f>SUM(G7:G21)</f>
-        <v>28293</v>
-      </c>
-      <c r="H22">
-        <f>SUM(H7:H21)</f>
-        <v>15130</v>
-      </c>
-      <c r="I22">
-        <f>SUM(I7:I21)</f>
-        <v>14488</v>
-      </c>
-      <c r="J22">
-        <f>SUM(J7:J21)</f>
-        <v>19523</v>
-      </c>
-      <c r="K22">
-        <f>SUM(K7:K21)</f>
-        <v>77434</v>
-      </c>
-      <c r="L22">
-        <f>SUM(L7:L21)</f>
-        <v>26690</v>
-      </c>
-      <c r="M22">
-        <f>SUM(M7:M21)</f>
-        <v>11155</v>
-      </c>
-      <c r="N22">
-        <f>SUM(N7:N21)</f>
-        <v>11636</v>
-      </c>
-      <c r="O22">
-        <f>SUM(O7:O21)</f>
-        <v>19910</v>
-      </c>
-      <c r="P22">
-        <f>SUM(P7:P21)</f>
-        <v>69391</v>
-      </c>
-      <c r="Q22">
-        <f>SUM(Q7:Q21)</f>
-        <v>30516</v>
-      </c>
-      <c r="R22">
-        <f>SUM(R7:R21)</f>
-        <v>13311</v>
-      </c>
-      <c r="S22">
-        <f>SUM(S7:S21)</f>
-        <v>16271</v>
-      </c>
-      <c r="T22">
-        <f>SUM(T7:T21)</f>
-        <v>20576</v>
-      </c>
-      <c r="U22">
-        <f>SUM(U7:U21)</f>
-        <v>80674</v>
-      </c>
-      <c r="V22">
-        <f>SUM(V7:V21)</f>
-        <v>38763</v>
-      </c>
-      <c r="W22">
-        <f>SUM(W7:W21)</f>
-        <v>23981</v>
-      </c>
-      <c r="X22">
-        <f>SUM(X7:X21)</f>
-        <v>21094</v>
-      </c>
-      <c r="Y22">
-        <f>SUM(Y7:Y21)</f>
-        <v>20200</v>
-      </c>
-      <c r="Z22">
-        <f>SUM(Z7:Z21)</f>
-        <v>104038</v>
-      </c>
-      <c r="AA22">
-        <f>SUM(AA7:AA21)</f>
-        <v>46966</v>
-      </c>
-      <c r="AB22">
-        <f>SUM(AB7:AB21)</f>
-        <v>28166</v>
-      </c>
-      <c r="AC22">
-        <f>SUM(AC7:AC21)</f>
-        <v>22892</v>
-      </c>
-      <c r="AG22">
-        <f>SUM(AG7:AG21)</f>
-        <v>39579</v>
-      </c>
-      <c r="AH22">
-        <f>SUM(AH7:AH21)</f>
-        <v>47942</v>
-      </c>
-      <c r="AI22">
-        <f>SUM(AI7:AI21)</f>
-        <v>43423</v>
-      </c>
-      <c r="AJ22">
-        <f>SUM(AJ7:AJ21)</f>
-        <v>57911</v>
-      </c>
-      <c r="AK22">
-        <f>SUM(AK7:AK21)</f>
-        <v>37845</v>
-      </c>
-      <c r="AL22">
-        <f>SUM(AL7:AL21)</f>
-        <v>49481</v>
-      </c>
-      <c r="AM22">
-        <f>SUM(AM7:AM21)</f>
-        <v>43827</v>
-      </c>
-      <c r="AN22">
-        <f>SUM(AN7:AN21)</f>
-        <v>60098</v>
-      </c>
-      <c r="AO22">
-        <f>SUM(AO7:AO21)</f>
-        <v>62744</v>
-      </c>
-      <c r="AP22">
-        <f>SUM(AP7:AP21)</f>
-        <v>83838</v>
-      </c>
-      <c r="AQ22">
-        <f>SUM(AQ7:AQ21)</f>
-        <v>75132</v>
-      </c>
-      <c r="AR22">
-        <f>SUM(AR7:AR21)</f>
-        <v>98024</v>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>42</v>
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>-54272</v>
+      </c>
+      <c r="C24">
+        <v>-45549</v>
+      </c>
+      <c r="D24">
+        <v>-23960</v>
+      </c>
+      <c r="E24">
+        <v>-35705</v>
+      </c>
+      <c r="F24">
+        <v>-159486</v>
+      </c>
+      <c r="G24">
+        <v>-41272</v>
+      </c>
+      <c r="H24">
+        <v>-7177</v>
+      </c>
+      <c r="I24">
+        <v>-7684</v>
+      </c>
+      <c r="J24">
+        <v>-15223</v>
+      </c>
+      <c r="K24">
+        <v>-71356</v>
+      </c>
+      <c r="L24">
+        <v>-7077</v>
+      </c>
+      <c r="M24">
+        <v>-6777</v>
+      </c>
+      <c r="N24">
+        <v>-8048</v>
+      </c>
+      <c r="O24">
+        <v>-17728</v>
+      </c>
+      <c r="P24">
+        <v>-39630</v>
+      </c>
+      <c r="Q24">
+        <v>-37416</v>
+      </c>
+      <c r="R24">
+        <v>-29073</v>
+      </c>
+      <c r="S24">
+        <v>-30117</v>
+      </c>
+      <c r="T24">
+        <v>-18332</v>
+      </c>
+      <c r="U24">
+        <v>-114938</v>
+      </c>
+      <c r="V24">
+        <v>-39800</v>
+      </c>
+      <c r="W24">
+        <v>-34624</v>
+      </c>
+      <c r="X24">
+        <v>-19628</v>
+      </c>
+      <c r="Y24">
+        <v>-15506</v>
+      </c>
+      <c r="Z24">
+        <v>-109558</v>
+      </c>
+      <c r="AA24">
+        <v>-34913</v>
+      </c>
+      <c r="AB24">
+        <v>-27074</v>
+      </c>
+      <c r="AC24">
+        <v>-8191</v>
+      </c>
+      <c r="AG24">
+        <v>-99821</v>
+      </c>
+      <c r="AH24">
+        <v>-123781</v>
+      </c>
+      <c r="AI24">
+        <v>-48449</v>
+      </c>
+      <c r="AJ24">
+        <v>-56133</v>
+      </c>
+      <c r="AK24">
+        <v>-13854</v>
+      </c>
+      <c r="AL24">
+        <v>-21902</v>
+      </c>
+      <c r="AM24">
+        <v>-66489</v>
+      </c>
+      <c r="AN24">
+        <v>-96606</v>
+      </c>
+      <c r="AO24">
+        <v>-74424</v>
+      </c>
+      <c r="AP24">
+        <v>-94052</v>
+      </c>
+      <c r="AQ24">
+        <v>-61987</v>
+      </c>
+      <c r="AR24">
+        <v>-70178</v>
       </c>
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25">
-        <v>-54272</v>
+        <v>6525</v>
       </c>
       <c r="C25">
-        <v>-45549</v>
+        <v>5904</v>
       </c>
       <c r="D25">
-        <v>-23960</v>
+        <v>6918</v>
       </c>
       <c r="E25">
-        <v>-35705</v>
+        <v>12428</v>
       </c>
       <c r="F25">
-        <v>-159486</v>
+        <v>31775</v>
       </c>
       <c r="G25">
-        <v>-41272</v>
+        <v>14048</v>
       </c>
       <c r="H25">
-        <v>-7177</v>
+        <v>17836</v>
       </c>
       <c r="I25">
-        <v>-7684</v>
+        <v>14406</v>
       </c>
       <c r="J25">
-        <v>-15223</v>
+        <v>9591</v>
       </c>
       <c r="K25">
-        <v>-71356</v>
+        <v>55881</v>
       </c>
       <c r="L25">
-        <v>-7077</v>
+        <v>7203</v>
       </c>
       <c r="M25">
-        <v>-6777</v>
+        <v>9677</v>
       </c>
       <c r="N25">
-        <v>-8048</v>
+        <v>9903</v>
       </c>
       <c r="O25">
-        <v>-17728</v>
+        <v>13319</v>
       </c>
       <c r="P25">
-        <v>-39630</v>
+        <v>40102</v>
       </c>
       <c r="Q25">
-        <v>-37416</v>
+        <v>19740</v>
       </c>
       <c r="R25">
-        <v>-29073</v>
+        <v>19998</v>
       </c>
       <c r="S25">
-        <v>-30117</v>
+        <v>15127</v>
       </c>
       <c r="T25">
-        <v>-18332</v>
+        <v>15053</v>
       </c>
       <c r="U25">
-        <v>-114938</v>
+        <v>69918</v>
       </c>
       <c r="V25">
-        <v>-39800</v>
+        <v>25177</v>
       </c>
       <c r="W25">
-        <v>-34624</v>
+        <v>14428</v>
       </c>
       <c r="X25">
-        <v>-19628</v>
+        <v>10275</v>
       </c>
       <c r="Y25">
-        <v>-15506</v>
+        <v>9143</v>
       </c>
       <c r="Z25">
-        <v>-109558</v>
+        <v>59023</v>
       </c>
       <c r="AA25">
-        <v>-34913</v>
+        <v>11309</v>
       </c>
       <c r="AB25">
-        <v>-27074</v>
+        <v>6691</v>
       </c>
       <c r="AC25">
-        <v>-8191</v>
+        <v>6203</v>
       </c>
       <c r="AG25">
-        <v>-99821</v>
+        <v>12429</v>
       </c>
       <c r="AH25">
-        <v>-123781</v>
+        <v>19347</v>
       </c>
       <c r="AI25">
-        <v>-48449</v>
+        <v>31884</v>
       </c>
       <c r="AJ25">
-        <v>-56133</v>
+        <v>46290</v>
       </c>
       <c r="AK25">
-        <v>-13854</v>
+        <v>16880</v>
       </c>
       <c r="AL25">
-        <v>-21902</v>
+        <v>26783</v>
       </c>
       <c r="AM25">
-        <v>-66489</v>
+        <v>39738</v>
       </c>
       <c r="AN25">
-        <v>-96606</v>
+        <v>54865</v>
       </c>
       <c r="AO25">
-        <v>-74424</v>
+        <v>39605</v>
       </c>
       <c r="AP25">
-        <v>-94052</v>
+        <v>49880</v>
       </c>
       <c r="AQ25">
-        <v>-61987</v>
+        <v>18000</v>
       </c>
       <c r="AR25">
-        <v>-70178</v>
+        <v>24203</v>
       </c>
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B26">
-        <v>6525</v>
+        <v>32166</v>
       </c>
       <c r="C26">
-        <v>5904</v>
+        <v>28288</v>
       </c>
       <c r="D26">
-        <v>6918</v>
+        <v>16293</v>
       </c>
       <c r="E26">
-        <v>12428</v>
+        <v>17817</v>
       </c>
       <c r="F26">
-        <v>31775</v>
+        <v>94564</v>
       </c>
       <c r="G26">
-        <v>14048</v>
+        <v>16801</v>
       </c>
       <c r="H26">
-        <v>17836</v>
+        <v>22141</v>
       </c>
       <c r="I26">
-        <v>14406</v>
+        <v>2672</v>
       </c>
       <c r="J26">
-        <v>9591</v>
+        <v>6224</v>
       </c>
       <c r="K26">
-        <v>55881</v>
+        <v>47838</v>
       </c>
       <c r="L26">
-        <v>7203</v>
+        <v>9723</v>
       </c>
       <c r="M26">
-        <v>9677</v>
+        <v>12912</v>
       </c>
       <c r="N26">
-        <v>9903</v>
+        <v>26881</v>
       </c>
       <c r="O26">
-        <v>13319</v>
+        <v>7472</v>
       </c>
       <c r="P26">
-        <v>40102</v>
+        <v>56988</v>
       </c>
       <c r="Q26">
-        <v>19740</v>
+        <v>7280</v>
       </c>
       <c r="R26">
-        <v>19998</v>
+        <v>20482</v>
       </c>
       <c r="S26">
-        <v>15127</v>
+        <v>11998</v>
       </c>
       <c r="T26">
-        <v>15053</v>
+        <v>10713</v>
       </c>
       <c r="U26">
-        <v>69918</v>
+        <v>50473</v>
       </c>
       <c r="V26">
-        <v>25177</v>
+        <v>9344</v>
       </c>
       <c r="W26">
-        <v>14428</v>
+        <v>12301</v>
       </c>
       <c r="X26">
-        <v>10275</v>
+        <v>15100</v>
       </c>
       <c r="Y26">
-        <v>9143</v>
+        <v>10715</v>
       </c>
       <c r="Z26">
-        <v>59023</v>
+        <v>47460</v>
       </c>
       <c r="AA26">
-        <v>11309</v>
+        <v>10675</v>
       </c>
       <c r="AB26">
-        <v>6691</v>
+        <v>13993</v>
       </c>
       <c r="AC26">
-        <v>6203</v>
+        <v>8941</v>
       </c>
       <c r="AG26">
-        <v>12429</v>
+        <v>60454</v>
       </c>
       <c r="AH26">
-        <v>19347</v>
+        <v>76747</v>
       </c>
       <c r="AI26">
-        <v>31884</v>
+        <v>38942</v>
       </c>
       <c r="AJ26">
-        <v>46290</v>
+        <v>41614</v>
       </c>
       <c r="AK26">
-        <v>16880</v>
+        <v>22635</v>
       </c>
       <c r="AL26">
-        <v>26783</v>
+        <v>49516</v>
       </c>
       <c r="AM26">
-        <v>39738</v>
+        <v>27762</v>
       </c>
       <c r="AN26">
-        <v>54865</v>
+        <v>39760</v>
       </c>
       <c r="AO26">
-        <v>39605</v>
+        <v>21645</v>
       </c>
       <c r="AP26">
-        <v>49880</v>
+        <v>36745</v>
       </c>
       <c r="AQ26">
-        <v>18000</v>
+        <v>24668</v>
       </c>
       <c r="AR26">
-        <v>24203</v>
+        <v>33609</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27">
-        <v>32166</v>
+        <v>-17</v>
       </c>
       <c r="C27">
-        <v>28288</v>
+        <v>-50</v>
       </c>
       <c r="D27">
-        <v>16293</v>
+        <v>-181</v>
       </c>
       <c r="E27">
-        <v>17817</v>
+        <v>-81</v>
       </c>
       <c r="F27">
-        <v>94564</v>
+        <v>-329</v>
       </c>
       <c r="G27">
-        <v>16801</v>
+        <v>-173</v>
       </c>
       <c r="H27">
-        <v>22141</v>
-      </c>
-      <c r="I27">
-        <v>2672</v>
-      </c>
-      <c r="J27">
-        <v>6224</v>
-      </c>
-      <c r="K27">
-        <v>47838</v>
-      </c>
-      <c r="L27">
-        <v>9723</v>
-      </c>
-      <c r="M27">
-        <v>12912</v>
-      </c>
-      <c r="N27">
-        <v>26881</v>
-      </c>
-      <c r="O27">
-        <v>7472</v>
-      </c>
-      <c r="P27">
-        <v>56988</v>
-      </c>
-      <c r="Q27">
-        <v>7280</v>
-      </c>
-      <c r="R27">
-        <v>20482</v>
-      </c>
-      <c r="S27">
-        <v>11998</v>
-      </c>
-      <c r="T27">
-        <v>10713</v>
-      </c>
-      <c r="U27">
-        <v>50473</v>
-      </c>
-      <c r="V27">
-        <v>9344</v>
-      </c>
-      <c r="W27">
-        <v>12301</v>
-      </c>
-      <c r="X27">
-        <v>15100</v>
-      </c>
-      <c r="Y27">
-        <v>10715</v>
-      </c>
-      <c r="Z27">
-        <v>47460</v>
-      </c>
-      <c r="AA27">
-        <v>10675</v>
-      </c>
-      <c r="AB27">
-        <v>13993</v>
-      </c>
-      <c r="AC27">
-        <v>8941</v>
+        <v>173</v>
       </c>
       <c r="AG27">
-        <v>60454</v>
+        <v>-67</v>
       </c>
       <c r="AH27">
-        <v>76747</v>
-      </c>
-      <c r="AI27">
-        <v>38942</v>
-      </c>
-      <c r="AJ27">
-        <v>41614</v>
-      </c>
-      <c r="AK27">
-        <v>22635</v>
-      </c>
-      <c r="AL27">
-        <v>49516</v>
-      </c>
-      <c r="AM27">
-        <v>27762</v>
-      </c>
-      <c r="AN27">
-        <v>39760</v>
-      </c>
-      <c r="AO27">
-        <v>21645</v>
-      </c>
-      <c r="AP27">
-        <v>36745</v>
-      </c>
-      <c r="AQ27">
-        <v>24668</v>
-      </c>
-      <c r="AR27">
-        <v>33609</v>
+        <v>-248</v>
       </c>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28">
-        <v>-17</v>
+        <v>-3334</v>
       </c>
       <c r="C28">
-        <v>-50</v>
+        <v>-2975</v>
       </c>
       <c r="D28">
-        <v>-181</v>
+        <v>-2277</v>
       </c>
       <c r="E28">
-        <v>-81</v>
+        <v>-3865</v>
       </c>
       <c r="F28">
-        <v>-329</v>
+        <v>-12451</v>
       </c>
       <c r="G28">
-        <v>-173</v>
+        <v>-2810</v>
       </c>
       <c r="H28">
-        <v>173</v>
+        <v>-4195</v>
+      </c>
+      <c r="I28">
+        <v>-3267</v>
+      </c>
+      <c r="J28">
+        <v>-3041</v>
+      </c>
+      <c r="K28">
+        <v>-13313</v>
+      </c>
+      <c r="L28">
+        <v>-3355</v>
+      </c>
+      <c r="M28">
+        <v>-2363</v>
+      </c>
+      <c r="N28">
+        <v>-2000</v>
+      </c>
+      <c r="O28">
+        <v>-2777</v>
+      </c>
+      <c r="P28">
+        <v>-10495</v>
+      </c>
+      <c r="Q28">
+        <v>-2107</v>
+      </c>
+      <c r="R28">
+        <v>-1853</v>
+      </c>
+      <c r="S28">
+        <v>-1565</v>
+      </c>
+      <c r="T28">
+        <v>-1784</v>
+      </c>
+      <c r="U28">
+        <v>-7309</v>
+      </c>
+      <c r="V28">
+        <v>-3500</v>
+      </c>
+      <c r="W28">
+        <v>-2269</v>
+      </c>
+      <c r="X28">
+        <v>-2093</v>
+      </c>
+      <c r="Y28">
+        <v>-3223</v>
+      </c>
+      <c r="Z28">
+        <v>-11085</v>
+      </c>
+      <c r="AA28">
+        <v>-2803</v>
+      </c>
+      <c r="AB28">
+        <v>-2514</v>
+      </c>
+      <c r="AC28">
+        <v>-2102</v>
       </c>
       <c r="AG28">
-        <v>-67</v>
+        <v>-6309</v>
       </c>
       <c r="AH28">
-        <v>-248</v>
+        <v>-8586</v>
+      </c>
+      <c r="AI28">
+        <v>-7005</v>
+      </c>
+      <c r="AJ28">
+        <v>-10272</v>
+      </c>
+      <c r="AK28">
+        <v>-5718</v>
+      </c>
+      <c r="AL28">
+        <v>-7718</v>
+      </c>
+      <c r="AM28">
+        <v>-3960</v>
+      </c>
+      <c r="AN28">
+        <v>-5525</v>
+      </c>
+      <c r="AO28">
+        <v>-5769</v>
+      </c>
+      <c r="AP28">
+        <v>-7862</v>
+      </c>
+      <c r="AQ28">
+        <v>-5317</v>
+      </c>
+      <c r="AR28">
+        <v>-7419</v>
       </c>
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29">
-        <v>-3334</v>
-      </c>
-      <c r="C29">
-        <v>-2975</v>
-      </c>
-      <c r="D29">
-        <v>-2277</v>
-      </c>
-      <c r="E29">
-        <v>-3865</v>
-      </c>
-      <c r="F29">
-        <v>-12451</v>
-      </c>
-      <c r="G29">
-        <v>-2810</v>
+        <v>68</v>
       </c>
       <c r="H29">
-        <v>-4195</v>
+        <v>-305</v>
       </c>
       <c r="I29">
-        <v>-3267</v>
+        <v>-126</v>
       </c>
       <c r="J29">
-        <v>-3041</v>
+        <v>-290</v>
       </c>
       <c r="K29">
-        <v>-13313</v>
+        <v>-721</v>
       </c>
       <c r="L29">
-        <v>-3355</v>
+        <v>-167</v>
       </c>
       <c r="M29">
-        <v>-2363</v>
+        <v>-124</v>
       </c>
       <c r="N29">
-        <v>-2000</v>
+        <v>-320</v>
       </c>
       <c r="O29">
-        <v>-2777</v>
+        <v>-13</v>
       </c>
       <c r="P29">
-        <v>-10495</v>
+        <v>-624</v>
       </c>
       <c r="Q29">
-        <v>-2107</v>
+        <v>-958</v>
       </c>
       <c r="R29">
-        <v>-1853</v>
+        <v>-176</v>
       </c>
       <c r="S29">
-        <v>-1565</v>
+        <v>-339</v>
       </c>
       <c r="T29">
-        <v>-1784</v>
+        <v>-51</v>
       </c>
       <c r="U29">
-        <v>-7309</v>
+        <v>-1524</v>
       </c>
       <c r="V29">
-        <v>-3500</v>
-      </c>
-      <c r="W29">
-        <v>-2269</v>
+        <v>-9</v>
       </c>
       <c r="X29">
-        <v>-2093</v>
+        <v>-4</v>
       </c>
       <c r="Y29">
-        <v>-3223</v>
+        <v>-20</v>
       </c>
       <c r="Z29">
-        <v>-11085</v>
-      </c>
-      <c r="AA29">
-        <v>-2803</v>
+        <v>-33</v>
       </c>
       <c r="AB29">
-        <v>-2514</v>
+        <v>-167</v>
       </c>
       <c r="AC29">
-        <v>-2102</v>
-      </c>
-      <c r="AG29">
-        <v>-6309</v>
-      </c>
-      <c r="AH29">
-        <v>-8586</v>
+        <v>-2</v>
       </c>
       <c r="AI29">
-        <v>-7005</v>
+        <v>-305</v>
       </c>
       <c r="AJ29">
-        <v>-10272</v>
+        <v>-431</v>
       </c>
       <c r="AK29">
-        <v>-5718</v>
+        <v>-291</v>
       </c>
       <c r="AL29">
-        <v>-7718</v>
+        <v>-611</v>
       </c>
       <c r="AM29">
-        <v>-3960</v>
+        <v>-1134</v>
       </c>
       <c r="AN29">
-        <v>-5525</v>
+        <v>-1473</v>
       </c>
       <c r="AO29">
-        <v>-5769</v>
+        <v>-9</v>
       </c>
       <c r="AP29">
-        <v>-7862</v>
+        <v>-13</v>
       </c>
       <c r="AQ29">
-        <v>-5317</v>
+        <v>-167</v>
       </c>
       <c r="AR29">
-        <v>-7419</v>
+        <v>-169</v>
       </c>
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30">
-        <v>-305</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>-126</v>
+        <v>-1788</v>
       </c>
       <c r="J30">
-        <v>-290</v>
+        <v>-83</v>
       </c>
       <c r="K30">
-        <v>-721</v>
+        <v>-1871</v>
       </c>
       <c r="L30">
-        <v>-167</v>
+        <v>-427</v>
       </c>
       <c r="M30">
-        <v>-124</v>
+        <v>-63</v>
       </c>
       <c r="N30">
-        <v>-320</v>
+        <v>-142</v>
       </c>
       <c r="O30">
-        <v>-13</v>
+        <v>-369</v>
       </c>
       <c r="P30">
-        <v>-624</v>
+        <v>-1001</v>
       </c>
       <c r="Q30">
-        <v>-958</v>
+        <v>-77</v>
       </c>
       <c r="R30">
-        <v>-176</v>
+        <v>-69</v>
       </c>
       <c r="S30">
-        <v>-339</v>
-      </c>
-      <c r="T30">
-        <v>-51</v>
+        <v>-64</v>
       </c>
       <c r="U30">
-        <v>-1524</v>
-      </c>
-      <c r="V30">
-        <v>-9</v>
-      </c>
-      <c r="X30">
-        <v>-4</v>
+        <v>-210</v>
       </c>
       <c r="Y30">
-        <v>-20</v>
+        <v>-131</v>
       </c>
       <c r="Z30">
-        <v>-33</v>
-      </c>
-      <c r="AB30">
-        <v>-167</v>
-      </c>
-      <c r="AC30">
-        <v>-2</v>
-      </c>
-      <c r="AI30">
-        <v>-305</v>
+        <v>-131</v>
       </c>
       <c r="AJ30">
-        <v>-431</v>
+        <v>-1788</v>
       </c>
       <c r="AK30">
-        <v>-291</v>
+        <v>-490</v>
       </c>
       <c r="AL30">
-        <v>-611</v>
+        <v>-632</v>
       </c>
       <c r="AM30">
-        <v>-1134</v>
+        <v>-146</v>
       </c>
       <c r="AN30">
-        <v>-1473</v>
-      </c>
-      <c r="AO30">
-        <v>-9</v>
-      </c>
-      <c r="AP30">
-        <v>-13</v>
-      </c>
-      <c r="AQ30">
-        <v>-167</v>
-      </c>
-      <c r="AR30">
-        <v>-169</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>-1788</v>
-      </c>
-      <c r="J31">
+        <v>71</v>
+      </c>
+      <c r="B31">
+        <v>-86</v>
+      </c>
+      <c r="C31">
+        <v>-40</v>
+      </c>
+      <c r="D31">
         <v>-83</v>
       </c>
-      <c r="K31">
-        <v>-1871</v>
-      </c>
-      <c r="L31">
-        <v>-427</v>
-      </c>
-      <c r="M31">
-        <v>-63</v>
-      </c>
-      <c r="N31">
-        <v>-142</v>
-      </c>
-      <c r="O31">
-        <v>-369</v>
-      </c>
-      <c r="P31">
-        <v>-1001</v>
-      </c>
-      <c r="Q31">
-        <v>-77</v>
-      </c>
-      <c r="R31">
-        <v>-69</v>
-      </c>
-      <c r="S31">
-        <v>-64</v>
-      </c>
-      <c r="U31">
-        <v>-210</v>
-      </c>
-      <c r="Y31">
-        <v>-131</v>
-      </c>
-      <c r="Z31">
-        <v>-131</v>
-      </c>
-      <c r="AJ31">
-        <v>-1788</v>
-      </c>
-      <c r="AK31">
-        <v>-490</v>
-      </c>
-      <c r="AL31">
-        <v>-632</v>
-      </c>
-      <c r="AM31">
-        <v>-146</v>
-      </c>
-      <c r="AN31">
-        <v>-210</v>
+      <c r="E31">
+        <v>-135</v>
+      </c>
+      <c r="F31">
+        <v>-344</v>
+      </c>
+      <c r="G31">
+        <v>-154</v>
+      </c>
+      <c r="H31">
+        <v>154</v>
+      </c>
+      <c r="AG31">
+        <v>-126</v>
+      </c>
+      <c r="AH31">
+        <v>-209</v>
       </c>
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B32">
-        <v>-86</v>
+        <v>-104</v>
       </c>
       <c r="C32">
-        <v>-40</v>
+        <v>220</v>
       </c>
       <c r="D32">
-        <v>-83</v>
+        <v>197</v>
       </c>
       <c r="E32">
-        <v>-135</v>
+        <v>-93</v>
       </c>
       <c r="F32">
-        <v>-344</v>
+        <v>220</v>
       </c>
       <c r="G32">
-        <v>-154</v>
+        <v>64</v>
       </c>
       <c r="H32">
-        <v>154</v>
+        <v>-11</v>
+      </c>
+      <c r="I32">
+        <v>-576</v>
+      </c>
+      <c r="J32">
+        <v>-222</v>
+      </c>
+      <c r="K32">
+        <v>-745</v>
+      </c>
+      <c r="L32">
+        <v>-56</v>
+      </c>
+      <c r="M32">
+        <v>86</v>
+      </c>
+      <c r="N32">
+        <v>-298</v>
+      </c>
+      <c r="O32">
+        <v>-810</v>
+      </c>
+      <c r="P32">
+        <v>-1078</v>
+      </c>
+      <c r="Q32">
+        <v>-130</v>
+      </c>
+      <c r="R32">
+        <v>-296</v>
+      </c>
+      <c r="S32">
+        <v>-263</v>
+      </c>
+      <c r="T32">
+        <v>-102</v>
+      </c>
+      <c r="U32">
+        <v>-791</v>
+      </c>
+      <c r="V32">
+        <v>204</v>
+      </c>
+      <c r="W32">
+        <v>-204</v>
+      </c>
+      <c r="X32">
+        <v>-78</v>
+      </c>
+      <c r="Y32">
+        <v>-530</v>
+      </c>
+      <c r="Z32">
+        <v>-608</v>
+      </c>
+      <c r="AA32">
+        <v>-374</v>
+      </c>
+      <c r="AB32">
+        <v>-194</v>
+      </c>
+      <c r="AC32">
+        <v>-615</v>
       </c>
       <c r="AG32">
-        <v>-126</v>
+        <v>116</v>
       </c>
       <c r="AH32">
-        <v>-209</v>
+        <v>313</v>
+      </c>
+      <c r="AI32">
+        <v>53</v>
+      </c>
+      <c r="AJ32">
+        <v>-523</v>
+      </c>
+      <c r="AK32">
+        <v>30</v>
+      </c>
+      <c r="AL32">
+        <v>-268</v>
+      </c>
+      <c r="AM32">
+        <v>-426</v>
+      </c>
+      <c r="AN32">
+        <v>-689</v>
+      </c>
+      <c r="AP32">
+        <v>-78</v>
+      </c>
+      <c r="AQ32">
+        <v>-568</v>
+      </c>
+      <c r="AR32">
+        <v>-1183</v>
       </c>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33">
-        <v>-104</v>
-      </c>
-      <c r="C33">
-        <v>220</v>
-      </c>
-      <c r="D33">
-        <v>197</v>
-      </c>
-      <c r="E33">
-        <v>-93</v>
-      </c>
-      <c r="F33">
-        <v>220</v>
-      </c>
-      <c r="G33">
-        <v>64</v>
-      </c>
-      <c r="H33">
-        <v>-11</v>
+        <v>73</v>
       </c>
       <c r="I33">
-        <v>-576</v>
+        <v>310</v>
       </c>
       <c r="J33">
-        <v>-222</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>-745</v>
-      </c>
-      <c r="L33">
-        <v>-56</v>
-      </c>
-      <c r="M33">
-        <v>86</v>
+        <v>353</v>
       </c>
       <c r="N33">
-        <v>-298</v>
+        <v>1526</v>
       </c>
       <c r="O33">
-        <v>-810</v>
+        <v>108</v>
       </c>
       <c r="P33">
-        <v>-1078</v>
-      </c>
-      <c r="Q33">
-        <v>-130</v>
-      </c>
-      <c r="R33">
-        <v>-296</v>
+        <v>1634</v>
       </c>
       <c r="S33">
-        <v>-263</v>
+        <v>58</v>
       </c>
       <c r="T33">
-        <v>-102</v>
+        <v>34</v>
       </c>
       <c r="U33">
-        <v>-791</v>
-      </c>
-      <c r="V33">
-        <v>204</v>
-      </c>
-      <c r="W33">
-        <v>-204</v>
-      </c>
-      <c r="X33">
-        <v>-78</v>
+        <v>92</v>
       </c>
       <c r="Y33">
-        <v>-530</v>
+        <v>387</v>
       </c>
       <c r="Z33">
-        <v>-608</v>
-      </c>
-      <c r="AA33">
-        <v>-374</v>
-      </c>
-      <c r="AB33">
-        <v>-194</v>
-      </c>
-      <c r="AC33">
-        <v>-615</v>
-      </c>
-      <c r="AG33">
-        <v>116</v>
-      </c>
-      <c r="AH33">
-        <v>313</v>
-      </c>
-      <c r="AI33">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="AJ33">
-        <v>-523</v>
-      </c>
-      <c r="AK33">
-        <v>30</v>
+        <v>310</v>
       </c>
       <c r="AL33">
-        <v>-268</v>
-      </c>
-      <c r="AM33">
-        <v>-426</v>
+        <v>1526</v>
       </c>
       <c r="AN33">
-        <v>-689</v>
-      </c>
-      <c r="AP33">
-        <v>-78</v>
-      </c>
-      <c r="AQ33">
-        <v>-568</v>
-      </c>
-      <c r="AR33">
-        <v>-1183</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34">
-        <v>310</v>
-      </c>
-      <c r="J34">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>353</v>
-      </c>
-      <c r="N34">
-        <v>1526</v>
-      </c>
-      <c r="O34">
-        <v>108</v>
-      </c>
-      <c r="P34">
-        <v>1634</v>
-      </c>
-      <c r="S34">
-        <v>58</v>
-      </c>
-      <c r="T34">
-        <v>34</v>
-      </c>
-      <c r="U34">
-        <v>92</v>
-      </c>
-      <c r="Y34">
-        <v>387</v>
-      </c>
-      <c r="Z34">
-        <v>387</v>
-      </c>
-      <c r="AJ34">
-        <v>310</v>
-      </c>
-      <c r="AL34">
-        <v>1526</v>
-      </c>
-      <c r="AN34">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>-87</v>
+      </c>
+      <c r="E34">
+        <v>-308</v>
+      </c>
+      <c r="F34">
+        <v>-395</v>
+      </c>
+      <c r="G34">
+        <v>-94</v>
+      </c>
+      <c r="H34">
+        <v>94</v>
+      </c>
+      <c r="AH34">
+        <v>-87</v>
       </c>
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>-87</v>
-      </c>
-      <c r="E35">
-        <v>-308</v>
-      </c>
-      <c r="F35">
-        <v>-395</v>
-      </c>
-      <c r="G35">
-        <v>-94</v>
-      </c>
-      <c r="H35">
-        <v>94</v>
-      </c>
-      <c r="AH35">
-        <v>-87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <f>SUM(B24:B36)</f>
+        <v>-19122</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:U37" si="2">SUM(C24:C36)</f>
+        <v>-14202</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-3180</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>-9942</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>-46446</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>-13590</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>28710</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>3947</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>-3001</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>16066</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>5844</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>13348</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>27502</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>-798</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>45896</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>-13668</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>9013</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>-5165</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>5531</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="2"/>
+        <v>-4289</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37" si="3">SUM(V24:V36)</f>
+        <v>-8584</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ref="W37" si="4">SUM(W24:W36)</f>
+        <v>-10368</v>
+      </c>
+      <c r="X37">
+        <f t="shared" ref="X37" si="5">SUM(X24:X36)</f>
+        <v>3572</v>
+      </c>
+      <c r="Y37">
+        <f>SUM(Y24:Y36)</f>
+        <v>835</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" ref="Z37" si="6">SUM(Z24:Z36)</f>
+        <v>-14545</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" ref="AA37" si="7">SUM(AA24:AA36)</f>
+        <v>-16106</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" ref="AB37" si="8">SUM(AB24:AB36)</f>
+        <v>-9265</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ref="AC37" si="9">SUM(AC24:AC36)</f>
+        <v>4234</v>
+      </c>
+      <c r="AG37">
+        <f t="shared" ref="AG37" si="10">SUM(AG24:AG36)</f>
+        <v>-33324</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" ref="AH37" si="11">SUM(AH24:AH36)</f>
+        <v>-36504</v>
+      </c>
+      <c r="AI37">
+        <f t="shared" ref="AI37" si="12">SUM(AI24:AI36)</f>
+        <v>15120</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" ref="AJ37" si="13">SUM(AJ24:AJ36)</f>
+        <v>19067</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" ref="AK37" si="14">SUM(AK24:AK36)</f>
+        <v>19192</v>
+      </c>
+      <c r="AL37">
+        <f t="shared" ref="AL37" si="15">SUM(AL24:AL36)</f>
+        <v>46694</v>
+      </c>
+      <c r="AM37">
+        <f t="shared" ref="AM37" si="16">SUM(AM24:AM36)</f>
+        <v>-4655</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" ref="AN37" si="17">SUM(AN24:AN36)</f>
+        <v>-9820</v>
+      </c>
+      <c r="AO37">
+        <f t="shared" ref="AO37" si="18">SUM(AO24:AO36)</f>
+        <v>-18952</v>
+      </c>
+      <c r="AP37">
+        <f t="shared" ref="AP37:AQ37" si="19">SUM(AP24:AP36)</f>
+        <v>-15380</v>
+      </c>
+      <c r="AQ37">
+        <f t="shared" si="19"/>
+        <v>-25371</v>
+      </c>
+      <c r="AR37">
+        <f t="shared" ref="AR37" si="20">SUM(AR24:AR36)</f>
+        <v>-21137</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B25:B37)</f>
-        <v>-19122</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:U38" si="0">SUM(C25:C37)</f>
-        <v>-14202</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>-3180</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>-9942</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>-46446</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>-13590</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>28710</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="0"/>
-        <v>3947</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="0"/>
-        <v>-3001</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="0"/>
-        <v>16066</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>5844</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>13348</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>27502</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="0"/>
-        <v>-798</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>45896</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>-13668</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="0"/>
-        <v>9013</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="0"/>
-        <v>-5165</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="0"/>
-        <v>5531</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="0"/>
-        <v>-4289</v>
-      </c>
-      <c r="V38">
-        <f t="shared" ref="V38" si="1">SUM(V25:V37)</f>
-        <v>-8584</v>
-      </c>
-      <c r="W38">
-        <f t="shared" ref="W38" si="2">SUM(W25:W37)</f>
-        <v>-10368</v>
-      </c>
-      <c r="X38">
-        <f t="shared" ref="X38" si="3">SUM(X25:X37)</f>
-        <v>3572</v>
-      </c>
-      <c r="Y38">
-        <f>SUM(Y25:Y37)</f>
-        <v>835</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" ref="Z38" si="4">SUM(Z25:Z37)</f>
-        <v>-14545</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" ref="AA38" si="5">SUM(AA25:AA37)</f>
-        <v>-16106</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" ref="AB38" si="6">SUM(AB25:AB37)</f>
-        <v>-9265</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ref="AC38" si="7">SUM(AC25:AC37)</f>
-        <v>4234</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" ref="AG38" si="8">SUM(AG25:AG37)</f>
-        <v>-33324</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" ref="AH38" si="9">SUM(AH25:AH37)</f>
-        <v>-36504</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" ref="AI38" si="10">SUM(AI25:AI37)</f>
-        <v>15120</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" ref="AJ38" si="11">SUM(AJ25:AJ37)</f>
-        <v>19067</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" ref="AK38" si="12">SUM(AK25:AK37)</f>
-        <v>19192</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" ref="AL38" si="13">SUM(AL25:AL37)</f>
-        <v>46694</v>
-      </c>
-      <c r="AM38">
-        <f t="shared" ref="AM38" si="14">SUM(AM25:AM37)</f>
-        <v>-4655</v>
-      </c>
-      <c r="AN38">
-        <f t="shared" ref="AN38" si="15">SUM(AN25:AN37)</f>
-        <v>-9820</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" ref="AO38" si="16">SUM(AO25:AO37)</f>
-        <v>-18952</v>
-      </c>
-      <c r="AP38">
-        <f t="shared" ref="AP38:AQ38" si="17">SUM(AP25:AP37)</f>
-        <v>-15380</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" si="17"/>
-        <v>-25371</v>
-      </c>
-      <c r="AR38">
-        <f t="shared" ref="AR38" si="18">SUM(AR25:AR37)</f>
-        <v>-21137</v>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>-629</v>
+      </c>
+      <c r="C39">
+        <v>-159</v>
+      </c>
+      <c r="D39">
+        <v>-858</v>
+      </c>
+      <c r="E39">
+        <v>-228</v>
+      </c>
+      <c r="F39">
+        <v>-1874</v>
+      </c>
+      <c r="G39">
+        <v>-1038</v>
+      </c>
+      <c r="H39">
+        <v>-152</v>
+      </c>
+      <c r="I39">
+        <v>-1077</v>
+      </c>
+      <c r="J39">
+        <v>-260</v>
+      </c>
+      <c r="K39">
+        <v>-2527</v>
+      </c>
+      <c r="L39">
+        <v>-1318</v>
+      </c>
+      <c r="M39">
+        <v>-109</v>
+      </c>
+      <c r="N39">
+        <v>-1199</v>
+      </c>
+      <c r="O39">
+        <f>P39-AL39</f>
+        <v>-191</v>
+      </c>
+      <c r="P39">
+        <v>-2817</v>
+      </c>
+      <c r="Q39">
+        <v>-1379</v>
+      </c>
+      <c r="R39">
+        <v>-187</v>
+      </c>
+      <c r="S39">
+        <v>-1668</v>
+      </c>
+      <c r="T39">
+        <v>-400</v>
+      </c>
+      <c r="U39">
+        <v>-3634</v>
+      </c>
+      <c r="V39">
+        <v>-2861</v>
+      </c>
+      <c r="W39">
+        <v>-299</v>
+      </c>
+      <c r="X39">
+        <v>-2695</v>
+      </c>
+      <c r="Y39">
+        <v>-701</v>
+      </c>
+      <c r="Z39">
+        <v>-6556</v>
+      </c>
+      <c r="AA39">
+        <v>-2888</v>
+      </c>
+      <c r="AB39">
+        <v>-330</v>
+      </c>
+      <c r="AC39">
+        <v>-2697</v>
+      </c>
+      <c r="AG39">
+        <v>-788</v>
+      </c>
+      <c r="AH39">
+        <v>-1646</v>
+      </c>
+      <c r="AI39">
+        <v>-1190</v>
+      </c>
+      <c r="AJ39">
+        <v>-2267</v>
+      </c>
+      <c r="AK39">
+        <v>-1427</v>
+      </c>
+      <c r="AL39">
+        <v>-2626</v>
+      </c>
+      <c r="AM39">
+        <v>-1566</v>
+      </c>
+      <c r="AN39">
+        <v>-3234</v>
+      </c>
+      <c r="AO39">
+        <v>-3160</v>
+      </c>
+      <c r="AP39">
+        <v>-5855</v>
+      </c>
+      <c r="AQ39">
+        <v>-3218</v>
+      </c>
+      <c r="AR39">
+        <v>-5915</v>
       </c>
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40">
-        <v>-629</v>
+        <v>-3130</v>
       </c>
       <c r="C40">
-        <v>-159</v>
+        <v>-3004</v>
       </c>
       <c r="D40">
-        <v>-858</v>
+        <v>-3365</v>
       </c>
       <c r="E40">
-        <v>-228</v>
+        <f>-12769-AH40</f>
+        <v>-3270</v>
       </c>
       <c r="F40">
-        <v>-1874</v>
+        <v>-12769</v>
       </c>
       <c r="G40">
-        <v>-1038</v>
+        <v>-3339</v>
       </c>
       <c r="H40">
-        <v>-152</v>
+        <v>-3190</v>
       </c>
       <c r="I40">
-        <v>-1077</v>
+        <v>-3653</v>
       </c>
       <c r="J40">
-        <v>-260</v>
+        <f>K40-AJ40</f>
+        <v>-3530</v>
       </c>
       <c r="K40">
-        <v>-2527</v>
+        <v>-13712</v>
       </c>
       <c r="L40">
-        <v>-1318</v>
+        <v>-3568</v>
       </c>
       <c r="M40">
-        <v>-109</v>
+        <v>-3443</v>
       </c>
       <c r="N40">
-        <v>-1199</v>
+        <v>-3629</v>
       </c>
       <c r="O40">
-        <v>-191</v>
+        <f>P40-AL40</f>
+        <v>-3479</v>
       </c>
       <c r="P40">
-        <v>-2817</v>
+        <v>-14119</v>
       </c>
       <c r="Q40">
-        <v>-1379</v>
+        <v>-3539</v>
       </c>
       <c r="R40">
-        <v>-187</v>
+        <v>-3375</v>
       </c>
       <c r="S40">
-        <v>-1668</v>
+        <v>-3656</v>
       </c>
       <c r="T40">
-        <v>-400</v>
+        <v>-3511</v>
       </c>
       <c r="U40">
-        <v>-3634</v>
+        <v>-14081</v>
       </c>
       <c r="V40">
-        <v>-2861</v>
+        <v>-3613</v>
       </c>
       <c r="W40">
-        <v>-299</v>
+        <v>-3447</v>
       </c>
       <c r="X40">
-        <v>-2695</v>
+        <v>-3767</v>
       </c>
       <c r="Y40">
-        <v>-701</v>
+        <v>-3640</v>
       </c>
       <c r="Z40">
-        <v>-6556</v>
+        <v>-14467</v>
       </c>
       <c r="AA40">
-        <v>-2888</v>
+        <v>-3732</v>
       </c>
       <c r="AB40">
-        <v>-330</v>
+        <v>-3595</v>
       </c>
       <c r="AC40">
-        <v>-2697</v>
+        <v>-3811</v>
       </c>
       <c r="AG40">
-        <v>-788</v>
+        <v>-6134</v>
       </c>
       <c r="AH40">
-        <v>-1646</v>
+        <v>-9499</v>
       </c>
       <c r="AI40">
-        <v>-1190</v>
+        <v>-6529</v>
       </c>
       <c r="AJ40">
-        <v>-2267</v>
+        <v>-10182</v>
       </c>
       <c r="AK40">
-        <v>-1427</v>
+        <v>-7011</v>
       </c>
       <c r="AL40">
-        <v>-2626</v>
+        <v>-10640</v>
       </c>
       <c r="AM40">
-        <v>-1566</v>
+        <v>-6914</v>
       </c>
       <c r="AN40">
-        <v>-3234</v>
+        <v>-10570</v>
       </c>
       <c r="AO40">
-        <v>-3160</v>
+        <v>-7060</v>
       </c>
       <c r="AP40">
-        <v>-5855</v>
+        <v>-10827</v>
       </c>
       <c r="AQ40">
-        <v>-3218</v>
+        <v>-7327</v>
       </c>
       <c r="AR40">
-        <v>-5915</v>
+        <v>-11138</v>
       </c>
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41">
-        <v>-3130</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>-3004</v>
+        <v>273</v>
       </c>
       <c r="D41">
-        <v>-3365</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>22268</v>
+        <v>281</v>
       </c>
       <c r="F41">
-        <v>12769</v>
-      </c>
-      <c r="G41">
-        <v>-3339</v>
+        <v>555</v>
       </c>
       <c r="H41">
-        <v>-3190</v>
+        <v>327</v>
       </c>
       <c r="I41">
-        <v>-3653</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>23894</v>
+        <v>341</v>
       </c>
       <c r="K41">
-        <v>13712</v>
-      </c>
-      <c r="L41">
-        <v>-3568</v>
+        <v>669</v>
       </c>
       <c r="M41">
-        <v>-3443</v>
+        <v>390</v>
       </c>
       <c r="N41">
-        <v>-3629</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>24759</v>
+        <v>390</v>
       </c>
       <c r="P41">
-        <v>14119</v>
+        <v>781</v>
       </c>
       <c r="Q41">
-        <v>-3539</v>
+        <v>2</v>
       </c>
       <c r="R41">
-        <v>-3375</v>
-      </c>
-      <c r="S41">
-        <v>-3656</v>
+        <v>428</v>
       </c>
       <c r="T41">
-        <v>-3511</v>
+        <v>450</v>
       </c>
       <c r="U41">
-        <v>-14081</v>
-      </c>
-      <c r="V41">
-        <v>-3613</v>
+        <v>880</v>
       </c>
       <c r="W41">
-        <v>-3447</v>
-      </c>
-      <c r="X41">
-        <v>-3767</v>
+        <v>561</v>
       </c>
       <c r="Y41">
-        <v>-3640</v>
+        <v>544</v>
       </c>
       <c r="Z41">
-        <v>-14467</v>
-      </c>
-      <c r="AA41">
-        <v>-3732</v>
-      </c>
-      <c r="AB41">
-        <v>-3595</v>
-      </c>
-      <c r="AC41">
-        <v>-3811</v>
+        <v>1105</v>
       </c>
       <c r="AG41">
-        <v>-6134</v>
+        <v>273</v>
       </c>
       <c r="AH41">
-        <v>-9499</v>
+        <v>274</v>
       </c>
       <c r="AI41">
-        <v>-6529</v>
+        <v>327</v>
       </c>
       <c r="AJ41">
-        <v>-10182</v>
+        <v>328</v>
       </c>
       <c r="AK41">
-        <v>-7011</v>
+        <v>390</v>
       </c>
       <c r="AL41">
-        <v>-10640</v>
+        <v>391</v>
       </c>
       <c r="AM41">
-        <v>-6914</v>
+        <v>430</v>
       </c>
       <c r="AN41">
-        <v>-10570</v>
+        <v>430</v>
       </c>
       <c r="AO41">
-        <v>-7060</v>
+        <v>561</v>
       </c>
       <c r="AP41">
-        <v>-10827</v>
-      </c>
-      <c r="AQ41">
-        <v>-7327</v>
-      </c>
-      <c r="AR41">
-        <v>-11138</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>-10851</v>
       </c>
       <c r="C42">
-        <v>273</v>
+        <v>-7161</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>-7093</v>
       </c>
       <c r="E42">
-        <v>281</v>
+        <v>-7795</v>
       </c>
       <c r="F42">
-        <v>555</v>
+        <v>-32900</v>
+      </c>
+      <c r="G42">
+        <v>-10095</v>
       </c>
       <c r="H42">
-        <v>327</v>
+        <v>-22756</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>-20783</v>
       </c>
       <c r="J42">
-        <v>341</v>
+        <v>-19104</v>
       </c>
       <c r="K42">
-        <v>669</v>
+        <v>-72738</v>
+      </c>
+      <c r="L42">
+        <v>-8796</v>
       </c>
       <c r="M42">
-        <v>390</v>
+        <v>-23702</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>-16955</v>
       </c>
       <c r="O42">
-        <v>390</v>
+        <v>-17444</v>
       </c>
       <c r="P42">
-        <v>781</v>
+        <v>-66897</v>
       </c>
       <c r="Q42">
-        <v>2</v>
+        <v>-20706</v>
       </c>
       <c r="R42">
-        <v>428</v>
+        <v>-18574</v>
+      </c>
+      <c r="S42">
+        <v>-15891</v>
       </c>
       <c r="T42">
-        <v>450</v>
+        <v>-17187</v>
       </c>
       <c r="U42">
-        <v>880</v>
+        <v>-72358</v>
+      </c>
+      <c r="V42">
+        <v>-24775</v>
       </c>
       <c r="W42">
-        <v>561</v>
+        <v>-18548</v>
+      </c>
+      <c r="X42">
+        <v>-22900</v>
       </c>
       <c r="Y42">
-        <v>544</v>
+        <v>-19748</v>
       </c>
       <c r="Z42">
-        <v>1105</v>
+        <v>-85971</v>
+      </c>
+      <c r="AA42">
+        <v>-20478</v>
+      </c>
+      <c r="AB42">
+        <v>-22631</v>
+      </c>
+      <c r="AC42">
+        <v>-21865</v>
       </c>
       <c r="AG42">
-        <v>273</v>
+        <v>-18012</v>
       </c>
       <c r="AH42">
-        <v>274</v>
+        <v>-25105</v>
       </c>
       <c r="AI42">
-        <v>327</v>
+        <v>-32851</v>
       </c>
       <c r="AJ42">
-        <v>328</v>
+        <v>-53634</v>
       </c>
       <c r="AK42">
-        <v>390</v>
+        <v>-32498</v>
       </c>
       <c r="AL42">
-        <v>391</v>
+        <v>-49453</v>
       </c>
       <c r="AM42">
-        <v>430</v>
+        <v>-39280</v>
       </c>
       <c r="AN42">
-        <v>430</v>
+        <v>-55171</v>
       </c>
       <c r="AO42">
-        <v>561</v>
+        <v>-43323</v>
       </c>
       <c r="AP42">
-        <v>561</v>
+        <v>-66223</v>
+      </c>
+      <c r="AQ42">
+        <v>-43109</v>
+      </c>
+      <c r="AR42">
+        <v>-64974</v>
       </c>
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B43">
-        <v>-10851</v>
+        <v>178</v>
       </c>
       <c r="C43">
-        <v>-7161</v>
+        <v>47</v>
       </c>
       <c r="D43">
-        <v>-7093</v>
+        <v>309</v>
       </c>
       <c r="E43">
-        <v>-7795</v>
+        <v>93</v>
       </c>
       <c r="F43">
-        <v>-32900</v>
-      </c>
-      <c r="G43">
-        <v>-10095</v>
-      </c>
-      <c r="H43">
-        <v>-22756</v>
-      </c>
-      <c r="I43">
-        <v>-20783</v>
-      </c>
-      <c r="J43">
-        <v>-19104</v>
-      </c>
-      <c r="K43">
-        <v>-72738</v>
-      </c>
-      <c r="L43">
-        <v>-8796</v>
-      </c>
-      <c r="M43">
-        <v>-23702</v>
-      </c>
-      <c r="N43">
-        <v>-16955</v>
-      </c>
-      <c r="O43">
-        <v>-17444</v>
-      </c>
-      <c r="P43">
-        <v>-66897</v>
-      </c>
-      <c r="Q43">
-        <v>-20706</v>
-      </c>
-      <c r="R43">
-        <v>-18574</v>
-      </c>
-      <c r="S43">
-        <v>-15891</v>
-      </c>
-      <c r="T43">
-        <v>-17187</v>
-      </c>
-      <c r="U43">
-        <v>-72358</v>
-      </c>
-      <c r="V43">
-        <v>-24775</v>
-      </c>
-      <c r="W43">
-        <v>-18548</v>
-      </c>
-      <c r="X43">
-        <v>-22900</v>
-      </c>
-      <c r="Y43">
-        <v>-19748</v>
-      </c>
-      <c r="Z43">
-        <v>-85971</v>
-      </c>
-      <c r="AA43">
-        <v>-20478</v>
-      </c>
-      <c r="AB43">
-        <v>-22631</v>
-      </c>
-      <c r="AC43">
-        <v>-21865</v>
+        <v>627</v>
       </c>
       <c r="AG43">
-        <v>-18012</v>
+        <v>225</v>
       </c>
       <c r="AH43">
-        <v>-25105</v>
-      </c>
-      <c r="AI43">
-        <v>-32851</v>
-      </c>
-      <c r="AJ43">
-        <v>-53634</v>
-      </c>
-      <c r="AK43">
-        <v>-32498</v>
-      </c>
-      <c r="AL43">
-        <v>-49453</v>
-      </c>
-      <c r="AM43">
-        <v>-39280</v>
-      </c>
-      <c r="AN43">
-        <v>-55171</v>
-      </c>
-      <c r="AO43">
-        <v>-43323</v>
-      </c>
-      <c r="AP43">
-        <v>-66223</v>
-      </c>
-      <c r="AQ43">
-        <v>-43109</v>
-      </c>
-      <c r="AR43">
-        <v>-64974</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C44">
-        <v>47</v>
+        <v>10975</v>
       </c>
       <c r="D44">
-        <v>309</v>
+        <v>10750</v>
       </c>
       <c r="E44">
-        <v>93</v>
+        <v>6937</v>
       </c>
       <c r="F44">
-        <v>627</v>
+        <v>28662</v>
+      </c>
+      <c r="G44">
+        <v>6969</v>
+      </c>
+      <c r="K44">
+        <v>6969</v>
+      </c>
+      <c r="O44">
+        <v>6963</v>
+      </c>
+      <c r="P44">
+        <v>6963</v>
+      </c>
+      <c r="Q44">
+        <v>2210</v>
+      </c>
+      <c r="S44">
+        <v>8425</v>
+      </c>
+      <c r="T44">
+        <v>5456</v>
+      </c>
+      <c r="U44">
+        <v>16091</v>
+      </c>
+      <c r="W44">
+        <v>13923</v>
+      </c>
+      <c r="Y44">
+        <v>6470</v>
+      </c>
+      <c r="Z44">
+        <v>20393</v>
       </c>
       <c r="AG44">
-        <v>225</v>
+        <v>10975</v>
       </c>
       <c r="AH44">
-        <v>534</v>
+        <v>21725</v>
+      </c>
+      <c r="AI44">
+        <v>6969</v>
+      </c>
+      <c r="AJ44">
+        <v>6969</v>
+      </c>
+      <c r="AM44">
+        <v>2210</v>
+      </c>
+      <c r="AN44">
+        <v>10635</v>
+      </c>
+      <c r="AO44">
+        <v>13923</v>
+      </c>
+      <c r="AP44">
+        <v>13923</v>
       </c>
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45">
-        <v>10975</v>
+        <v>84</v>
       </c>
       <c r="D45">
-        <v>10750</v>
-      </c>
-      <c r="E45">
-        <v>6937</v>
+        <v>-3500</v>
       </c>
       <c r="F45">
-        <v>28662</v>
-      </c>
-      <c r="G45">
-        <v>6969</v>
+        <v>-3500</v>
+      </c>
+      <c r="H45">
+        <v>-500</v>
+      </c>
+      <c r="I45">
+        <v>-6000</v>
       </c>
       <c r="K45">
-        <v>6969</v>
+        <v>-6500</v>
+      </c>
+      <c r="M45">
+        <v>-2500</v>
+      </c>
+      <c r="N45">
+        <v>-3000</v>
       </c>
       <c r="O45">
-        <v>6963</v>
+        <v>-3305</v>
       </c>
       <c r="P45">
-        <v>6963</v>
+        <v>-8805</v>
       </c>
       <c r="Q45">
-        <v>2210</v>
+        <v>-1000</v>
+      </c>
+      <c r="R45">
+        <v>-4250</v>
       </c>
       <c r="S45">
-        <v>8425</v>
-      </c>
-      <c r="T45">
-        <v>5456</v>
+        <v>-7379</v>
       </c>
       <c r="U45">
-        <v>16091</v>
+        <v>-12629</v>
+      </c>
+      <c r="V45">
+        <v>-1000</v>
       </c>
       <c r="W45">
-        <v>13923</v>
+        <v>-3500</v>
+      </c>
+      <c r="X45">
+        <v>-3000</v>
       </c>
       <c r="Y45">
-        <v>6470</v>
+        <v>-1250</v>
       </c>
       <c r="Z45">
-        <v>20393</v>
-      </c>
-      <c r="AG45">
-        <v>10975</v>
+        <v>-8750</v>
+      </c>
+      <c r="AB45">
+        <v>-3750</v>
+      </c>
+      <c r="AC45">
+        <v>-3000</v>
       </c>
       <c r="AH45">
-        <v>21725</v>
+        <v>-3500</v>
       </c>
       <c r="AI45">
-        <v>6969</v>
+        <v>-500</v>
       </c>
       <c r="AJ45">
-        <v>6969</v>
+        <v>-6500</v>
+      </c>
+      <c r="AK45">
+        <v>-2500</v>
+      </c>
+      <c r="AL45">
+        <v>-5500</v>
       </c>
       <c r="AM45">
-        <v>2210</v>
+        <v>-5250</v>
       </c>
       <c r="AN45">
-        <v>10635</v>
+        <v>-12629</v>
       </c>
       <c r="AO45">
-        <v>13923</v>
+        <v>-4500</v>
       </c>
       <c r="AP45">
-        <v>13923</v>
+        <v>-7500</v>
+      </c>
+      <c r="AQ45">
+        <v>-3750</v>
+      </c>
+      <c r="AR45">
+        <v>-6750</v>
       </c>
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46">
-        <v>-3500</v>
-      </c>
-      <c r="F46">
-        <v>-3500</v>
-      </c>
-      <c r="H46">
-        <v>-500</v>
-      </c>
-      <c r="I46">
-        <v>-6000</v>
-      </c>
-      <c r="K46">
-        <v>-6500</v>
-      </c>
-      <c r="M46">
-        <v>-2500</v>
-      </c>
-      <c r="N46">
-        <v>-3000</v>
+        <v>85</v>
       </c>
       <c r="O46">
-        <v>-3305</v>
+        <v>-5977</v>
       </c>
       <c r="P46">
-        <v>-8805</v>
+        <v>-5977</v>
       </c>
       <c r="Q46">
+        <v>-979</v>
+      </c>
+      <c r="R46">
+        <v>2497</v>
+      </c>
+      <c r="S46">
+        <v>-1487</v>
+      </c>
+      <c r="T46">
+        <v>-31</v>
+      </c>
+      <c r="V46">
+        <v>22</v>
+      </c>
+      <c r="X46">
+        <v>3000</v>
+      </c>
+      <c r="Y46">
+        <v>-2000</v>
+      </c>
+      <c r="Z46">
+        <v>1022</v>
+      </c>
+      <c r="AA46">
         <v>-1000</v>
       </c>
-      <c r="R46">
-        <v>-4250</v>
-      </c>
-      <c r="S46">
-        <v>-7379</v>
-      </c>
-      <c r="U46">
-        <v>-12629</v>
-      </c>
-      <c r="V46">
-        <v>-1000</v>
-      </c>
-      <c r="W46">
-        <v>-3500</v>
-      </c>
-      <c r="X46">
-        <v>-3000</v>
-      </c>
-      <c r="Y46">
-        <v>-1250</v>
-      </c>
-      <c r="Z46">
-        <v>-8750</v>
-      </c>
       <c r="AB46">
-        <v>-3750</v>
+        <v>1999</v>
       </c>
       <c r="AC46">
-        <v>-3000</v>
-      </c>
-      <c r="AH46">
-        <v>-3500</v>
-      </c>
-      <c r="AI46">
-        <v>-500</v>
-      </c>
-      <c r="AJ46">
-        <v>-6500</v>
-      </c>
-      <c r="AK46">
-        <v>-2500</v>
-      </c>
-      <c r="AL46">
-        <v>-5500</v>
+        <v>3971</v>
       </c>
       <c r="AM46">
-        <v>-5250</v>
+        <v>1518</v>
       </c>
       <c r="AN46">
-        <v>-12629</v>
+        <v>31</v>
       </c>
       <c r="AO46">
-        <v>-4500</v>
+        <v>22</v>
       </c>
       <c r="AP46">
-        <v>-7500</v>
+        <v>3022</v>
       </c>
       <c r="AQ46">
-        <v>-3750</v>
+        <v>999</v>
       </c>
       <c r="AR46">
-        <v>-6750</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="O47">
-        <v>-5977</v>
-      </c>
-      <c r="P47">
-        <v>-5977</v>
-      </c>
-      <c r="Q47">
-        <v>-979</v>
-      </c>
-      <c r="R47">
-        <v>2497</v>
-      </c>
-      <c r="S47">
-        <v>-1487</v>
-      </c>
-      <c r="T47">
-        <v>-31</v>
-      </c>
-      <c r="V47">
-        <v>22</v>
-      </c>
-      <c r="X47">
-        <v>3000</v>
-      </c>
-      <c r="Y47">
-        <v>-2000</v>
-      </c>
-      <c r="Z47">
-        <v>1022</v>
-      </c>
-      <c r="AA47">
-        <v>-1000</v>
-      </c>
-      <c r="AB47">
-        <v>1999</v>
-      </c>
-      <c r="AC47">
-        <v>3971</v>
-      </c>
-      <c r="AM47">
-        <v>1518</v>
-      </c>
-      <c r="AN47">
-        <v>31</v>
-      </c>
-      <c r="AO47">
-        <v>22</v>
-      </c>
-      <c r="AP47">
-        <v>3022</v>
-      </c>
-      <c r="AQ47">
-        <v>999</v>
-      </c>
-      <c r="AR47">
-        <v>4970</v>
+        <v>86</v>
+      </c>
+      <c r="B47">
+        <v>2385</v>
+      </c>
+      <c r="C47">
+        <v>-506</v>
+      </c>
+      <c r="D47">
+        <v>1987</v>
+      </c>
+      <c r="E47">
+        <v>-14</v>
+      </c>
+      <c r="F47">
+        <v>3852</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>-1</v>
+      </c>
+      <c r="I47">
+        <v>-11</v>
+      </c>
+      <c r="J47">
+        <v>-27</v>
+      </c>
+      <c r="K47">
+        <v>-37</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>-6</v>
+      </c>
+      <c r="AG47">
+        <v>1879</v>
+      </c>
+      <c r="AH47">
+        <v>3866</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AJ47">
+        <v>-10</v>
       </c>
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48">
-        <v>2385</v>
-      </c>
-      <c r="C48">
-        <v>-506</v>
-      </c>
-      <c r="D48">
-        <v>1987</v>
-      </c>
-      <c r="E48">
-        <v>-14</v>
-      </c>
-      <c r="F48">
-        <v>3852</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-      <c r="I48">
-        <v>-11</v>
-      </c>
-      <c r="J48">
-        <v>-27</v>
-      </c>
-      <c r="K48">
-        <v>-37</v>
-      </c>
-      <c r="L48">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="M48">
+        <v>-87</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>-22</v>
+      </c>
+      <c r="P48">
+        <v>-105</v>
+      </c>
+      <c r="Q48">
+        <v>-16</v>
+      </c>
+      <c r="R48">
+        <v>-35</v>
+      </c>
+      <c r="S48">
+        <v>-69</v>
+      </c>
+      <c r="T48">
         <v>-6</v>
       </c>
-      <c r="AG48">
-        <v>1879</v>
-      </c>
-      <c r="AH48">
-        <v>3866</v>
-      </c>
-      <c r="AI48">
-        <v>1</v>
-      </c>
-      <c r="AJ48">
-        <v>-10</v>
+      <c r="U48">
+        <v>-126</v>
+      </c>
+      <c r="V48">
+        <v>-22</v>
+      </c>
+      <c r="W48">
+        <v>-16</v>
+      </c>
+      <c r="X48">
+        <v>-34</v>
+      </c>
+      <c r="Y48">
+        <v>-57</v>
+      </c>
+      <c r="Z48">
+        <v>-129</v>
+      </c>
+      <c r="AA48">
+        <v>-61</v>
+      </c>
+      <c r="AB48">
+        <v>-44</v>
+      </c>
+      <c r="AC48">
+        <v>-43</v>
+      </c>
+      <c r="AK48">
+        <v>-87</v>
+      </c>
+      <c r="AL48">
+        <v>-83</v>
+      </c>
+      <c r="AM48">
+        <v>-51</v>
+      </c>
+      <c r="AN48">
+        <v>-120</v>
+      </c>
+      <c r="AO48">
+        <v>-38</v>
+      </c>
+      <c r="AP48">
+        <v>-72</v>
+      </c>
+      <c r="AQ48">
+        <v>-105</v>
+      </c>
+      <c r="AR48">
+        <v>-148</v>
       </c>
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>54</v>
-      </c>
-      <c r="M49">
-        <v>-87</v>
-      </c>
-      <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49">
-        <v>-22</v>
-      </c>
-      <c r="P49">
-        <v>-105</v>
-      </c>
-      <c r="Q49">
-        <v>-16</v>
+        <v>89</v>
       </c>
       <c r="R49">
-        <v>-35</v>
+        <v>2556</v>
       </c>
       <c r="S49">
-        <v>-69</v>
-      </c>
-      <c r="T49">
-        <v>-6</v>
-      </c>
-      <c r="U49">
-        <v>-126</v>
-      </c>
-      <c r="V49">
-        <v>-22</v>
-      </c>
-      <c r="W49">
-        <v>-16</v>
-      </c>
-      <c r="X49">
-        <v>-34</v>
-      </c>
-      <c r="Y49">
-        <v>-57</v>
-      </c>
-      <c r="Z49">
-        <v>-129</v>
-      </c>
-      <c r="AA49">
-        <v>-61</v>
-      </c>
-      <c r="AB49">
-        <v>-44</v>
-      </c>
-      <c r="AC49">
-        <v>-43</v>
-      </c>
-      <c r="AK49">
-        <v>-87</v>
-      </c>
-      <c r="AL49">
-        <v>-83</v>
+        <v>-2556</v>
       </c>
       <c r="AM49">
-        <v>-51</v>
-      </c>
-      <c r="AN49">
-        <v>-120</v>
-      </c>
-      <c r="AO49">
-        <v>-38</v>
-      </c>
-      <c r="AP49">
-        <v>-72</v>
-      </c>
-      <c r="AQ49">
-        <v>-105</v>
-      </c>
-      <c r="AR49">
-        <v>-148</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="S50">
+        <v>5165</v>
+      </c>
+      <c r="T50">
+        <v>-5165</v>
+      </c>
+      <c r="AN50">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="N51">
+        <v>-2026</v>
+      </c>
+      <c r="O51">
+        <v>2026</v>
+      </c>
+      <c r="T51">
+        <v>-963</v>
+      </c>
+      <c r="U51">
+        <v>-963</v>
+      </c>
+      <c r="AL51">
+        <v>-2026</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>88</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>-12047</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>465</v>
       </c>
-      <c r="D50">
+      <c r="D52">
         <v>-1769</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>-3996</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <v>-17347</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>-7501</v>
       </c>
-      <c r="H50">
+      <c r="H52">
         <v>-26272</v>
       </c>
-      <c r="I50">
+      <c r="I52">
         <v>-31523</v>
       </c>
-      <c r="J50">
+      <c r="J52">
         <v>-22580</v>
       </c>
-      <c r="K50">
+      <c r="K52">
         <v>-87876</v>
       </c>
-      <c r="L50">
+      <c r="L52">
         <v>-13676</v>
       </c>
-      <c r="M50">
+      <c r="M52">
         <v>-29457</v>
       </c>
-      <c r="N50">
+      <c r="N52">
         <v>-26804</v>
       </c>
-      <c r="O50">
+      <c r="O52">
+        <f>P52-AL52</f>
         <v>-21039</v>
       </c>
-      <c r="P50">
+      <c r="P52">
         <v>-90976</v>
       </c>
-      <c r="Q50">
+      <c r="Q52">
         <v>-25407</v>
       </c>
-      <c r="R50">
+      <c r="R52">
         <v>-20940</v>
       </c>
-      <c r="S50">
+      <c r="S52">
         <v>-19116</v>
       </c>
-      <c r="T50">
+      <c r="T52">
         <v>-21357</v>
       </c>
-      <c r="U50">
+      <c r="U52">
         <v>-86820</v>
       </c>
-      <c r="V50">
+      <c r="V52">
         <v>-32249</v>
       </c>
-      <c r="W50">
+      <c r="W52">
         <v>-11326</v>
       </c>
-      <c r="X50">
+      <c r="X52">
         <v>-29396</v>
       </c>
-      <c r="Y50">
+      <c r="Y52">
         <v>-20382</v>
       </c>
-      <c r="Z50">
+      <c r="Z52">
         <v>-93353</v>
       </c>
-      <c r="AA50">
+      <c r="AA52">
         <v>-28159</v>
       </c>
-      <c r="AB50">
+      <c r="AB52">
         <v>-28351</v>
       </c>
-      <c r="AC50">
+      <c r="AC52">
         <v>-27445</v>
       </c>
-      <c r="AG50">
+      <c r="AG52">
         <v>-11582</v>
       </c>
-      <c r="AH50">
+      <c r="AH52">
         <v>-13351</v>
       </c>
-      <c r="AI50">
+      <c r="AI52">
         <v>-33773</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ52">
         <v>-65296</v>
       </c>
-      <c r="AK50">
+      <c r="AK52">
         <v>-43133</v>
       </c>
-      <c r="AL50">
+      <c r="AL52">
         <v>-69937</v>
       </c>
-      <c r="AM50">
+      <c r="AM52">
         <v>-46347</v>
       </c>
-      <c r="AN50">
+      <c r="AN52">
         <v>-65463</v>
       </c>
-      <c r="AO50">
+      <c r="AO52">
         <v>-43575</v>
       </c>
-      <c r="AP50">
+      <c r="AP52">
         <v>-72971</v>
       </c>
-      <c r="AQ50">
+      <c r="AQ52">
         <v>-56510</v>
       </c>
-      <c r="AR50">
+      <c r="AR52">
         <v>-83955</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>91</v>
       </c>
-      <c r="B53">
-        <f t="shared" ref="B53:AR53" si="19">B22+B38+B50</f>
+      <c r="B54">
+        <f>B21+B37+B52</f>
         <v>-4113</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="19"/>
+      <c r="C54">
+        <f>C21+C37+C52</f>
         <v>-1214</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="19"/>
+      <c r="D54">
+        <f>D21+D37+D52</f>
         <v>3414</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="19"/>
+      <c r="E54">
+        <f>E21+E37+E52</f>
         <v>1718</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="19"/>
+      <c r="F54">
+        <f>F21+F37+F52</f>
         <v>-195</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="19"/>
+      <c r="G54">
+        <f>G21+G37+G52</f>
         <v>7202</v>
       </c>
-      <c r="H53">
-        <f t="shared" si="19"/>
+      <c r="H54">
+        <f>H21+H37+H52</f>
         <v>17568</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="19"/>
+      <c r="I54">
+        <f>I21+I37+I52</f>
         <v>-13088</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="19"/>
+      <c r="J54">
+        <f>J21+J37+J52</f>
         <v>-6058</v>
       </c>
-      <c r="K53">
-        <f t="shared" si="19"/>
+      <c r="K54">
+        <f>K21+K37+K52</f>
         <v>5624</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="19"/>
+      <c r="L54">
+        <f>L21+L37+L52</f>
         <v>18858</v>
       </c>
-      <c r="M53">
-        <f t="shared" si="19"/>
+      <c r="M54">
+        <f>M21+M37+M52</f>
         <v>-4954</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="19"/>
+      <c r="N54">
+        <f>N21+N37+N52</f>
         <v>12334</v>
       </c>
-      <c r="O53">
-        <f t="shared" si="19"/>
+      <c r="O54">
+        <f>O21+O37+O52</f>
         <v>-1927</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="19"/>
+      <c r="P54">
+        <f>P21+P37+P52</f>
         <v>24311</v>
       </c>
-      <c r="Q53">
-        <f t="shared" si="19"/>
+      <c r="Q54">
+        <f>Q21+Q37+Q52</f>
         <v>-8559</v>
       </c>
-      <c r="R53">
-        <f t="shared" si="19"/>
+      <c r="R54">
+        <f>R21+R37+R52</f>
         <v>1384</v>
       </c>
-      <c r="S53">
-        <f t="shared" si="19"/>
+      <c r="S54">
+        <f>S21+S37+S52</f>
         <v>-8010</v>
       </c>
-      <c r="T53">
-        <f t="shared" si="19"/>
+      <c r="T54">
+        <f>T21+T37+T52</f>
         <v>4750</v>
       </c>
-      <c r="U53">
-        <f t="shared" si="19"/>
+      <c r="U54">
+        <f>U21+U37+U52</f>
         <v>-10435</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="19"/>
+      <c r="V54">
+        <f>V21+V37+V52</f>
         <v>-2070</v>
       </c>
-      <c r="W53">
-        <f t="shared" si="19"/>
+      <c r="W54">
+        <f>W21+W37+W52</f>
         <v>2287</v>
       </c>
-      <c r="X53">
-        <f t="shared" si="19"/>
+      <c r="X54">
+        <f>X21+X37+X52</f>
         <v>-4730</v>
       </c>
-      <c r="Y53">
-        <f t="shared" si="19"/>
+      <c r="Y54">
+        <f>Y21+Y37+Y52</f>
         <v>653</v>
       </c>
-      <c r="Z53">
-        <f t="shared" si="19"/>
+      <c r="Z54">
+        <f>Z21+Z37+Z52</f>
         <v>-3860</v>
       </c>
-      <c r="AA53">
-        <f t="shared" si="19"/>
+      <c r="AA54">
+        <f>AA21+AA37+AA52</f>
         <v>2701</v>
       </c>
-      <c r="AB53">
-        <f t="shared" si="19"/>
+      <c r="AB54">
+        <f>AB21+AB37+AB52</f>
         <v>-9450</v>
       </c>
-      <c r="AC53">
-        <f t="shared" si="19"/>
+      <c r="AC54">
+        <f>AC21+AC37+AC52</f>
         <v>-319</v>
       </c>
-      <c r="AG53">
-        <f t="shared" si="19"/>
+      <c r="AG54">
+        <f>AG21+AG37+AG52</f>
         <v>-5327</v>
       </c>
-      <c r="AH53">
-        <f t="shared" si="19"/>
+      <c r="AH54">
+        <f>AH21+AH37+AH52</f>
         <v>-1913</v>
       </c>
-      <c r="AI53">
-        <f t="shared" si="19"/>
+      <c r="AI54">
+        <f>AI21+AI37+AI52</f>
         <v>24770</v>
       </c>
-      <c r="AJ53">
-        <f t="shared" si="19"/>
+      <c r="AJ54">
+        <f>AJ21+AJ37+AJ52</f>
         <v>11682</v>
       </c>
-      <c r="AK53">
-        <f t="shared" si="19"/>
+      <c r="AK54">
+        <f>AK21+AK37+AK52</f>
         <v>13904</v>
       </c>
-      <c r="AL53">
-        <f t="shared" si="19"/>
+      <c r="AL54">
+        <f>AL21+AL37+AL52</f>
         <v>26238</v>
       </c>
-      <c r="AM53">
-        <f t="shared" si="19"/>
+      <c r="AM54">
+        <f>AM21+AM37+AM52</f>
         <v>-7175</v>
       </c>
-      <c r="AN53">
-        <f t="shared" si="19"/>
+      <c r="AN54">
+        <f>AN21+AN37+AN52</f>
         <v>-15185</v>
       </c>
-      <c r="AO53">
-        <f t="shared" si="19"/>
+      <c r="AO54">
+        <f>AO21+AO37+AO52</f>
         <v>217</v>
       </c>
-      <c r="AP53">
-        <f t="shared" si="19"/>
+      <c r="AP54">
+        <f>AP21+AP37+AP52</f>
         <v>-4513</v>
       </c>
-      <c r="AQ53">
-        <f t="shared" si="19"/>
+      <c r="AQ54">
+        <f>AQ21+AQ37+AQ52</f>
         <v>-6749</v>
       </c>
-      <c r="AR53">
-        <f t="shared" si="19"/>
+      <c r="AR54">
+        <f>AR21+AR37+AR52</f>
         <v>-7068</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>89</v>
-      </c>
-      <c r="R55">
-        <v>2556</v>
-      </c>
-      <c r="S55">
-        <v>-2556</v>
-      </c>
-      <c r="AM55">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>90</v>
-      </c>
-      <c r="S56">
-        <v>5165</v>
-      </c>
-      <c r="T56">
-        <v>-5165</v>
-      </c>
-      <c r="AN56">
-        <v>5165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="N57">
-        <v>-2026</v>
-      </c>
-      <c r="O57">
-        <v>2026</v>
-      </c>
-      <c r="T57">
-        <v>-963</v>
-      </c>
-      <c r="U57">
-        <v>-963</v>
-      </c>
-      <c r="AL57">
-        <v>-2026</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>98</v>
       </c>
-      <c r="B60">
+      <c r="B58">
         <v>16371</v>
       </c>
-      <c r="C60">
+      <c r="C58">
         <v>15157</v>
       </c>
-      <c r="D60">
+      <c r="D58">
         <v>18571</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
+      <c r="E58">
+        <v>20289</v>
+      </c>
+      <c r="F58">
+        <v>20289</v>
+      </c>
+      <c r="G58">
         <v>27491</v>
       </c>
-      <c r="H60">
+      <c r="H58">
         <v>45059</v>
       </c>
-      <c r="I60">
+      <c r="I58">
         <v>31971</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
+      <c r="J58">
+        <v>25913</v>
+      </c>
+      <c r="K58">
+        <v>25913</v>
+      </c>
+      <c r="L58">
         <v>44771</v>
       </c>
-      <c r="M60">
+      <c r="M58">
         <v>39817</v>
       </c>
-      <c r="N60">
+      <c r="N58">
         <v>52151</v>
       </c>
-      <c r="O60">
+      <c r="O58">
         <v>50224</v>
       </c>
-      <c r="P60">
+      <c r="P58">
         <v>50224</v>
       </c>
-      <c r="Q60">
+      <c r="Q58">
         <v>41665</v>
       </c>
-      <c r="R60">
+      <c r="R58">
         <v>43049</v>
       </c>
-      <c r="S60">
+      <c r="S58">
         <v>35039</v>
       </c>
-      <c r="T60">
+      <c r="T58">
         <v>39789</v>
       </c>
-      <c r="U60">
+      <c r="U58">
         <v>39789</v>
       </c>
-      <c r="V60">
+      <c r="V58">
         <v>37719</v>
       </c>
-      <c r="W60">
+      <c r="W58">
         <v>40006</v>
       </c>
-      <c r="X60">
+      <c r="X58">
         <v>35276</v>
       </c>
-      <c r="Y60">
+      <c r="Y58">
         <v>35929</v>
       </c>
-      <c r="Z60">
+      <c r="Z58">
         <v>35929</v>
       </c>
-      <c r="AA60">
+      <c r="AA58">
         <v>38630</v>
       </c>
-      <c r="AB60">
+      <c r="AB58">
         <v>29180</v>
       </c>
-      <c r="AC60">
+      <c r="AC58">
         <v>28861</v>
       </c>
-      <c r="AG60">
+      <c r="AG58">
         <v>15157</v>
       </c>
-      <c r="AH60">
+      <c r="AH58">
         <v>18571</v>
       </c>
-      <c r="AI60">
+      <c r="AI58">
         <v>45059</v>
       </c>
-      <c r="AJ60">
+      <c r="AJ58">
         <v>31971</v>
       </c>
-      <c r="AK60">
+      <c r="AK58">
         <v>39817</v>
       </c>
-      <c r="AL60">
+      <c r="AL58">
         <v>52151</v>
       </c>
-      <c r="AM60">
+      <c r="AM58">
         <v>43049</v>
       </c>
-      <c r="AN60">
+      <c r="AN58">
         <v>35039</v>
       </c>
-      <c r="AO60">
+      <c r="AO58">
         <v>40006</v>
       </c>
-      <c r="AP60">
+      <c r="AP58">
         <v>35276</v>
       </c>
-      <c r="AQ60">
+      <c r="AQ58">
         <v>29180</v>
       </c>
-      <c r="AR60">
+      <c r="AR58">
         <v>28861</v>
       </c>
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61">
-        <v>20289</v>
-      </c>
-      <c r="F61">
-        <v>20289</v>
-      </c>
-      <c r="J61">
-        <v>25913</v>
-      </c>
-      <c r="K61">
-        <v>25913</v>
+        <v>95</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>42</v>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62">
+        <v>3510</v>
+      </c>
+      <c r="C62">
+        <v>3368</v>
+      </c>
+      <c r="D62">
+        <v>2874</v>
+      </c>
+      <c r="E62">
+        <v>1839</v>
+      </c>
+      <c r="F62">
+        <v>11591</v>
+      </c>
+      <c r="G62">
+        <v>3551</v>
+      </c>
+      <c r="H62">
+        <v>2789</v>
+      </c>
+      <c r="I62">
+        <v>2479</v>
+      </c>
+      <c r="J62">
+        <v>1598</v>
+      </c>
+      <c r="K62">
+        <v>10417</v>
+      </c>
+      <c r="L62">
+        <v>4916</v>
+      </c>
+      <c r="M62">
+        <v>4581</v>
+      </c>
+      <c r="N62">
+        <v>2298</v>
+      </c>
+      <c r="O62">
+        <v>3468</v>
+      </c>
+      <c r="P62">
+        <v>15263</v>
+      </c>
+      <c r="Q62">
+        <v>4393</v>
+      </c>
+      <c r="R62">
+        <v>3112</v>
+      </c>
+      <c r="S62">
+        <v>905</v>
+      </c>
+      <c r="T62">
+        <v>1091</v>
+      </c>
+      <c r="U62">
+        <v>9501</v>
+      </c>
+      <c r="V62">
+        <v>1787</v>
+      </c>
+      <c r="W62">
+        <v>8489</v>
+      </c>
+      <c r="X62">
+        <v>8260</v>
+      </c>
+      <c r="Y62">
+        <v>6849</v>
+      </c>
+      <c r="Z62">
+        <v>25385</v>
+      </c>
+      <c r="AA62">
+        <v>5235</v>
+      </c>
+      <c r="AB62">
+        <v>4066</v>
+      </c>
+      <c r="AC62">
+        <v>2950</v>
+      </c>
+      <c r="AG62">
+        <v>6878</v>
+      </c>
+      <c r="AH62">
+        <v>9752</v>
+      </c>
+      <c r="AI62">
+        <v>6340</v>
+      </c>
+      <c r="AJ62">
+        <v>8819</v>
+      </c>
+      <c r="AK62">
+        <v>9497</v>
+      </c>
+      <c r="AL62">
+        <v>11795</v>
+      </c>
+      <c r="AM62">
+        <v>7505</v>
+      </c>
+      <c r="AN62">
+        <v>8410</v>
+      </c>
+      <c r="AO62">
+        <v>10276</v>
+      </c>
+      <c r="AP62">
+        <v>18536</v>
+      </c>
+      <c r="AQ62">
+        <v>9301</v>
+      </c>
+      <c r="AR62">
+        <v>12251</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65">
-        <v>3510</v>
-      </c>
-      <c r="C65">
-        <v>3368</v>
-      </c>
-      <c r="D65">
-        <v>2874</v>
-      </c>
-      <c r="E65">
-        <v>1839</v>
-      </c>
-      <c r="F65">
-        <v>11591</v>
-      </c>
-      <c r="G65">
-        <v>3551</v>
-      </c>
-      <c r="H65">
-        <v>2789</v>
-      </c>
-      <c r="I65">
-        <v>2479</v>
-      </c>
-      <c r="J65">
-        <v>1598</v>
-      </c>
-      <c r="K65">
-        <v>10417</v>
-      </c>
-      <c r="L65">
-        <v>4916</v>
-      </c>
-      <c r="M65">
-        <v>4581</v>
-      </c>
-      <c r="N65">
-        <v>2298</v>
-      </c>
-      <c r="O65">
-        <v>3468</v>
-      </c>
-      <c r="P65">
-        <v>15263</v>
-      </c>
-      <c r="Q65">
-        <v>4393</v>
-      </c>
-      <c r="R65">
-        <v>3112</v>
-      </c>
-      <c r="S65">
-        <v>905</v>
-      </c>
-      <c r="T65">
-        <v>1091</v>
-      </c>
-      <c r="U65">
-        <v>9501</v>
-      </c>
-      <c r="V65">
-        <v>1787</v>
-      </c>
-      <c r="W65">
-        <v>8489</v>
-      </c>
-      <c r="X65">
-        <v>8260</v>
-      </c>
-      <c r="Y65">
-        <v>6849</v>
-      </c>
-      <c r="Z65">
-        <v>25385</v>
-      </c>
-      <c r="AA65">
-        <v>5235</v>
-      </c>
-      <c r="AB65">
-        <v>4066</v>
-      </c>
-      <c r="AC65">
-        <v>2950</v>
-      </c>
-      <c r="AG65">
-        <v>6878</v>
-      </c>
-      <c r="AH65">
-        <v>9752</v>
-      </c>
-      <c r="AI65">
-        <v>6340</v>
-      </c>
-      <c r="AJ65">
-        <v>8819</v>
-      </c>
-      <c r="AK65">
-        <v>9497</v>
-      </c>
-      <c r="AL65">
-        <v>11795</v>
-      </c>
-      <c r="AM65">
-        <v>7505</v>
-      </c>
-      <c r="AN65">
-        <v>8410</v>
-      </c>
-      <c r="AO65">
-        <v>10276</v>
-      </c>
-      <c r="AP65">
-        <v>18536</v>
-      </c>
-      <c r="AQ65">
-        <v>9301</v>
-      </c>
-      <c r="AR65">
-        <v>12251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>99</v>
       </c>
-      <c r="B66">
+      <c r="B63">
         <v>497</v>
       </c>
-      <c r="C66">
+      <c r="C63">
         <v>510</v>
       </c>
-      <c r="D66">
+      <c r="D63">
         <v>449</v>
       </c>
-      <c r="E66">
+      <c r="E63">
         <v>636</v>
       </c>
-      <c r="F66">
+      <c r="F63">
         <v>2092</v>
       </c>
-      <c r="G66">
+      <c r="G63">
         <v>623</v>
       </c>
-      <c r="H66">
+      <c r="H63">
         <v>733</v>
       </c>
-      <c r="I66">
+      <c r="I63">
         <v>764</v>
       </c>
-      <c r="J66">
+      <c r="J63">
         <v>902</v>
       </c>
-      <c r="K66">
+      <c r="K63">
         <v>3022</v>
       </c>
-      <c r="L66">
+      <c r="L63">
         <v>836</v>
       </c>
-      <c r="M66">
+      <c r="M63">
         <v>926</v>
       </c>
-      <c r="N66">
+      <c r="N63">
         <v>801</v>
       </c>
-      <c r="O66">
+      <c r="O63">
         <v>860</v>
       </c>
-      <c r="P66">
+      <c r="P63">
         <v>3423</v>
       </c>
-      <c r="Q66">
+      <c r="Q63">
         <v>771</v>
       </c>
-      <c r="R66">
+      <c r="R63">
         <v>918</v>
       </c>
-      <c r="S66">
+      <c r="S63">
         <v>586</v>
       </c>
-      <c r="T66">
+      <c r="T63">
         <v>727</v>
       </c>
-      <c r="U66">
+      <c r="U63">
         <v>3002</v>
       </c>
-      <c r="V66">
+      <c r="V63">
         <v>619</v>
       </c>
-      <c r="W66">
+      <c r="W63">
         <v>708</v>
       </c>
-      <c r="X66">
+      <c r="X63">
         <v>543</v>
       </c>
-      <c r="Y66">
+      <c r="Y63">
         <v>817</v>
       </c>
-      <c r="Z66">
+      <c r="Z63">
         <v>2687</v>
       </c>
-      <c r="AA66">
+      <c r="AA63">
         <v>531</v>
       </c>
-      <c r="AB66">
+      <c r="AB63">
         <v>875</v>
       </c>
-      <c r="AC66">
+      <c r="AC63">
         <v>504</v>
       </c>
-      <c r="AG66">
+      <c r="AG63">
         <v>1007</v>
       </c>
-      <c r="AH66">
+      <c r="AH63">
         <v>1456</v>
       </c>
-      <c r="AI66">
+      <c r="AI63">
         <v>1356</v>
       </c>
-      <c r="AJ66">
+      <c r="AJ63">
         <v>2120</v>
       </c>
-      <c r="AK66">
+      <c r="AK63">
         <v>1762</v>
       </c>
-      <c r="AL66">
+      <c r="AL63">
         <v>2563</v>
       </c>
-      <c r="AM66">
+      <c r="AM63">
         <v>1689</v>
       </c>
-      <c r="AN66">
+      <c r="AN63">
         <v>2275</v>
       </c>
-      <c r="AO66">
+      <c r="AO63">
         <v>1327</v>
       </c>
-      <c r="AP66">
+      <c r="AP63">
         <v>1870</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ63">
         <v>1406</v>
       </c>
-      <c r="AR66">
+      <c r="AR63">
         <v>1910</v>
       </c>
     </row>

--- a/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7039ED3-F9BF-724E-80BE-FB03F35A0618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF73A97E-AE88-914C-895C-C92785D8C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="500" windowWidth="16620" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
@@ -699,10 +699,10 @@
   <dimension ref="A1:AR63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39:XFD54"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4820,63 +4820,63 @@
         <v>91</v>
       </c>
       <c r="B54">
-        <f>B21+B37+B52</f>
+        <f t="shared" ref="B54:AC54" si="21">B21+B37+B52</f>
         <v>-4113</v>
       </c>
       <c r="C54">
-        <f>C21+C37+C52</f>
+        <f t="shared" si="21"/>
         <v>-1214</v>
       </c>
       <c r="D54">
-        <f>D21+D37+D52</f>
+        <f t="shared" si="21"/>
         <v>3414</v>
       </c>
       <c r="E54">
-        <f>E21+E37+E52</f>
+        <f t="shared" si="21"/>
         <v>1718</v>
       </c>
       <c r="F54">
-        <f>F21+F37+F52</f>
+        <f t="shared" si="21"/>
         <v>-195</v>
       </c>
       <c r="G54">
-        <f>G21+G37+G52</f>
+        <f t="shared" si="21"/>
         <v>7202</v>
       </c>
       <c r="H54">
-        <f>H21+H37+H52</f>
+        <f t="shared" si="21"/>
         <v>17568</v>
       </c>
       <c r="I54">
-        <f>I21+I37+I52</f>
+        <f t="shared" si="21"/>
         <v>-13088</v>
       </c>
       <c r="J54">
-        <f>J21+J37+J52</f>
+        <f t="shared" si="21"/>
         <v>-6058</v>
       </c>
       <c r="K54">
-        <f>K21+K37+K52</f>
+        <f t="shared" si="21"/>
         <v>5624</v>
       </c>
       <c r="L54">
-        <f>L21+L37+L52</f>
+        <f t="shared" si="21"/>
         <v>18858</v>
       </c>
       <c r="M54">
-        <f>M21+M37+M52</f>
+        <f t="shared" si="21"/>
         <v>-4954</v>
       </c>
       <c r="N54">
-        <f>N21+N37+N52</f>
+        <f t="shared" si="21"/>
         <v>12334</v>
       </c>
       <c r="O54">
-        <f>O21+O37+O52</f>
+        <f t="shared" si="21"/>
         <v>-1927</v>
       </c>
       <c r="P54">
-        <f>P21+P37+P52</f>
+        <f t="shared" si="21"/>
         <v>24311</v>
       </c>
       <c r="Q54">
@@ -4884,35 +4884,35 @@
         <v>-8559</v>
       </c>
       <c r="R54">
-        <f>R21+R37+R52</f>
+        <f t="shared" si="21"/>
         <v>1384</v>
       </c>
       <c r="S54">
-        <f>S21+S37+S52</f>
+        <f t="shared" si="21"/>
         <v>-8010</v>
       </c>
       <c r="T54">
-        <f>T21+T37+T52</f>
+        <f t="shared" si="21"/>
         <v>4750</v>
       </c>
       <c r="U54">
-        <f>U21+U37+U52</f>
+        <f t="shared" si="21"/>
         <v>-10435</v>
       </c>
       <c r="V54">
-        <f>V21+V37+V52</f>
+        <f t="shared" si="21"/>
         <v>-2070</v>
       </c>
       <c r="W54">
-        <f>W21+W37+W52</f>
+        <f t="shared" si="21"/>
         <v>2287</v>
       </c>
       <c r="X54">
-        <f>X21+X37+X52</f>
+        <f t="shared" si="21"/>
         <v>-4730</v>
       </c>
       <c r="Y54">
-        <f>Y21+Y37+Y52</f>
+        <f t="shared" si="21"/>
         <v>653</v>
       </c>
       <c r="Z54">
@@ -4920,63 +4920,63 @@
         <v>-3860</v>
       </c>
       <c r="AA54">
-        <f>AA21+AA37+AA52</f>
+        <f t="shared" si="21"/>
         <v>2701</v>
       </c>
       <c r="AB54">
-        <f>AB21+AB37+AB52</f>
+        <f t="shared" si="21"/>
         <v>-9450</v>
       </c>
       <c r="AC54">
-        <f>AC21+AC37+AC52</f>
+        <f t="shared" si="21"/>
         <v>-319</v>
       </c>
       <c r="AG54">
-        <f>AG21+AG37+AG52</f>
+        <f t="shared" ref="AG54:AR54" si="22">AG21+AG37+AG52</f>
         <v>-5327</v>
       </c>
       <c r="AH54">
-        <f>AH21+AH37+AH52</f>
+        <f t="shared" si="22"/>
         <v>-1913</v>
       </c>
       <c r="AI54">
-        <f>AI21+AI37+AI52</f>
+        <f t="shared" si="22"/>
         <v>24770</v>
       </c>
       <c r="AJ54">
-        <f>AJ21+AJ37+AJ52</f>
+        <f t="shared" si="22"/>
         <v>11682</v>
       </c>
       <c r="AK54">
-        <f>AK21+AK37+AK52</f>
+        <f t="shared" si="22"/>
         <v>13904</v>
       </c>
       <c r="AL54">
-        <f>AL21+AL37+AL52</f>
+        <f t="shared" si="22"/>
         <v>26238</v>
       </c>
       <c r="AM54">
-        <f>AM21+AM37+AM52</f>
+        <f t="shared" si="22"/>
         <v>-7175</v>
       </c>
       <c r="AN54">
-        <f>AN21+AN37+AN52</f>
+        <f t="shared" si="22"/>
         <v>-15185</v>
       </c>
       <c r="AO54">
-        <f>AO21+AO37+AO52</f>
+        <f t="shared" si="22"/>
         <v>217</v>
       </c>
       <c r="AP54">
-        <f>AP21+AP37+AP52</f>
+        <f t="shared" si="22"/>
         <v>-4513</v>
       </c>
       <c r="AQ54">
-        <f>AQ21+AQ37+AQ52</f>
+        <f t="shared" si="22"/>
         <v>-6749</v>
       </c>
       <c r="AR54">
-        <f>AR21+AR37+AR52</f>
+        <f t="shared" si="22"/>
         <v>-7068</v>
       </c>
     </row>

--- a/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
+++ b/output/Financial Statement AAPL/Compiled Cashflow Statement-AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /output/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF73A97E-AE88-914C-895C-C92785D8C6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E4FB5C-E3E3-5B41-81EE-239513D682C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="500" windowWidth="16620" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5920" yWindow="520" windowWidth="26600" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Compiled Statement" sheetId="1" r:id="rId1"/>
@@ -699,10 +699,10 @@
   <dimension ref="A1:AR63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4978,6 +4978,12 @@
       <c r="AR54">
         <f t="shared" si="22"/>
         <v>-7068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="R56">
+        <f>R54-R52</f>
+        <v>22324</v>
       </c>
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.2">
